--- a/幽灵歌单整理.xlsx
+++ b/幽灵歌单整理.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\v-song-list\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9192895E-DCAB-4C90-B787-38E7032589EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="376" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="376">
   <si>
     <t>价格</t>
   </si>
@@ -948,9 +956,6 @@
   </si>
   <si>
     <t>潘柚彤,陈峰</t>
-  </si>
-  <si>
-    <t>国语,可爱,付费,超值,甜歌,强烈推荐</t>
   </si>
   <si>
     <t>电影《下一任：前任》片尾曲</t>
@@ -1141,58 +1146,87 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF175CEB"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF175CEB"/>
-        <u val="single"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">https://www.bilibili.com/video/BV1Es411X7AE</t>
+      <t>https://www.bilibili.com/video/BV1Es411X7AE</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国语,可爱,超值,甜歌,强烈推荐</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <sz val="11.0"/>
-      <color theme="1" tint="0.0"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF494949"/>
       <name val="等线"/>
-      <sz val="11.0"/>
-      <color rgb="494949"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF494949"/>
       <name val="微软雅黑"/>
-      <sz val="11.0"/>
-      <color rgb="494949"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <sz val="10.0"/>
-      <color rgb="000000"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="等线"/>
-      <sz val="11.0"/>
-      <color rgb="222222"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
-      <sz val="11.0"/>
-      <color theme="1" tint="0.0"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF175CEB"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1200,10 +1234,10 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1216,37 +1250,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
-      <alignment wrapText="false" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
-      <alignment wrapText="false" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
-      <alignment wrapText="false" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
-      <alignment wrapText="false" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
-      <alignment wrapText="false" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
-      <alignment wrapText="false" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1288,7 +1333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020f0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1323,7 +1368,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020f0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1363,7 +1408,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1387,9 +1432,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1413,7 +1458,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1448,7 +1493,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1466,7 +1511,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1491,7 +1536,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1500,33 +1545,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K369"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="false" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="E299" sqref="E299"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.0" hidden="false" customWidth="true"/>
-    <col min="2" max="2" width="43.0" hidden="false" customWidth="true"/>
-    <col min="3" max="3" width="19.0" hidden="false" customWidth="true"/>
-    <col min="4" max="4" width="49.0" hidden="false" customWidth="true"/>
-    <col min="5" max="5" width="35.0" hidden="false" customWidth="true"/>
-    <col min="6" max="6" width="63.0" hidden="false" customWidth="true"/>
-    <col min="7" max="7" width="11.0" hidden="false" customWidth="true"/>
-    <col min="8" max="8" width="11.0" hidden="false" customWidth="true"/>
-    <col min="9" max="9" width="11.0" hidden="false" customWidth="true"/>
-    <col min="10" max="10" width="11.0" hidden="false" customWidth="true"/>
-    <col min="11" max="11" width="11.0" hidden="false" customWidth="true"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="6" max="6" width="63" customWidth="1"/>
+    <col min="7" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1551,7 +1595,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -1566,7 +1610,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -1583,7 +1627,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -1600,7 +1644,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -1615,7 +1659,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -1630,7 +1674,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>13</v>
@@ -1645,7 +1689,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
@@ -1660,7 +1704,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>15</v>
@@ -1675,7 +1719,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
         <v>16</v>
@@ -1690,7 +1734,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -1705,7 +1749,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
@@ -1720,7 +1764,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
         <v>19</v>
@@ -1735,7 +1779,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
         <v>20</v>
@@ -1752,7 +1796,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
         <v>22</v>
@@ -1767,7 +1811,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -1782,7 +1826,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
         <v>24</v>
@@ -1797,7 +1841,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
         <v>25</v>
@@ -1812,7 +1856,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
         <v>26</v>
@@ -1827,7 +1871,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="2" t="s">
         <v>27</v>
@@ -1842,7 +1886,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
         <v>28</v>
@@ -1857,7 +1901,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="2" t="s">
         <v>29</v>
@@ -1872,7 +1916,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
         <v>30</v>
@@ -1887,7 +1931,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="2" t="s">
         <v>31</v>
@@ -1902,7 +1946,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="2" t="s">
         <v>32</v>
@@ -1917,7 +1961,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="2" t="s">
         <v>33</v>
@@ -1932,7 +1976,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="2" t="s">
         <v>34</v>
@@ -1947,7 +1991,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="2" t="s">
         <v>35</v>
@@ -1962,7 +2006,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="2" t="s">
         <v>36</v>
@@ -1977,7 +2021,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="2" t="s">
         <v>37</v>
@@ -1992,7 +2036,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="2" t="s">
         <v>38</v>
@@ -2007,7 +2051,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="2" t="s">
         <v>39</v>
@@ -2022,7 +2066,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="6" t="s">
         <v>40</v>
@@ -2037,7 +2081,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="2" t="s">
         <v>41</v>
@@ -2052,7 +2096,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="2" t="s">
         <v>42</v>
@@ -2067,7 +2111,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="2" t="s">
         <v>43</v>
@@ -2082,7 +2126,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="2" t="s">
         <v>44</v>
@@ -2097,7 +2141,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>45</v>
@@ -2112,7 +2156,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>46</v>
@@ -2127,7 +2171,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="6" t="s">
         <v>47</v>
@@ -2142,7 +2186,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
         <v>48</v>
@@ -2157,7 +2201,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="2" t="s">
         <v>49</v>
@@ -2172,7 +2216,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="2" t="s">
         <v>50</v>
@@ -2187,7 +2231,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="2" t="s">
         <v>51</v>
@@ -2202,7 +2246,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="2" t="s">
         <v>52</v>
@@ -2217,7 +2261,7 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="2" t="s">
         <v>53</v>
@@ -2232,7 +2276,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="2" t="s">
         <v>54</v>
@@ -2247,7 +2291,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="2" t="s">
         <v>55</v>
@@ -2262,7 +2306,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="2" t="s">
         <v>56</v>
@@ -2277,7 +2321,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="2" t="s">
         <v>57</v>
@@ -2292,7 +2336,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="2" t="s">
         <v>58</v>
@@ -2307,7 +2351,7 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="2" t="s">
         <v>59</v>
@@ -2322,7 +2366,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="2" t="s">
         <v>60</v>
@@ -2337,7 +2381,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="2" t="s">
         <v>61</v>
@@ -2352,7 +2396,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="2" t="s">
         <v>62</v>
@@ -2367,7 +2411,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="2" t="s">
         <v>63</v>
@@ -2382,7 +2426,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="2" t="s">
         <v>64</v>
@@ -2397,7 +2441,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="2" t="s">
         <v>65</v>
@@ -2412,7 +2456,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="2" t="s">
         <v>66</v>
@@ -2427,7 +2471,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="2" t="s">
         <v>67</v>
@@ -2442,7 +2486,7 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="2" t="s">
         <v>68</v>
@@ -2457,7 +2501,7 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="2" t="s">
         <v>69</v>
@@ -2472,7 +2516,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="2" t="s">
         <v>70</v>
@@ -2487,7 +2531,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="2" t="s">
         <v>71</v>
@@ -2502,7 +2546,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="2" t="s">
         <v>72</v>
@@ -2517,7 +2561,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="2" t="s">
         <v>73</v>
@@ -2532,7 +2576,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="2" t="s">
         <v>74</v>
@@ -2547,7 +2591,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="2" t="s">
         <v>75</v>
@@ -2562,7 +2606,7 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="2" t="s">
         <v>76</v>
@@ -2577,7 +2621,7 @@
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="2" t="s">
         <v>77</v>
@@ -2592,7 +2636,7 @@
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="2" t="s">
         <v>78</v>
@@ -2607,7 +2651,7 @@
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="2" t="s">
         <v>79</v>
@@ -2622,7 +2666,7 @@
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="2" t="s">
         <v>80</v>
@@ -2637,7 +2681,7 @@
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="2" t="s">
         <v>81</v>
@@ -2652,7 +2696,7 @@
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="2" t="s">
         <v>82</v>
@@ -2667,7 +2711,7 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="2" t="s">
         <v>83</v>
@@ -2682,7 +2726,7 @@
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="2" t="s">
         <v>84</v>
@@ -2697,7 +2741,7 @@
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="2" t="s">
         <v>85</v>
@@ -2712,7 +2756,7 @@
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="2" t="s">
         <v>86</v>
@@ -2727,7 +2771,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="2" t="s">
         <v>87</v>
@@ -2742,7 +2786,7 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="2" t="s">
         <v>88</v>
@@ -2757,7 +2801,7 @@
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="2" t="s">
         <v>89</v>
@@ -2772,7 +2816,7 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="2" t="s">
         <v>90</v>
@@ -2787,7 +2831,7 @@
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="2" t="s">
         <v>91</v>
@@ -2802,7 +2846,7 @@
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="2" t="s">
         <v>92</v>
@@ -2817,7 +2861,7 @@
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="2" t="s">
         <v>93</v>
@@ -2832,7 +2876,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="2" t="s">
         <v>94</v>
@@ -2847,7 +2891,7 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="2" t="s">
         <v>95</v>
@@ -2862,7 +2906,7 @@
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="2" t="s">
         <v>96</v>
@@ -2877,7 +2921,7 @@
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="2" t="s">
         <v>97</v>
@@ -2892,7 +2936,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="2" t="s">
         <v>98</v>
@@ -2907,7 +2951,7 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="2" t="s">
         <v>99</v>
@@ -2922,7 +2966,7 @@
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="2" t="s">
         <v>100</v>
@@ -2937,7 +2981,7 @@
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="2" t="s">
         <v>101</v>
@@ -2952,7 +2996,7 @@
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="2" t="s">
         <v>102</v>
@@ -2967,7 +3011,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="4" t="s">
         <v>103</v>
@@ -2984,7 +3028,7 @@
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="2" t="s">
         <v>105</v>
@@ -2999,7 +3043,7 @@
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="2" t="s">
         <v>106</v>
@@ -3014,7 +3058,7 @@
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="2" t="s">
         <v>107</v>
@@ -3029,7 +3073,7 @@
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="2" t="s">
         <v>108</v>
@@ -3044,7 +3088,7 @@
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="2" t="s">
         <v>109</v>
@@ -3059,7 +3103,7 @@
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="2" t="s">
         <v>110</v>
@@ -3074,7 +3118,7 @@
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="2" t="s">
         <v>111</v>
@@ -3089,7 +3133,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="2" t="s">
         <v>112</v>
@@ -3104,7 +3148,7 @@
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="2" t="s">
         <v>113</v>
@@ -3119,7 +3163,7 @@
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="4" t="s">
         <v>114</v>
@@ -3134,7 +3178,7 @@
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="2" t="s">
         <v>115</v>
@@ -3149,7 +3193,7 @@
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="2" t="s">
         <v>116</v>
@@ -3164,7 +3208,7 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="2" t="s">
         <v>117</v>
@@ -3179,7 +3223,7 @@
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="2" t="s">
         <v>118</v>
@@ -3194,7 +3238,7 @@
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="2" t="s">
         <v>119</v>
@@ -3209,7 +3253,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="2" t="s">
         <v>120</v>
@@ -3224,7 +3268,7 @@
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="2" t="s">
         <v>121</v>
@@ -3239,7 +3283,7 @@
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="2" t="s">
         <v>122</v>
@@ -3254,7 +3298,7 @@
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="2" t="s">
         <v>123</v>
@@ -3269,7 +3313,7 @@
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="2" t="s">
         <v>124</v>
@@ -3284,7 +3328,7 @@
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="2" t="s">
         <v>125</v>
@@ -3299,7 +3343,7 @@
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="2" t="s">
         <v>126</v>
@@ -3314,7 +3358,7 @@
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="2" t="s">
         <v>127</v>
@@ -3329,7 +3373,7 @@
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="2" t="s">
         <v>128</v>
@@ -3344,7 +3388,7 @@
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="2" t="s">
         <v>129</v>
@@ -3359,7 +3403,7 @@
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="2" t="s">
         <v>130</v>
@@ -3374,7 +3418,7 @@
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="2" t="s">
         <v>131</v>
@@ -3389,7 +3433,7 @@
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="2" t="s">
         <v>132</v>
@@ -3404,7 +3448,7 @@
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="6" t="s">
         <v>133</v>
@@ -3419,7 +3463,7 @@
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="2" t="s">
         <v>134</v>
@@ -3434,7 +3478,7 @@
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="2" t="s">
         <v>135</v>
@@ -3449,7 +3493,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="2" t="s">
         <v>136</v>
@@ -3464,7 +3508,7 @@
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="2" t="s">
         <v>137</v>
@@ -3479,7 +3523,7 @@
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="2" t="s">
         <v>138</v>
@@ -3494,7 +3538,7 @@
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="2" t="s">
         <v>139</v>
@@ -3509,7 +3553,7 @@
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="2" t="s">
         <v>140</v>
@@ -3524,7 +3568,7 @@
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="2" t="s">
         <v>141</v>
@@ -3539,7 +3583,7 @@
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="2" t="s">
         <v>142</v>
@@ -3554,7 +3598,7 @@
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="2" t="s">
         <v>143</v>
@@ -3569,7 +3613,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="2" t="s">
         <v>144</v>
@@ -3584,7 +3628,7 @@
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="2" t="s">
         <v>145</v>
@@ -3599,7 +3643,7 @@
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="2" t="s">
         <v>146</v>
@@ -3614,7 +3658,7 @@
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="2" t="s">
         <v>147</v>
@@ -3629,7 +3673,7 @@
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="2" t="s">
         <v>148</v>
@@ -3644,7 +3688,7 @@
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="2" t="s">
         <v>149</v>
@@ -3659,7 +3703,7 @@
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="2" t="s">
         <v>150</v>
@@ -3674,7 +3718,7 @@
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="2" t="s">
         <v>151</v>
@@ -3689,7 +3733,7 @@
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="2" t="s">
         <v>152</v>
@@ -3704,7 +3748,7 @@
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="2" t="s">
         <v>153</v>
@@ -3719,7 +3763,7 @@
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="2" t="s">
         <v>154</v>
@@ -3734,7 +3778,7 @@
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="2" t="s">
         <v>155</v>
@@ -3749,7 +3793,7 @@
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="2" t="s">
         <v>156</v>
@@ -3764,7 +3808,7 @@
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="2" t="s">
         <v>157</v>
@@ -3779,7 +3823,7 @@
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="2" t="s">
         <v>158</v>
@@ -3794,7 +3838,7 @@
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="2" t="s">
         <v>159</v>
@@ -3809,7 +3853,7 @@
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="2" t="s">
         <v>160</v>
@@ -3824,7 +3868,7 @@
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="2" t="s">
         <v>161</v>
@@ -3839,7 +3883,7 @@
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="2" t="s">
         <v>162</v>
@@ -3854,7 +3898,7 @@
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="2" t="s">
         <v>163</v>
@@ -3869,7 +3913,7 @@
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="2" t="s">
         <v>164</v>
@@ -3884,7 +3928,7 @@
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="2" t="s">
         <v>165</v>
@@ -3899,7 +3943,7 @@
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="2" t="s">
         <v>166</v>
@@ -3914,7 +3958,7 @@
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="2" t="s">
         <v>167</v>
@@ -3929,7 +3973,7 @@
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="2" t="s">
         <v>168</v>
@@ -3944,7 +3988,7 @@
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="2" t="s">
         <v>169</v>
@@ -3959,7 +4003,7 @@
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="2" t="s">
         <v>170</v>
@@ -3974,7 +4018,7 @@
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="2" t="s">
         <v>171</v>
@@ -3989,7 +4033,7 @@
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="2" t="s">
         <v>172</v>
@@ -4004,7 +4048,7 @@
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="2" t="s">
         <v>173</v>
@@ -4019,7 +4063,7 @@
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="2" t="s">
         <v>174</v>
@@ -4034,7 +4078,7 @@
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="2" t="s">
         <v>175</v>
@@ -4049,7 +4093,7 @@
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="2" t="s">
         <v>176</v>
@@ -4064,7 +4108,7 @@
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="2" t="s">
         <v>177</v>
@@ -4079,7 +4123,7 @@
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="2" t="s">
         <v>178</v>
@@ -4094,7 +4138,7 @@
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="2" t="s">
         <v>179</v>
@@ -4109,7 +4153,7 @@
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="2" t="s">
         <v>180</v>
@@ -4124,7 +4168,7 @@
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="2" t="s">
         <v>181</v>
@@ -4139,7 +4183,7 @@
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="2" t="s">
         <v>182</v>
@@ -4154,7 +4198,7 @@
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="2" t="s">
         <v>183</v>
@@ -4169,7 +4213,7 @@
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="2" t="s">
         <v>184</v>
@@ -4184,7 +4228,7 @@
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="2" t="s">
         <v>185</v>
@@ -4199,7 +4243,7 @@
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="2" t="s">
         <v>186</v>
@@ -4214,7 +4258,7 @@
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="2" t="s">
         <v>187</v>
@@ -4229,7 +4273,7 @@
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="2" t="s">
         <v>188</v>
@@ -4244,7 +4288,7 @@
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="2" t="s">
         <v>189</v>
@@ -4259,7 +4303,7 @@
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="2" t="s">
         <v>190</v>
@@ -4274,7 +4318,7 @@
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="2" t="s">
         <v>191</v>
@@ -4289,7 +4333,7 @@
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="2" t="s">
         <v>192</v>
@@ -4304,7 +4348,7 @@
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="2" t="s">
         <v>193</v>
@@ -4319,7 +4363,7 @@
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" s="2" t="s">
         <v>194</v>
@@ -4334,7 +4378,7 @@
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="2" t="s">
         <v>195</v>
@@ -4349,7 +4393,7 @@
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" s="2" t="s">
         <v>196</v>
@@ -4364,7 +4408,7 @@
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" s="2" t="s">
         <v>197</v>
@@ -4379,7 +4423,7 @@
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" s="2" t="s">
         <v>198</v>
@@ -4394,7 +4438,7 @@
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="2" t="s">
         <v>199</v>
@@ -4409,7 +4453,7 @@
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="B192" s="2" t="s">
         <v>200</v>
@@ -4424,7 +4468,7 @@
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="2" t="s">
         <v>201</v>
@@ -4439,7 +4483,7 @@
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
       <c r="B194" s="2" t="s">
         <v>202</v>
@@ -4454,7 +4498,7 @@
       <c r="J194" s="3"/>
       <c r="K194" s="3"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
       <c r="B195" s="2" t="s">
         <v>203</v>
@@ -4469,7 +4513,7 @@
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
       <c r="B196" s="2" t="s">
         <v>204</v>
@@ -4484,7 +4528,7 @@
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
       <c r="B197" s="2" t="s">
         <v>205</v>
@@ -4499,7 +4543,7 @@
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
       <c r="B198" s="2" t="s">
         <v>206</v>
@@ -4514,7 +4558,7 @@
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
       <c r="B199" s="2" t="s">
         <v>207</v>
@@ -4529,7 +4573,7 @@
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
       <c r="B200" s="2" t="s">
         <v>208</v>
@@ -4544,7 +4588,7 @@
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
       <c r="B201" s="2" t="s">
         <v>209</v>
@@ -4559,7 +4603,7 @@
       <c r="J201" s="3"/>
       <c r="K201" s="3"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
       <c r="B202" s="2" t="s">
         <v>210</v>
@@ -4574,7 +4618,7 @@
       <c r="J202" s="3"/>
       <c r="K202" s="3"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
       <c r="B203" s="2" t="s">
         <v>211</v>
@@ -4589,7 +4633,7 @@
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
       <c r="B204" s="2" t="s">
         <v>212</v>
@@ -4604,7 +4648,7 @@
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="3"/>
       <c r="B205" s="2" t="s">
         <v>213</v>
@@ -4619,7 +4663,7 @@
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="3"/>
       <c r="B206" s="2" t="s">
         <v>214</v>
@@ -4634,7 +4678,7 @@
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="3"/>
       <c r="B207" s="2" t="s">
         <v>215</v>
@@ -4649,7 +4693,7 @@
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="3"/>
       <c r="B208" s="2" t="s">
         <v>216</v>
@@ -4664,7 +4708,7 @@
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="3"/>
       <c r="B209" s="2" t="s">
         <v>217</v>
@@ -4679,7 +4723,7 @@
       <c r="J209" s="3"/>
       <c r="K209" s="3"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="3"/>
       <c r="B210" s="2" t="s">
         <v>218</v>
@@ -4694,7 +4738,7 @@
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="3"/>
       <c r="B211" s="2" t="s">
         <v>219</v>
@@ -4709,7 +4753,7 @@
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="3"/>
       <c r="B212" s="2" t="s">
         <v>220</v>
@@ -4724,7 +4768,7 @@
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="3"/>
       <c r="B213" s="2" t="s">
         <v>221</v>
@@ -4739,7 +4783,7 @@
       <c r="J213" s="3"/>
       <c r="K213" s="3"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="3"/>
       <c r="B214" s="2" t="s">
         <v>222</v>
@@ -4754,7 +4798,7 @@
       <c r="J214" s="3"/>
       <c r="K214" s="3"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="3"/>
       <c r="B215" s="2" t="s">
         <v>223</v>
@@ -4769,7 +4813,7 @@
       <c r="J215" s="3"/>
       <c r="K215" s="3"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="3"/>
       <c r="B216" s="2" t="s">
         <v>224</v>
@@ -4784,7 +4828,7 @@
       <c r="J216" s="3"/>
       <c r="K216" s="3"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="3"/>
       <c r="B217" s="2" t="s">
         <v>225</v>
@@ -4799,7 +4843,7 @@
       <c r="J217" s="3"/>
       <c r="K217" s="3"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="3"/>
       <c r="B218" s="2" t="s">
         <v>226</v>
@@ -4814,7 +4858,7 @@
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="3"/>
       <c r="B219" s="2" t="s">
         <v>227</v>
@@ -4829,7 +4873,7 @@
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="3"/>
       <c r="B220" s="2" t="s">
         <v>228</v>
@@ -4844,7 +4888,7 @@
       <c r="J220" s="3"/>
       <c r="K220" s="3"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="3"/>
       <c r="B221" s="2" t="s">
         <v>229</v>
@@ -4859,7 +4903,7 @@
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="3"/>
       <c r="B222" s="2" t="s">
         <v>230</v>
@@ -4874,7 +4918,7 @@
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="3"/>
       <c r="B223" s="2" t="s">
         <v>231</v>
@@ -4889,7 +4933,7 @@
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="3"/>
       <c r="B224" s="2" t="s">
         <v>232</v>
@@ -4904,7 +4948,7 @@
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="3"/>
       <c r="B225" s="2" t="s">
         <v>233</v>
@@ -4919,7 +4963,7 @@
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="3"/>
       <c r="B226" s="2" t="s">
         <v>234</v>
@@ -4934,7 +4978,7 @@
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="3"/>
       <c r="B227" s="2" t="s">
         <v>235</v>
@@ -4949,7 +4993,7 @@
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="3"/>
       <c r="B228" s="2" t="s">
         <v>236</v>
@@ -4964,7 +5008,7 @@
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="3"/>
       <c r="B229" s="2" t="s">
         <v>237</v>
@@ -4979,7 +5023,7 @@
       <c r="J229" s="3"/>
       <c r="K229" s="3"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
       <c r="B230" s="2" t="s">
         <v>238</v>
@@ -4994,7 +5038,7 @@
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="3"/>
       <c r="B231" s="2" t="s">
         <v>239</v>
@@ -5009,7 +5053,7 @@
       <c r="J231" s="3"/>
       <c r="K231" s="3"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="3"/>
       <c r="B232" s="2" t="s">
         <v>240</v>
@@ -5024,7 +5068,7 @@
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="3"/>
       <c r="B233" s="2" t="s">
         <v>241</v>
@@ -5039,7 +5083,7 @@
       <c r="J233" s="3"/>
       <c r="K233" s="3"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A234" s="3"/>
       <c r="B234" s="4" t="s">
         <v>242</v>
@@ -5056,7 +5100,7 @@
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="3"/>
       <c r="B235" s="2" t="s">
         <v>244</v>
@@ -5071,7 +5115,7 @@
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="3"/>
       <c r="B236" s="2" t="s">
         <v>245</v>
@@ -5086,7 +5130,7 @@
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="3"/>
       <c r="B237" s="2" t="s">
         <v>246</v>
@@ -5101,7 +5145,7 @@
       <c r="J237" s="3"/>
       <c r="K237" s="3"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="3"/>
       <c r="B238" s="2" t="s">
         <v>247</v>
@@ -5116,7 +5160,7 @@
       <c r="J238" s="3"/>
       <c r="K238" s="3"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="3"/>
       <c r="B239" s="2" t="s">
         <v>248</v>
@@ -5131,7 +5175,7 @@
       <c r="J239" s="3"/>
       <c r="K239" s="3"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="3"/>
       <c r="B240" s="2" t="s">
         <v>249</v>
@@ -5146,9 +5190,9 @@
       <c r="J240" s="3"/>
       <c r="K240" s="3"/>
     </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>200.0</v>
+    <row r="241" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A241" s="1">
+        <v>200</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>250</v>
@@ -5157,7 +5201,7 @@
         <v>251</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E241" s="7" t="s">
         <v>252</v>
@@ -5171,7 +5215,7 @@
       <c r="J241" s="3"/>
       <c r="K241" s="3"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="3"/>
       <c r="B242" s="2" t="s">
         <v>254</v>
@@ -5186,7 +5230,7 @@
       <c r="J242" s="3"/>
       <c r="K242" s="3"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="3"/>
       <c r="B243" s="2" t="s">
         <v>255</v>
@@ -5201,7 +5245,7 @@
       <c r="J243" s="3"/>
       <c r="K243" s="3"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="3"/>
       <c r="B244" s="2" t="s">
         <v>256</v>
@@ -5216,7 +5260,7 @@
       <c r="J244" s="3"/>
       <c r="K244" s="3"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="3"/>
       <c r="B245" s="2" t="s">
         <v>257</v>
@@ -5231,7 +5275,7 @@
       <c r="J245" s="3"/>
       <c r="K245" s="3"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="3"/>
       <c r="B246" s="2" t="s">
         <v>258</v>
@@ -5246,7 +5290,7 @@
       <c r="J246" s="3"/>
       <c r="K246" s="3"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="3"/>
       <c r="B247" s="2" t="s">
         <v>259</v>
@@ -5261,7 +5305,7 @@
       <c r="J247" s="3"/>
       <c r="K247" s="3"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="3"/>
       <c r="B248" s="2" t="s">
         <v>260</v>
@@ -5276,7 +5320,7 @@
       <c r="J248" s="3"/>
       <c r="K248" s="3"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="3"/>
       <c r="B249" s="2" t="s">
         <v>261</v>
@@ -5291,7 +5335,7 @@
       <c r="J249" s="3"/>
       <c r="K249" s="3"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="3"/>
       <c r="B250" s="2" t="s">
         <v>262</v>
@@ -5306,7 +5350,7 @@
       <c r="J250" s="3"/>
       <c r="K250" s="3"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="3"/>
       <c r="B251" s="2" t="s">
         <v>263</v>
@@ -5321,7 +5365,7 @@
       <c r="J251" s="3"/>
       <c r="K251" s="3"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="3"/>
       <c r="B252" s="2" t="s">
         <v>264</v>
@@ -5336,7 +5380,7 @@
       <c r="J252" s="3"/>
       <c r="K252" s="3"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="3"/>
       <c r="B253" s="2" t="s">
         <v>265</v>
@@ -5351,7 +5395,7 @@
       <c r="J253" s="3"/>
       <c r="K253" s="3"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="3"/>
       <c r="B254" s="2" t="s">
         <v>266</v>
@@ -5366,7 +5410,7 @@
       <c r="J254" s="3"/>
       <c r="K254" s="3"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="3"/>
       <c r="B255" s="2" t="s">
         <v>267</v>
@@ -5381,7 +5425,7 @@
       <c r="J255" s="3"/>
       <c r="K255" s="3"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="3"/>
       <c r="B256" s="2" t="s">
         <v>268</v>
@@ -5396,7 +5440,7 @@
       <c r="J256" s="3"/>
       <c r="K256" s="3"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="3"/>
       <c r="B257" s="2" t="s">
         <v>269</v>
@@ -5411,7 +5455,7 @@
       <c r="J257" s="3"/>
       <c r="K257" s="3"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="3"/>
       <c r="B258" s="2" t="s">
         <v>270</v>
@@ -5426,7 +5470,7 @@
       <c r="J258" s="3"/>
       <c r="K258" s="3"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="3"/>
       <c r="B259" s="2" t="s">
         <v>271</v>
@@ -5441,7 +5485,7 @@
       <c r="J259" s="3"/>
       <c r="K259" s="3"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="3"/>
       <c r="B260" s="2" t="s">
         <v>272</v>
@@ -5456,7 +5500,7 @@
       <c r="J260" s="3"/>
       <c r="K260" s="3"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="3"/>
       <c r="B261" s="2" t="s">
         <v>273</v>
@@ -5471,7 +5515,7 @@
       <c r="J261" s="3"/>
       <c r="K261" s="3"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="3"/>
       <c r="B262" s="2" t="s">
         <v>274</v>
@@ -5486,7 +5530,7 @@
       <c r="J262" s="3"/>
       <c r="K262" s="3"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="3"/>
       <c r="B263" s="2" t="s">
         <v>275</v>
@@ -5501,7 +5545,7 @@
       <c r="J263" s="3"/>
       <c r="K263" s="3"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="3"/>
       <c r="B264" s="2" t="s">
         <v>276</v>
@@ -5516,7 +5560,7 @@
       <c r="J264" s="3"/>
       <c r="K264" s="3"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="3"/>
       <c r="B265" s="2" t="s">
         <v>277</v>
@@ -5531,7 +5575,7 @@
       <c r="J265" s="3"/>
       <c r="K265" s="3"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="3"/>
       <c r="B266" s="2" t="s">
         <v>278</v>
@@ -5546,7 +5590,7 @@
       <c r="J266" s="3"/>
       <c r="K266" s="3"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="3"/>
       <c r="B267" s="2" t="s">
         <v>279</v>
@@ -5561,7 +5605,7 @@
       <c r="J267" s="3"/>
       <c r="K267" s="3"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="3"/>
       <c r="B268" s="6" t="s">
         <v>280</v>
@@ -5576,7 +5620,7 @@
       <c r="J268" s="3"/>
       <c r="K268" s="3"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="3"/>
       <c r="B269" s="2" t="s">
         <v>281</v>
@@ -5591,7 +5635,7 @@
       <c r="J269" s="3"/>
       <c r="K269" s="3"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="3"/>
       <c r="B270" s="2" t="s">
         <v>282</v>
@@ -5606,7 +5650,7 @@
       <c r="J270" s="3"/>
       <c r="K270" s="3"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="3"/>
       <c r="B271" s="2" t="s">
         <v>283</v>
@@ -5621,7 +5665,7 @@
       <c r="J271" s="3"/>
       <c r="K271" s="3"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="3"/>
       <c r="B272" s="2" t="s">
         <v>284</v>
@@ -5636,7 +5680,7 @@
       <c r="J272" s="3"/>
       <c r="K272" s="3"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="3"/>
       <c r="B273" s="2" t="s">
         <v>285</v>
@@ -5651,7 +5695,7 @@
       <c r="J273" s="3"/>
       <c r="K273" s="3"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="3"/>
       <c r="B274" s="2" t="s">
         <v>286</v>
@@ -5666,7 +5710,7 @@
       <c r="J274" s="3"/>
       <c r="K274" s="3"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="3"/>
       <c r="B275" s="2" t="s">
         <v>287</v>
@@ -5681,7 +5725,7 @@
       <c r="J275" s="3"/>
       <c r="K275" s="3"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="3"/>
       <c r="B276" s="2" t="s">
         <v>288</v>
@@ -5696,7 +5740,7 @@
       <c r="J276" s="3"/>
       <c r="K276" s="3"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="3"/>
       <c r="B277" s="2" t="s">
         <v>289</v>
@@ -5711,7 +5755,7 @@
       <c r="J277" s="3"/>
       <c r="K277" s="3"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" s="3"/>
       <c r="B278" s="2" t="s">
         <v>290</v>
@@ -5726,7 +5770,7 @@
       <c r="J278" s="3"/>
       <c r="K278" s="3"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="3"/>
       <c r="B279" s="2" t="s">
         <v>291</v>
@@ -5741,7 +5785,7 @@
       <c r="J279" s="3"/>
       <c r="K279" s="3"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" s="3"/>
       <c r="B280" s="2" t="s">
         <v>292</v>
@@ -5756,7 +5800,7 @@
       <c r="J280" s="3"/>
       <c r="K280" s="3"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="3"/>
       <c r="B281" s="2" t="s">
         <v>293</v>
@@ -5771,7 +5815,7 @@
       <c r="J281" s="3"/>
       <c r="K281" s="3"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" s="3"/>
       <c r="B282" s="2" t="s">
         <v>294</v>
@@ -5786,7 +5830,7 @@
       <c r="J282" s="3"/>
       <c r="K282" s="3"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" s="3"/>
       <c r="B283" s="2" t="s">
         <v>295</v>
@@ -5801,7 +5845,7 @@
       <c r="J283" s="3"/>
       <c r="K283" s="3"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" s="3"/>
       <c r="B284" s="2" t="s">
         <v>296</v>
@@ -5816,7 +5860,7 @@
       <c r="J284" s="3"/>
       <c r="K284" s="3"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" s="3"/>
       <c r="B285" s="2" t="s">
         <v>297</v>
@@ -5831,7 +5875,7 @@
       <c r="J285" s="3"/>
       <c r="K285" s="3"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" s="3"/>
       <c r="B286" s="2" t="s">
         <v>298</v>
@@ -5846,7 +5890,7 @@
       <c r="J286" s="3"/>
       <c r="K286" s="3"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" s="3"/>
       <c r="B287" s="2" t="s">
         <v>299</v>
@@ -5861,7 +5905,7 @@
       <c r="J287" s="3"/>
       <c r="K287" s="3"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" s="3"/>
       <c r="B288" s="2" t="s">
         <v>300</v>
@@ -5876,7 +5920,7 @@
       <c r="J288" s="3"/>
       <c r="K288" s="3"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" s="3"/>
       <c r="B289" s="2" t="s">
         <v>301</v>
@@ -5891,7 +5935,7 @@
       <c r="J289" s="3"/>
       <c r="K289" s="3"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" s="3"/>
       <c r="B290" s="2" t="s">
         <v>302</v>
@@ -5906,7 +5950,7 @@
       <c r="J290" s="3"/>
       <c r="K290" s="3"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" s="3"/>
       <c r="B291" s="2" t="s">
         <v>303</v>
@@ -5921,7 +5965,7 @@
       <c r="J291" s="3"/>
       <c r="K291" s="3"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" s="3"/>
       <c r="B292" s="2" t="s">
         <v>304</v>
@@ -5936,7 +5980,7 @@
       <c r="J292" s="3"/>
       <c r="K292" s="3"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="3"/>
       <c r="B293" s="2" t="s">
         <v>305</v>
@@ -5951,7 +5995,7 @@
       <c r="J293" s="3"/>
       <c r="K293" s="3"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="3"/>
       <c r="B294" s="2" t="s">
         <v>306</v>
@@ -5966,7 +6010,7 @@
       <c r="J294" s="3"/>
       <c r="K294" s="3"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="3"/>
       <c r="B295" s="2" t="s">
         <v>307</v>
@@ -5981,7 +6025,7 @@
       <c r="J295" s="3"/>
       <c r="K295" s="3"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="3"/>
       <c r="B296" s="2" t="s">
         <v>308</v>
@@ -5996,7 +6040,7 @@
       <c r="J296" s="3"/>
       <c r="K296" s="3"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="3"/>
       <c r="B297" s="2" t="s">
         <v>309</v>
@@ -6011,9 +6055,9 @@
       <c r="J297" s="3"/>
       <c r="K297" s="3"/>
     </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>200.0</v>
+    <row r="298" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>200</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>310</v>
@@ -6023,10 +6067,10 @@
       </c>
       <c r="D298" s="3"/>
       <c r="E298" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F298" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="F298" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="G298" s="3"/>
       <c r="H298" s="3"/>
@@ -6034,10 +6078,10 @@
       <c r="J298" s="3"/>
       <c r="K298" s="3"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="3"/>
       <c r="B299" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
@@ -6049,10 +6093,10 @@
       <c r="J299" s="3"/>
       <c r="K299" s="3"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="3"/>
       <c r="B300" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
@@ -6064,10 +6108,10 @@
       <c r="J300" s="3"/>
       <c r="K300" s="3"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" s="3"/>
       <c r="B301" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
@@ -6079,10 +6123,10 @@
       <c r="J301" s="3"/>
       <c r="K301" s="3"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" s="3"/>
       <c r="B302" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
@@ -6094,10 +6138,10 @@
       <c r="J302" s="3"/>
       <c r="K302" s="3"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" s="3"/>
       <c r="B303" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
@@ -6109,10 +6153,10 @@
       <c r="J303" s="3"/>
       <c r="K303" s="3"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" s="3"/>
       <c r="B304" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
@@ -6124,10 +6168,10 @@
       <c r="J304" s="3"/>
       <c r="K304" s="3"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" s="3"/>
       <c r="B305" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
@@ -6139,10 +6183,10 @@
       <c r="J305" s="3"/>
       <c r="K305" s="3"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306" s="3"/>
       <c r="B306" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
@@ -6154,10 +6198,10 @@
       <c r="J306" s="3"/>
       <c r="K306" s="3"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" s="3"/>
       <c r="B307" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
@@ -6169,10 +6213,10 @@
       <c r="J307" s="3"/>
       <c r="K307" s="3"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308" s="3"/>
       <c r="B308" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
@@ -6184,10 +6228,10 @@
       <c r="J308" s="3"/>
       <c r="K308" s="3"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309" s="3"/>
       <c r="B309" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
@@ -6199,10 +6243,10 @@
       <c r="J309" s="3"/>
       <c r="K309" s="3"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310" s="3"/>
       <c r="B310" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
@@ -6214,10 +6258,10 @@
       <c r="J310" s="3"/>
       <c r="K310" s="3"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311" s="3"/>
       <c r="B311" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
@@ -6229,10 +6273,10 @@
       <c r="J311" s="3"/>
       <c r="K311" s="3"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312" s="3"/>
       <c r="B312" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
@@ -6244,10 +6288,10 @@
       <c r="J312" s="3"/>
       <c r="K312" s="3"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A313" s="3"/>
       <c r="B313" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
@@ -6259,10 +6303,10 @@
       <c r="J313" s="3"/>
       <c r="K313" s="3"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314" s="3"/>
       <c r="B314" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
@@ -6274,10 +6318,10 @@
       <c r="J314" s="3"/>
       <c r="K314" s="3"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315" s="3"/>
       <c r="B315" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
@@ -6289,10 +6333,10 @@
       <c r="J315" s="3"/>
       <c r="K315" s="3"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316" s="3"/>
       <c r="B316" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
@@ -6304,10 +6348,10 @@
       <c r="J316" s="3"/>
       <c r="K316" s="3"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317" s="3"/>
       <c r="B317" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
@@ -6319,10 +6363,10 @@
       <c r="J317" s="3"/>
       <c r="K317" s="3"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318" s="3"/>
       <c r="B318" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
@@ -6334,10 +6378,10 @@
       <c r="J318" s="3"/>
       <c r="K318" s="3"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319" s="3"/>
       <c r="B319" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
@@ -6349,10 +6393,10 @@
       <c r="J319" s="3"/>
       <c r="K319" s="3"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A320" s="3"/>
       <c r="B320" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
@@ -6364,10 +6408,10 @@
       <c r="J320" s="3"/>
       <c r="K320" s="3"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321" s="3"/>
       <c r="B321" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
@@ -6379,10 +6423,10 @@
       <c r="J321" s="3"/>
       <c r="K321" s="3"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322" s="3"/>
       <c r="B322" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
@@ -6394,10 +6438,10 @@
       <c r="J322" s="3"/>
       <c r="K322" s="3"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323" s="3"/>
       <c r="B323" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
@@ -6409,10 +6453,10 @@
       <c r="J323" s="3"/>
       <c r="K323" s="3"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324" s="3"/>
       <c r="B324" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
@@ -6424,10 +6468,10 @@
       <c r="J324" s="3"/>
       <c r="K324" s="3"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325" s="3"/>
       <c r="B325" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
@@ -6439,10 +6483,10 @@
       <c r="J325" s="3"/>
       <c r="K325" s="3"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326" s="3"/>
       <c r="B326" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
@@ -6454,10 +6498,10 @@
       <c r="J326" s="3"/>
       <c r="K326" s="3"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327" s="3"/>
       <c r="B327" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
@@ -6469,10 +6513,10 @@
       <c r="J327" s="3"/>
       <c r="K327" s="3"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328" s="3"/>
       <c r="B328" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
@@ -6484,10 +6528,10 @@
       <c r="J328" s="3"/>
       <c r="K328" s="3"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329" s="3"/>
       <c r="B329" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
@@ -6499,10 +6543,10 @@
       <c r="J329" s="3"/>
       <c r="K329" s="3"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330" s="3"/>
       <c r="B330" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
@@ -6514,10 +6558,10 @@
       <c r="J330" s="3"/>
       <c r="K330" s="3"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331" s="3"/>
       <c r="B331" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
@@ -6529,10 +6573,10 @@
       <c r="J331" s="3"/>
       <c r="K331" s="3"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332" s="3"/>
       <c r="B332" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
@@ -6544,10 +6588,10 @@
       <c r="J332" s="3"/>
       <c r="K332" s="3"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333" s="3"/>
       <c r="B333" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
@@ -6559,10 +6603,10 @@
       <c r="J333" s="3"/>
       <c r="K333" s="3"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334" s="3"/>
       <c r="B334" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
@@ -6574,10 +6618,10 @@
       <c r="J334" s="3"/>
       <c r="K334" s="3"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335" s="3"/>
       <c r="B335" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
@@ -6589,10 +6633,10 @@
       <c r="J335" s="3"/>
       <c r="K335" s="3"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336" s="3"/>
       <c r="B336" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
@@ -6604,10 +6648,10 @@
       <c r="J336" s="3"/>
       <c r="K336" s="3"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" s="3"/>
       <c r="B337" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
@@ -6619,10 +6663,10 @@
       <c r="J337" s="3"/>
       <c r="K337" s="3"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" s="3"/>
       <c r="B338" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
@@ -6634,10 +6678,10 @@
       <c r="J338" s="3"/>
       <c r="K338" s="3"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339" s="3"/>
       <c r="B339" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
@@ -6649,10 +6693,10 @@
       <c r="J339" s="3"/>
       <c r="K339" s="3"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340" s="3"/>
       <c r="B340" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
@@ -6664,10 +6708,10 @@
       <c r="J340" s="3"/>
       <c r="K340" s="3"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341" s="3"/>
       <c r="B341" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
@@ -6679,10 +6723,10 @@
       <c r="J341" s="3"/>
       <c r="K341" s="3"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342" s="3"/>
       <c r="B342" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
@@ -6694,10 +6738,10 @@
       <c r="J342" s="3"/>
       <c r="K342" s="3"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" s="3"/>
       <c r="B343" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
@@ -6709,10 +6753,10 @@
       <c r="J343" s="3"/>
       <c r="K343" s="3"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344" s="3"/>
       <c r="B344" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
@@ -6724,10 +6768,10 @@
       <c r="J344" s="3"/>
       <c r="K344" s="3"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345" s="3"/>
       <c r="B345" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
@@ -6739,10 +6783,10 @@
       <c r="J345" s="3"/>
       <c r="K345" s="3"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346" s="3"/>
       <c r="B346" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
@@ -6754,10 +6798,10 @@
       <c r="J346" s="3"/>
       <c r="K346" s="3"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347" s="3"/>
       <c r="B347" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
@@ -6769,10 +6813,10 @@
       <c r="J347" s="3"/>
       <c r="K347" s="3"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348" s="3"/>
       <c r="B348" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
@@ -6784,10 +6828,10 @@
       <c r="J348" s="3"/>
       <c r="K348" s="3"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349" s="3"/>
       <c r="B349" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
@@ -6799,10 +6843,10 @@
       <c r="J349" s="3"/>
       <c r="K349" s="3"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350" s="3"/>
       <c r="B350" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
@@ -6814,10 +6858,10 @@
       <c r="J350" s="3"/>
       <c r="K350" s="3"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351" s="3"/>
       <c r="B351" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
@@ -6829,10 +6873,10 @@
       <c r="J351" s="3"/>
       <c r="K351" s="3"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352" s="3"/>
       <c r="B352" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
@@ -6844,10 +6888,10 @@
       <c r="J352" s="3"/>
       <c r="K352" s="3"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353" s="3"/>
       <c r="B353" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
@@ -6859,10 +6903,10 @@
       <c r="J353" s="3"/>
       <c r="K353" s="3"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354" s="3"/>
       <c r="B354" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
@@ -6874,10 +6918,10 @@
       <c r="J354" s="3"/>
       <c r="K354" s="3"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355" s="3"/>
       <c r="B355" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
@@ -6889,10 +6933,10 @@
       <c r="J355" s="3"/>
       <c r="K355" s="3"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356" s="3"/>
       <c r="B356" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
@@ -6904,10 +6948,10 @@
       <c r="J356" s="3"/>
       <c r="K356" s="3"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357" s="3"/>
       <c r="B357" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
@@ -6919,10 +6963,10 @@
       <c r="J357" s="3"/>
       <c r="K357" s="3"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358" s="3"/>
       <c r="B358" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
@@ -6934,10 +6978,10 @@
       <c r="J358" s="3"/>
       <c r="K358" s="3"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359" s="3"/>
       <c r="B359" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
@@ -6949,7 +6993,7 @@
       <c r="J359" s="3"/>
       <c r="K359" s="3"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360" s="3"/>
       <c r="B360" s="6"/>
       <c r="C360" s="3"/>
@@ -6962,7 +7006,7 @@
       <c r="J360" s="3"/>
       <c r="K360" s="3"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361" s="3"/>
       <c r="B361" s="6"/>
       <c r="C361" s="3"/>
@@ -6975,7 +7019,7 @@
       <c r="J361" s="3"/>
       <c r="K361" s="3"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362" s="3"/>
       <c r="B362" s="6"/>
       <c r="C362" s="3"/>
@@ -6988,7 +7032,7 @@
       <c r="J362" s="3"/>
       <c r="K362" s="3"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363" s="3"/>
       <c r="B363" s="6"/>
       <c r="C363" s="3"/>
@@ -7001,7 +7045,7 @@
       <c r="J363" s="3"/>
       <c r="K363" s="3"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364" s="3"/>
       <c r="B364" s="6"/>
       <c r="C364" s="3"/>
@@ -7014,7 +7058,7 @@
       <c r="J364" s="3"/>
       <c r="K364" s="3"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" s="3"/>
       <c r="B365" s="6"/>
       <c r="C365" s="3"/>
@@ -7027,7 +7071,7 @@
       <c r="J365" s="3"/>
       <c r="K365" s="3"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" s="3"/>
       <c r="B366" s="6"/>
       <c r="C366" s="3"/>
@@ -7040,7 +7084,7 @@
       <c r="J366" s="3"/>
       <c r="K366" s="3"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367" s="3"/>
       <c r="B367" s="6"/>
       <c r="C367" s="3"/>
@@ -7053,7 +7097,7 @@
       <c r="J367" s="3"/>
       <c r="K367" s="3"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368" s="3"/>
       <c r="B368" s="6"/>
       <c r="C368" s="3"/>
@@ -7066,7 +7110,7 @@
       <c r="J368" s="3"/>
       <c r="K368" s="3"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369" s="3"/>
       <c r="B369" s="6"/>
       <c r="C369" s="3"/>
@@ -7080,10 +7124,10 @@
       <c r="K369" s="3"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="true"/>
-  <autoFilter ref="A1:F360"/>
+  <autoFilter ref="A1:F360" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D241" r:id="rId1"/>
+    <hyperlink ref="D241" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/幽灵歌单整理.xlsx
+++ b/幽灵歌单整理.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="734" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="748" uniqueCount="748">
   <si>
     <t>价格</t>
   </si>
@@ -134,6 +134,15 @@
     <t>国语,甜美</t>
   </si>
   <si>
+    <t>吉祥话</t>
+  </si>
+  <si>
+    <t>hanser,泠鸢yousa,祖娅纳惜,鹿乃</t>
+  </si>
+  <si>
+    <t>国语,方言</t>
+  </si>
+  <si>
     <t>赤伶</t>
   </si>
   <si>
@@ -263,6 +272,9 @@
     <t>ラブレター(情书)</t>
   </si>
   <si>
+    <t>たぶん(大概)</t>
+  </si>
+  <si>
     <t>月に浮かぶ物語(浮现于月色的故事)</t>
   </si>
   <si>
@@ -812,6 +824,15 @@
     <t>星月神话</t>
   </si>
   <si>
+    <t>叹云兮</t>
+  </si>
+  <si>
+    <t>鞠婧祎</t>
+  </si>
+  <si>
+    <t>国语,柔和</t>
+  </si>
+  <si>
     <t>SISxLOVE</t>
   </si>
   <si>
@@ -1637,6 +1658,12 @@
     <t>香香</t>
   </si>
   <si>
+    <t>做你的猫(无念白)</t>
+  </si>
+  <si>
+    <t>小可乐</t>
+  </si>
+  <si>
     <t>届かない恋(无法传达的爱恋)</t>
   </si>
   <si>
@@ -1862,6 +1889,15 @@
     <t>国语,抒情,伤感</t>
   </si>
   <si>
+    <t>血腥爱情故事</t>
+  </si>
+  <si>
+    <t>张惠妹</t>
+  </si>
+  <si>
+    <t>国语,流行,高音</t>
+  </si>
+  <si>
     <t>看得最远的地方</t>
   </si>
   <si>
@@ -1977,6 +2013,12 @@
   </si>
   <si>
     <t>最长的电影</t>
+  </si>
+  <si>
+    <t>烟花易冷</t>
+  </si>
+  <si>
+    <t>国语,国风</t>
   </si>
   <si>
     <t>等你下课</t>
@@ -2889,6 +2931,9 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
+      <alignment wrapText="false" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
@@ -2901,15 +2946,12 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
-      <alignment wrapText="false" vertical="center"/>
-    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office Theme">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3245,7 +3287,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
@@ -3496,7 +3538,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>12</v>
@@ -3536,7 +3578,7 @@
         <v>33</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>676</v>
+        <v>690</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>8</v>
@@ -3590,13 +3632,13 @@
     </row>
     <row r="21">
       <c r="A21" s="4"/>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="6" t="s">
         <v>42</v>
       </c>
@@ -3632,11 +3674,11 @@
         <v>46</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -3647,21 +3689,17 @@
     </row>
     <row r="24">
       <c r="A24" s="4"/>
-      <c r="B24" s="9" t="s">
-        <v>48</v>
+      <c r="B24" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>677</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D24" s="4"/>
       <c r="E24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -3670,19 +3708,21 @@
     </row>
     <row r="25">
       <c r="A25" s="4"/>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>678</v>
-      </c>
-      <c r="E25" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -3692,18 +3732,18 @@
     <row r="26">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="D26" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -3712,7 +3752,7 @@
     </row>
     <row r="27">
       <c r="A27" s="4"/>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -3720,9 +3760,11 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -3731,15 +3773,15 @@
     </row>
     <row r="28">
       <c r="A28" s="4"/>
-      <c r="B28" s="5" t="s">
-        <v>58</v>
+      <c r="B28" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="6" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -3758,7 +3800,7 @@
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="6" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -3770,14 +3812,14 @@
     <row r="30">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -3789,14 +3831,14 @@
     <row r="31">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -3808,10 +3850,10 @@
     <row r="32">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="6" t="s">
@@ -3827,14 +3869,14 @@
     <row r="33">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="6" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -3845,21 +3887,17 @@
     </row>
     <row r="34">
       <c r="A34" s="4"/>
-      <c r="B34" s="9" t="s">
-        <v>70</v>
+      <c r="B34" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>679</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D34" s="4"/>
       <c r="E34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -3868,17 +3906,21 @@
     </row>
     <row r="35">
       <c r="A35" s="4"/>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="8" t="s">
+        <v>693</v>
+      </c>
       <c r="E35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -3888,14 +3930,14 @@
     <row r="36">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="6" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -3907,14 +3949,14 @@
     <row r="37">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -3926,14 +3968,14 @@
     <row r="38">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="6" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -3945,10 +3987,10 @@
     <row r="39">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="6" t="s">
@@ -3964,10 +4006,10 @@
     <row r="40">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="6" t="s">
@@ -3982,21 +4024,17 @@
     </row>
     <row r="41">
       <c r="A41" s="4"/>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>680</v>
-      </c>
+      <c r="D41" s="4"/>
       <c r="E41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>85</v>
-      </c>
+      <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -4005,15 +4043,13 @@
     </row>
     <row r="42">
       <c r="A42" s="4"/>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>681</v>
-      </c>
+      <c r="C42" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="11"/>
       <c r="E42" s="6" t="s">
         <v>8</v>
       </c>
@@ -4026,17 +4062,21 @@
     </row>
     <row r="43">
       <c r="A43" s="4"/>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="4"/>
+      <c r="D43" s="8" t="s">
+        <v>694</v>
+      </c>
       <c r="E43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="4"/>
+      <c r="F43" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -4051,13 +4091,13 @@
       <c r="C44" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="4"/>
+      <c r="D44" s="8" t="s">
+        <v>695</v>
+      </c>
       <c r="E44" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -4067,10 +4107,10 @@
     <row r="45">
       <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="6" t="s">
@@ -4086,18 +4126,18 @@
     <row r="46">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>682</v>
-      </c>
+      <c r="D46" s="4"/>
       <c r="E46" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="4"/>
+      <c r="F46" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -4114,7 +4154,7 @@
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="6" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -4131,9 +4171,11 @@
       <c r="C48" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="3" t="s">
-        <v>39</v>
+      <c r="D48" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -4152,7 +4194,7 @@
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -4163,17 +4205,15 @@
     </row>
     <row r="50">
       <c r="A50" s="4"/>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>683</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>105</v>
+      <c r="D50" s="4"/>
+      <c r="E50" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -4185,14 +4225,14 @@
     <row r="51">
       <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="6" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -4203,15 +4243,17 @@
     </row>
     <row r="52">
       <c r="A52" s="4"/>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="D52" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -4226,11 +4268,11 @@
         <v>110</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="6" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -4242,14 +4284,14 @@
     <row r="54">
       <c r="A54" s="4"/>
       <c r="B54" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -4261,14 +4303,14 @@
     <row r="55">
       <c r="A55" s="4"/>
       <c r="B55" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -4283,11 +4325,11 @@
         <v>115</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -4299,14 +4341,14 @@
     <row r="57">
       <c r="A57" s="4"/>
       <c r="B57" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -4318,16 +4360,14 @@
     <row r="58">
       <c r="A58" s="4"/>
       <c r="B58" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>684</v>
-      </c>
+      <c r="D58" s="4"/>
       <c r="E58" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -4339,14 +4379,14 @@
     <row r="59">
       <c r="A59" s="4"/>
       <c r="B59" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -4357,21 +4397,19 @@
     </row>
     <row r="60">
       <c r="A60" s="4"/>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="6" t="s">
         <v>122</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>123</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
@@ -4381,14 +4419,14 @@
     <row r="61">
       <c r="A61" s="4"/>
       <c r="B61" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="6" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -4399,17 +4437,21 @@
     </row>
     <row r="62">
       <c r="A62" s="4"/>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -4419,14 +4461,14 @@
     <row r="63">
       <c r="A63" s="4"/>
       <c r="B63" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="6" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -4438,14 +4480,14 @@
     <row r="64">
       <c r="A64" s="4"/>
       <c r="B64" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -4457,10 +4499,10 @@
     <row r="65">
       <c r="A65" s="4"/>
       <c r="B65" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="6" t="s">
@@ -4476,14 +4518,14 @@
     <row r="66">
       <c r="A66" s="4"/>
       <c r="B66" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="6" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -4495,14 +4537,14 @@
     <row r="67">
       <c r="A67" s="4"/>
       <c r="B67" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="6" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -4514,14 +4556,14 @@
     <row r="68">
       <c r="A68" s="4"/>
       <c r="B68" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="6" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -4533,14 +4575,14 @@
     <row r="69">
       <c r="A69" s="4"/>
       <c r="B69" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -4552,10 +4594,10 @@
     <row r="70">
       <c r="A70" s="4"/>
       <c r="B70" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="6" t="s">
@@ -4571,14 +4613,14 @@
     <row r="71">
       <c r="A71" s="4"/>
       <c r="B71" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="6" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -4590,10 +4632,10 @@
     <row r="72">
       <c r="A72" s="4"/>
       <c r="B72" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="6" t="s">
@@ -4616,7 +4658,7 @@
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -4627,17 +4669,15 @@
     </row>
     <row r="74">
       <c r="A74" s="4"/>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C74" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>686</v>
-      </c>
+      <c r="C74" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" s="4"/>
       <c r="E74" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -4649,16 +4689,14 @@
     <row r="75">
       <c r="A75" s="4"/>
       <c r="B75" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>687</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D75" s="4"/>
       <c r="E75" s="6" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -4669,15 +4707,17 @@
     </row>
     <row r="76">
       <c r="A76" s="4"/>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D76" s="4"/>
+      <c r="D76" s="8" t="s">
+        <v>700</v>
+      </c>
       <c r="E76" s="6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -4692,13 +4732,13 @@
         <v>150</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -4710,16 +4750,14 @@
     <row r="78">
       <c r="A78" s="4"/>
       <c r="B78" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>689</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="D78" s="4"/>
       <c r="E78" s="6" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -4731,12 +4769,14 @@
     <row r="79">
       <c r="A79" s="4"/>
       <c r="B79" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D79" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>702</v>
+      </c>
       <c r="E79" s="6" t="s">
         <v>8</v>
       </c>
@@ -4750,14 +4790,16 @@
     <row r="80">
       <c r="A80" s="4"/>
       <c r="B80" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D80" s="4"/>
+      <c r="D80" s="8" t="s">
+        <v>703</v>
+      </c>
       <c r="E80" s="6" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -4768,21 +4810,17 @@
     </row>
     <row r="81">
       <c r="A81" s="4"/>
-      <c r="B81" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C81" s="10" t="s">
+      <c r="B81" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D81" s="8" t="s">
-        <v>690</v>
-      </c>
+      <c r="C81" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D81" s="4"/>
       <c r="E81" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F81" s="6" t="s">
-        <v>157</v>
-      </c>
+      <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
@@ -4792,14 +4830,14 @@
     <row r="82">
       <c r="A82" s="4"/>
       <c r="B82" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="6" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -4810,19 +4848,21 @@
     </row>
     <row r="83">
       <c r="A83" s="4"/>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="D83" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D83" s="8" t="s">
-        <v>691</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
@@ -4831,15 +4871,15 @@
     </row>
     <row r="84">
       <c r="A84" s="4"/>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="5" t="s">
         <v>162</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>163</v>
       </c>
       <c r="D84" s="4"/>
-      <c r="E84" s="4" t="s">
-        <v>8</v>
+      <c r="E84" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -4856,9 +4896,11 @@
       <c r="C85" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D85" s="4"/>
+      <c r="D85" s="8" t="s">
+        <v>705</v>
+      </c>
       <c r="E85" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
@@ -4869,15 +4911,15 @@
     </row>
     <row r="86">
       <c r="A86" s="4"/>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="9" t="s">
         <v>166</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>167</v>
       </c>
       <c r="D86" s="4"/>
-      <c r="E86" s="11" t="s">
-        <v>12</v>
+      <c r="E86" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
@@ -4896,7 +4938,7 @@
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="6" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
@@ -4911,11 +4953,11 @@
         <v>170</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D88" s="4"/>
-      <c r="E88" s="6" t="s">
-        <v>64</v>
+      <c r="E88" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -4927,14 +4969,14 @@
     <row r="89">
       <c r="A89" s="4"/>
       <c r="B89" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
@@ -4946,14 +4988,14 @@
     <row r="90">
       <c r="A90" s="4"/>
       <c r="B90" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
@@ -4965,10 +5007,10 @@
     <row r="91">
       <c r="A91" s="4"/>
       <c r="B91" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="6" t="s">
@@ -4984,16 +5026,14 @@
     <row r="92">
       <c r="A92" s="4"/>
       <c r="B92" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D92" s="8" t="s">
-        <v>692</v>
-      </c>
+      <c r="D92" s="4"/>
       <c r="E92" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
@@ -5004,21 +5044,17 @@
     </row>
     <row r="93">
       <c r="A93" s="4"/>
-      <c r="B93" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C93" s="10" t="s">
+      <c r="B93" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D93" s="8" t="s">
-        <v>693</v>
-      </c>
+      <c r="C93" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D93" s="4"/>
       <c r="E93" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F93" s="6" t="s">
-        <v>179</v>
-      </c>
+      <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
@@ -5028,12 +5064,14 @@
     <row r="94">
       <c r="A94" s="4"/>
       <c r="B94" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D94" s="4"/>
+      <c r="D94" s="8" t="s">
+        <v>706</v>
+      </c>
       <c r="E94" s="6" t="s">
         <v>12</v>
       </c>
@@ -5046,17 +5084,21 @@
     </row>
     <row r="95">
       <c r="A95" s="4"/>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C95" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="D95" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D95" s="4"/>
-      <c r="E95" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
@@ -5073,7 +5115,7 @@
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
@@ -5088,11 +5130,11 @@
         <v>186</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
@@ -5104,16 +5146,16 @@
     <row r="98">
       <c r="A98" s="4"/>
       <c r="B98" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F98" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
@@ -5123,14 +5165,14 @@
     <row r="99">
       <c r="A99" s="4"/>
       <c r="B99" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
@@ -5142,16 +5184,16 @@
     <row r="100">
       <c r="A100" s="4"/>
       <c r="B100" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F100" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="F100" s="6"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
@@ -5161,14 +5203,14 @@
     <row r="101">
       <c r="A101" s="4"/>
       <c r="B101" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="6" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
@@ -5180,14 +5222,14 @@
     <row r="102">
       <c r="A102" s="4"/>
       <c r="B102" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
@@ -5199,14 +5241,14 @@
     <row r="103">
       <c r="A103" s="4"/>
       <c r="B103" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="6" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
@@ -5218,16 +5260,14 @@
     <row r="104">
       <c r="A104" s="4"/>
       <c r="B104" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>694</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="D104" s="4"/>
       <c r="E104" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
@@ -5239,14 +5279,14 @@
     <row r="105">
       <c r="A105" s="4"/>
       <c r="B105" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>197</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
@@ -5258,14 +5298,16 @@
     <row r="106">
       <c r="A106" s="4"/>
       <c r="B106" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D106" s="4"/>
+        <v>197</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>708</v>
+      </c>
       <c r="E106" s="6" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
@@ -5284,7 +5326,7 @@
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
@@ -5303,7 +5345,7 @@
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="6" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
@@ -5322,7 +5364,7 @@
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
@@ -5341,7 +5383,7 @@
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
@@ -5359,7 +5401,7 @@
         <v>209</v>
       </c>
       <c r="D111" s="4"/>
-      <c r="E111" s="11" t="s">
+      <c r="E111" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F111" s="4"/>
@@ -5377,9 +5419,9 @@
       <c r="C112" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D112" s="12"/>
+      <c r="D112" s="4"/>
       <c r="E112" s="6" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
@@ -5397,12 +5439,10 @@
         <v>213</v>
       </c>
       <c r="D113" s="4"/>
-      <c r="E113" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>214</v>
-      </c>
+      <c r="E113" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
@@ -5411,15 +5451,13 @@
     </row>
     <row r="114">
       <c r="A114" s="4"/>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C114" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>695</v>
-      </c>
+      <c r="D114" s="13"/>
       <c r="E114" s="6" t="s">
         <v>8</v>
       </c>
@@ -5433,16 +5471,18 @@
     <row r="115">
       <c r="A115" s="4"/>
       <c r="B115" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C115" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="F115" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>218</v>
+      </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
@@ -5451,15 +5491,17 @@
     </row>
     <row r="116">
       <c r="A116" s="4"/>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C116" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C116" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D116" s="4"/>
+      <c r="D116" s="8" t="s">
+        <v>709</v>
+      </c>
       <c r="E116" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
@@ -5471,14 +5513,14 @@
     <row r="117">
       <c r="A117" s="4"/>
       <c r="B117" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C117" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="6" t="s">
-        <v>42</v>
+        <v>223</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
@@ -5497,7 +5539,7 @@
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
@@ -5512,11 +5554,11 @@
         <v>226</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="6" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
@@ -5528,14 +5570,14 @@
     <row r="120">
       <c r="A120" s="4"/>
       <c r="B120" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="6" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
@@ -5547,14 +5589,14 @@
     <row r="121">
       <c r="A121" s="4"/>
       <c r="B121" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
@@ -5566,14 +5608,14 @@
     <row r="122">
       <c r="A122" s="4"/>
       <c r="B122" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="6" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
@@ -5592,7 +5634,7 @@
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="6" t="s">
-        <v>234</v>
+        <v>67</v>
       </c>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
@@ -5604,14 +5646,14 @@
     <row r="124">
       <c r="A124" s="4"/>
       <c r="B124" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="6" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
@@ -5623,14 +5665,14 @@
     <row r="125">
       <c r="A125" s="4"/>
       <c r="B125" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C125" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>238</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="6" t="s">
-        <v>64</v>
+        <v>238</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
@@ -5649,7 +5691,7 @@
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
@@ -5666,11 +5708,9 @@
       <c r="C127" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D127" s="8" t="s">
-        <v>696</v>
-      </c>
+      <c r="D127" s="4"/>
       <c r="E127" s="6" t="s">
-        <v>243</v>
+        <v>67</v>
       </c>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
@@ -5682,14 +5722,14 @@
     <row r="128">
       <c r="A128" s="4"/>
       <c r="B128" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
@@ -5701,14 +5741,16 @@
     <row r="129">
       <c r="A129" s="4"/>
       <c r="B129" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C129" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="D129" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="E129" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="D129" s="4"/>
-      <c r="E129" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
@@ -5727,7 +5769,7 @@
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="6" t="s">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
@@ -5739,14 +5781,14 @@
     <row r="131">
       <c r="A131" s="4"/>
       <c r="B131" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C131" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="6" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
@@ -5758,14 +5800,14 @@
     <row r="132">
       <c r="A132" s="4"/>
       <c r="B132" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C132" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="6" t="s">
-        <v>64</v>
+        <v>254</v>
       </c>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
@@ -5782,11 +5824,9 @@
       <c r="C133" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D133" s="8" t="s">
-        <v>697</v>
-      </c>
+      <c r="D133" s="4"/>
       <c r="E133" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
@@ -5797,17 +5837,15 @@
     </row>
     <row r="134">
       <c r="A134" s="4"/>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C134" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D134" s="8" t="s">
-        <v>698</v>
-      </c>
+      <c r="D134" s="4"/>
       <c r="E134" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
@@ -5818,17 +5856,17 @@
     </row>
     <row r="135">
       <c r="A135" s="4"/>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="5" t="s">
         <v>259</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>260</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
@@ -5839,13 +5877,15 @@
     </row>
     <row r="136">
       <c r="A136" s="4"/>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C136" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="D136" s="4"/>
+      <c r="D136" s="8" t="s">
+        <v>712</v>
+      </c>
       <c r="E136" s="6" t="s">
         <v>12</v>
       </c>
@@ -5858,15 +5898,17 @@
     </row>
     <row r="137">
       <c r="A137" s="4"/>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="9" t="s">
         <v>263</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D137" s="4"/>
+      <c r="D137" s="8" t="s">
+        <v>713</v>
+      </c>
       <c r="E137" s="6" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
@@ -5881,11 +5923,11 @@
         <v>265</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
@@ -5896,17 +5938,15 @@
     </row>
     <row r="139">
       <c r="A139" s="4"/>
-      <c r="B139" s="9" t="s">
-        <v>266</v>
+      <c r="B139" s="5" t="s">
+        <v>267</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="E139" s="4" t="s">
         <v>268</v>
+      </c>
+      <c r="D139" s="4"/>
+      <c r="E139" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
@@ -5920,12 +5960,12 @@
       <c r="B140" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>270</v>
+      <c r="C140" s="6" t="s">
+        <v>268</v>
       </c>
       <c r="D140" s="4"/>
-      <c r="E140" s="3" t="s">
-        <v>12</v>
+      <c r="E140" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
@@ -5936,15 +5976,15 @@
     </row>
     <row r="141">
       <c r="A141" s="4"/>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C141" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="D141" s="11"/>
+      <c r="E141" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="D141" s="4"/>
-      <c r="E141" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
@@ -5955,15 +5995,17 @@
     </row>
     <row r="142">
       <c r="A142" s="4"/>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="9" t="s">
         <v>273</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="D142" s="4"/>
-      <c r="E142" s="6" t="s">
-        <v>12</v>
+      <c r="D142" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
@@ -5975,14 +6017,14 @@
     <row r="143">
       <c r="A143" s="4"/>
       <c r="B143" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>274</v>
+        <v>276</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="D143" s="4"/>
-      <c r="E143" s="6" t="s">
-        <v>42</v>
+      <c r="E143" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
@@ -5994,10 +6036,10 @@
     <row r="144">
       <c r="A144" s="4"/>
       <c r="B144" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="6" t="s">
@@ -6013,16 +6055,16 @@
     <row r="145">
       <c r="A145" s="4"/>
       <c r="B145" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C145" s="13" t="s">
-        <v>278</v>
+        <v>280</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>281</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F145" s="6"/>
+      <c r="F145" s="4"/>
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
@@ -6032,14 +6074,14 @@
     <row r="146">
       <c r="A146" s="4"/>
       <c r="B146" s="5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="6" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
@@ -6050,19 +6092,17 @@
     </row>
     <row r="147">
       <c r="A147" s="4"/>
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C147" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>282</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="F147" s="6" t="s">
-        <v>284</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F147" s="4"/>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
@@ -6072,18 +6112,16 @@
     <row r="148">
       <c r="A148" s="4"/>
       <c r="B148" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C148" s="14" t="s">
         <v>285</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>286</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F148" s="6" t="s">
-        <v>287</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F148" s="6"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
@@ -6093,14 +6131,14 @@
     <row r="149">
       <c r="A149" s="4"/>
       <c r="B149" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
@@ -6111,17 +6149,19 @@
     </row>
     <row r="150">
       <c r="A150" s="4"/>
-      <c r="B150" s="5" t="s">
-        <v>290</v>
+      <c r="B150" s="9" t="s">
+        <v>288</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>289</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F150" s="4"/>
+        <v>290</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
@@ -6131,16 +6171,18 @@
     <row r="151">
       <c r="A151" s="4"/>
       <c r="B151" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F151" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>294</v>
+      </c>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
@@ -6150,18 +6192,16 @@
     <row r="152">
       <c r="A152" s="4"/>
       <c r="B152" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F152" s="6" t="s">
-        <v>295</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
@@ -6171,14 +6211,14 @@
     <row r="153">
       <c r="A153" s="4"/>
       <c r="B153" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C153" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>294</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
@@ -6190,14 +6230,14 @@
     <row r="154">
       <c r="A154" s="4"/>
       <c r="B154" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D154" s="4"/>
       <c r="E154" s="6" t="s">
-        <v>283</v>
+        <v>67</v>
       </c>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
@@ -6209,16 +6249,18 @@
     <row r="155">
       <c r="A155" s="4"/>
       <c r="B155" s="5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="F155" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>302</v>
+      </c>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
@@ -6228,14 +6270,14 @@
     <row r="156">
       <c r="A156" s="4"/>
       <c r="B156" s="5" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
@@ -6247,14 +6289,14 @@
     <row r="157">
       <c r="A157" s="4"/>
       <c r="B157" s="5" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="6" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
@@ -6266,14 +6308,14 @@
     <row r="158">
       <c r="A158" s="4"/>
       <c r="B158" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C158" s="6" t="s">
         <v>301</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>294</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="6" t="s">
-        <v>64</v>
+        <v>290</v>
       </c>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
@@ -6285,14 +6327,14 @@
     <row r="159">
       <c r="A159" s="4"/>
       <c r="B159" s="5" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D159" s="4"/>
       <c r="E159" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
@@ -6304,14 +6346,14 @@
     <row r="160">
       <c r="A160" s="4"/>
       <c r="B160" s="5" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
@@ -6323,14 +6365,14 @@
     <row r="161">
       <c r="A161" s="4"/>
       <c r="B161" s="5" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
@@ -6342,14 +6384,14 @@
     <row r="162">
       <c r="A162" s="4"/>
       <c r="B162" s="5" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
@@ -6361,14 +6403,14 @@
     <row r="163">
       <c r="A163" s="4"/>
       <c r="B163" s="5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
@@ -6380,14 +6422,14 @@
     <row r="164">
       <c r="A164" s="4"/>
       <c r="B164" s="5" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="6" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
@@ -6399,14 +6441,14 @@
     <row r="165">
       <c r="A165" s="4"/>
       <c r="B165" s="5" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
@@ -6418,14 +6460,14 @@
     <row r="166">
       <c r="A166" s="4"/>
       <c r="B166" s="5" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
@@ -6437,14 +6479,14 @@
     <row r="167">
       <c r="A167" s="4"/>
       <c r="B167" s="5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D167" s="4"/>
       <c r="E167" s="6" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
@@ -6456,14 +6498,14 @@
     <row r="168">
       <c r="A168" s="4"/>
       <c r="B168" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="6" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
@@ -6475,14 +6517,14 @@
     <row r="169">
       <c r="A169" s="4"/>
       <c r="B169" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="6" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
@@ -6494,7 +6536,7 @@
     <row r="170">
       <c r="A170" s="4"/>
       <c r="B170" s="5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>318</v>
@@ -6512,21 +6554,17 @@
     </row>
     <row r="171">
       <c r="A171" s="4"/>
-      <c r="B171" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="C171" s="10" t="s">
+      <c r="B171" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D171" s="8" t="s">
-        <v>701</v>
-      </c>
+      <c r="C171" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D171" s="4"/>
       <c r="E171" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F171" s="6" t="s">
-        <v>321</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F171" s="4"/>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
@@ -6543,11 +6581,9 @@
       </c>
       <c r="D172" s="4"/>
       <c r="E172" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F172" s="6" t="s">
-        <v>324</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F172" s="4"/>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
@@ -6557,16 +6593,14 @@
     <row r="173">
       <c r="A173" s="4"/>
       <c r="B173" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C173" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C173" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="D173" s="8" t="s">
-        <v>702</v>
-      </c>
+      <c r="D173" s="4"/>
       <c r="E173" s="6" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
@@ -6577,19 +6611,21 @@
     </row>
     <row r="174">
       <c r="A174" s="4"/>
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="C174" s="6" t="s">
-        <v>323</v>
+      <c r="C174" s="10" t="s">
+        <v>327</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F174" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>328</v>
+      </c>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
@@ -6599,16 +6635,18 @@
     <row r="175">
       <c r="A175" s="4"/>
       <c r="B175" s="5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D175" s="4"/>
       <c r="E175" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F175" s="4"/>
+      <c r="F175" s="6" t="s">
+        <v>331</v>
+      </c>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
@@ -6618,14 +6656,16 @@
     <row r="176">
       <c r="A176" s="4"/>
       <c r="B176" s="5" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="D176" s="4"/>
+        <v>330</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>716</v>
+      </c>
       <c r="E176" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
@@ -6637,13 +6677,13 @@
     <row r="177">
       <c r="A177" s="4"/>
       <c r="B177" s="5" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="E177" s="6" t="s">
         <v>12</v>
@@ -6658,18 +6698,16 @@
     <row r="178">
       <c r="A178" s="4"/>
       <c r="B178" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C178" s="6" t="s">
         <v>330</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>323</v>
       </c>
       <c r="D178" s="4"/>
       <c r="E178" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F178" s="6" t="s">
-        <v>331</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F178" s="4"/>
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
@@ -6679,14 +6717,14 @@
     <row r="179">
       <c r="A179" s="4"/>
       <c r="B179" s="5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D179" s="4"/>
-      <c r="E179" s="11" t="s">
-        <v>12</v>
+      <c r="E179" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
@@ -6698,18 +6736,18 @@
     <row r="180">
       <c r="A180" s="4"/>
       <c r="B180" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="D180" s="4"/>
+        <v>330</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>718</v>
+      </c>
       <c r="E180" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F180" s="6" t="s">
-        <v>334</v>
-      </c>
+      <c r="F180" s="4"/>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
@@ -6719,18 +6757,18 @@
     <row r="181">
       <c r="A181" s="4"/>
       <c r="B181" s="5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="D181" s="8" t="s">
-        <v>705</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="D181" s="4"/>
       <c r="E181" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F181" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>338</v>
+      </c>
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
@@ -6740,15 +6778,13 @@
     <row r="182">
       <c r="A182" s="4"/>
       <c r="B182" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="D182" s="8" t="s">
-        <v>706</v>
-      </c>
-      <c r="E182" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D182" s="4"/>
+      <c r="E182" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F182" s="4"/>
@@ -6761,18 +6797,16 @@
     <row r="183">
       <c r="A183" s="4"/>
       <c r="B183" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="D183" s="8" t="s">
-        <v>707</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="D183" s="4"/>
       <c r="E183" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F183" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F183" s="6" t="s">
         <v>341</v>
       </c>
       <c r="G183" s="4"/>
@@ -6783,13 +6817,15 @@
     </row>
     <row r="184">
       <c r="A184" s="4"/>
-      <c r="B184" s="9" t="s">
+      <c r="B184" s="5" t="s">
         <v>342</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="D184" s="4"/>
+      <c r="D184" s="8" t="s">
+        <v>719</v>
+      </c>
       <c r="E184" s="6" t="s">
         <v>12</v>
       </c>
@@ -6808,7 +6844,9 @@
       <c r="C185" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="D185" s="4"/>
+      <c r="D185" s="8" t="s">
+        <v>720</v>
+      </c>
       <c r="E185" s="6" t="s">
         <v>12</v>
       </c>
@@ -6827,11 +6865,15 @@
       <c r="C186" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D186" s="4"/>
+      <c r="D186" s="8" t="s">
+        <v>721</v>
+      </c>
       <c r="E186" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F186" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>348</v>
+      </c>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
@@ -6840,11 +6882,11 @@
     </row>
     <row r="187">
       <c r="A187" s="4"/>
-      <c r="B187" s="5" t="s">
-        <v>348</v>
+      <c r="B187" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D187" s="4"/>
       <c r="E187" s="6" t="s">
@@ -6860,10 +6902,10 @@
     <row r="188">
       <c r="A188" s="4"/>
       <c r="B188" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D188" s="4"/>
       <c r="E188" s="6" t="s">
@@ -6879,18 +6921,16 @@
     <row r="189">
       <c r="A189" s="4"/>
       <c r="B189" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D189" s="4"/>
       <c r="E189" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F189" s="6" t="s">
-        <v>354</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F189" s="4"/>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
@@ -6907,7 +6947,7 @@
       </c>
       <c r="D190" s="4"/>
       <c r="E190" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
@@ -6926,7 +6966,7 @@
       </c>
       <c r="D191" s="4"/>
       <c r="E191" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
@@ -6945,9 +6985,11 @@
       </c>
       <c r="D192" s="4"/>
       <c r="E192" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F192" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>361</v>
+      </c>
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
@@ -6957,16 +6999,14 @@
     <row r="193">
       <c r="A193" s="4"/>
       <c r="B193" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D193" s="8" t="s">
-        <v>708</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="D193" s="4"/>
       <c r="E193" s="6" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
@@ -6978,14 +7018,14 @@
     <row r="194">
       <c r="A194" s="4"/>
       <c r="B194" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D194" s="4"/>
       <c r="E194" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
@@ -6997,14 +7037,14 @@
     <row r="195">
       <c r="A195" s="4"/>
       <c r="B195" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D195" s="4"/>
       <c r="E195" s="6" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
@@ -7016,14 +7056,16 @@
     <row r="196">
       <c r="A196" s="4"/>
       <c r="B196" s="5" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D196" s="4"/>
+        <v>369</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>722</v>
+      </c>
       <c r="E196" s="6" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
@@ -7034,15 +7076,13 @@
     </row>
     <row r="197">
       <c r="A197" s="4"/>
-      <c r="B197" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="C197" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>709</v>
-      </c>
+      <c r="B197" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D197" s="4"/>
       <c r="E197" s="6" t="s">
         <v>12</v>
       </c>
@@ -7056,10 +7096,10 @@
     <row r="198">
       <c r="A198" s="4"/>
       <c r="B198" s="5" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D198" s="4"/>
       <c r="E198" s="6" t="s">
@@ -7074,15 +7114,13 @@
     </row>
     <row r="199">
       <c r="A199" s="4"/>
-      <c r="B199" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="C199" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="D199" s="8" t="s">
-        <v>710</v>
-      </c>
+      <c r="B199" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D199" s="4"/>
       <c r="E199" s="6" t="s">
         <v>12</v>
       </c>
@@ -7095,15 +7133,17 @@
     </row>
     <row r="200">
       <c r="A200" s="4"/>
-      <c r="B200" s="5" t="s">
+      <c r="B200" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C200" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="C200" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D200" s="4"/>
+      <c r="D200" s="8" t="s">
+        <v>723</v>
+      </c>
       <c r="E200" s="6" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F200" s="4"/>
       <c r="G200" s="4"/>
@@ -7115,14 +7155,14 @@
     <row r="201">
       <c r="A201" s="4"/>
       <c r="B201" s="5" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D201" s="4"/>
       <c r="E201" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F201" s="4"/>
       <c r="G201" s="4"/>
@@ -7133,15 +7173,17 @@
     </row>
     <row r="202">
       <c r="A202" s="4"/>
-      <c r="B202" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D202" s="4"/>
+      <c r="B202" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>724</v>
+      </c>
       <c r="E202" s="6" t="s">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
@@ -7153,16 +7195,14 @@
     <row r="203">
       <c r="A203" s="4"/>
       <c r="B203" s="5" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D203" s="8" t="s">
-        <v>711</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="D203" s="4"/>
       <c r="E203" s="6" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F203" s="4"/>
       <c r="G203" s="4"/>
@@ -7172,22 +7212,18 @@
       <c r="K203" s="4"/>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>200.0</v>
-      </c>
+      <c r="A204" s="4"/>
       <c r="B204" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>712</v>
-      </c>
-      <c r="E204" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F204" s="1"/>
+        <v>377</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D204" s="4"/>
+      <c r="E204" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F204" s="4"/>
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
@@ -7197,14 +7233,14 @@
     <row r="205">
       <c r="A205" s="4"/>
       <c r="B205" s="5" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D205" s="4"/>
       <c r="E205" s="6" t="s">
-        <v>133</v>
+        <v>238</v>
       </c>
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
@@ -7216,12 +7252,14 @@
     <row r="206">
       <c r="A206" s="4"/>
       <c r="B206" s="5" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D206" s="4"/>
+        <v>369</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>725</v>
+      </c>
       <c r="E206" s="6" t="s">
         <v>12</v>
       </c>
@@ -7233,20 +7271,22 @@
       <c r="K206" s="4"/>
     </row>
     <row r="207">
-      <c r="A207" s="4"/>
+      <c r="A207" s="1" t="n">
+        <v>200.0</v>
+      </c>
       <c r="B207" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="C207" s="13" t="s">
-        <v>362</v>
+        <v>380</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>369</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>713</v>
-      </c>
-      <c r="E207" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F207" s="4"/>
+        <v>726</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F207" s="1"/>
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
@@ -7256,14 +7296,14 @@
     <row r="208">
       <c r="A208" s="4"/>
       <c r="B208" s="5" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D208" s="4"/>
       <c r="E208" s="6" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
@@ -7275,18 +7315,16 @@
     <row r="209">
       <c r="A209" s="4"/>
       <c r="B209" s="5" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D209" s="4"/>
       <c r="E209" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F209" s="6" t="s">
-        <v>379</v>
-      </c>
+      <c r="F209" s="4"/>
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
@@ -7295,14 +7333,14 @@
     </row>
     <row r="210">
       <c r="A210" s="4"/>
-      <c r="B210" s="9" t="s">
-        <v>380</v>
+      <c r="B210" s="5" t="s">
+        <v>383</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
       <c r="E210" s="6" t="s">
         <v>12</v>
@@ -7317,14 +7355,14 @@
     <row r="211">
       <c r="A211" s="4"/>
       <c r="B211" s="5" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="D211" s="4"/>
       <c r="E211" s="6" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
@@ -7335,19 +7373,19 @@
     </row>
     <row r="212">
       <c r="A212" s="4"/>
-      <c r="B212" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="C212" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="D212" s="8" t="s">
-        <v>715</v>
-      </c>
+      <c r="B212" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D212" s="4"/>
       <c r="E212" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F212" s="4"/>
+      <c r="F212" s="6" t="s">
+        <v>386</v>
+      </c>
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
@@ -7356,15 +7394,17 @@
     </row>
     <row r="213">
       <c r="A213" s="4"/>
-      <c r="B213" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="C213" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="D213" s="4"/>
+      <c r="B213" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C213" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>728</v>
+      </c>
       <c r="E213" s="6" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
@@ -7376,10 +7416,10 @@
     <row r="214">
       <c r="A214" s="4"/>
       <c r="B214" s="5" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D214" s="4"/>
       <c r="E214" s="6" t="s">
@@ -7394,15 +7434,17 @@
     </row>
     <row r="215">
       <c r="A215" s="4"/>
-      <c r="B215" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="C215" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="D215" s="4"/>
+      <c r="B215" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>729</v>
+      </c>
       <c r="E215" s="6" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
@@ -7414,16 +7456,14 @@
     <row r="216">
       <c r="A216" s="4"/>
       <c r="B216" s="5" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="D216" s="8" t="s">
-        <v>716</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="D216" s="4"/>
       <c r="E216" s="6" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
@@ -7435,10 +7475,10 @@
     <row r="217">
       <c r="A217" s="4"/>
       <c r="B217" s="5" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D217" s="4"/>
       <c r="E217" s="6" t="s">
@@ -7454,16 +7494,16 @@
     <row r="218">
       <c r="A218" s="4"/>
       <c r="B218" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C218" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="D218" s="4"/>
       <c r="E218" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F218" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="F218" s="4"/>
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
@@ -7473,16 +7513,18 @@
     <row r="219">
       <c r="A219" s="4"/>
       <c r="B219" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="D219" s="4"/>
+        <v>397</v>
+      </c>
+      <c r="D219" s="8" t="s">
+        <v>730</v>
+      </c>
       <c r="E219" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F219" s="6"/>
+      <c r="F219" s="4"/>
       <c r="G219" s="4"/>
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
@@ -7492,14 +7534,12 @@
     <row r="220">
       <c r="A220" s="4"/>
       <c r="B220" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="D220" s="8" t="s">
-        <v>717</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="D220" s="4"/>
       <c r="E220" s="6" t="s">
         <v>12</v>
       </c>
@@ -7513,16 +7553,16 @@
     <row r="221">
       <c r="A221" s="4"/>
       <c r="B221" s="5" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D221" s="4"/>
       <c r="E221" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F221" s="4"/>
+      <c r="F221" s="6"/>
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
@@ -7531,19 +7571,17 @@
     </row>
     <row r="222">
       <c r="A222" s="4"/>
-      <c r="B222" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="C222" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="D222" s="8" t="s">
-        <v>718</v>
-      </c>
+      <c r="B222" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D222" s="4"/>
       <c r="E222" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F222" s="4"/>
+      <c r="F222" s="6"/>
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
@@ -7553,13 +7591,13 @@
     <row r="223">
       <c r="A223" s="4"/>
       <c r="B223" s="5" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>403</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="E223" s="6" t="s">
         <v>12</v>
@@ -7574,14 +7612,14 @@
     <row r="224">
       <c r="A224" s="4"/>
       <c r="B224" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D224" s="4"/>
       <c r="E224" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F224" s="4"/>
       <c r="G224" s="4"/>
@@ -7592,15 +7630,17 @@
     </row>
     <row r="225">
       <c r="A225" s="4"/>
-      <c r="B225" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="C225" s="6" t="s">
+      <c r="B225" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="D225" s="4"/>
+      <c r="C225" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>732</v>
+      </c>
       <c r="E225" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F225" s="4"/>
       <c r="G225" s="4"/>
@@ -7612,18 +7652,18 @@
     <row r="226">
       <c r="A226" s="4"/>
       <c r="B226" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="D226" s="4"/>
+        <v>410</v>
+      </c>
+      <c r="D226" s="8" t="s">
+        <v>733</v>
+      </c>
       <c r="E226" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F226" s="6" t="s">
-        <v>410</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F226" s="4"/>
       <c r="G226" s="4"/>
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
@@ -7638,11 +7678,9 @@
       <c r="C227" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="D227" s="8" t="s">
-        <v>720</v>
-      </c>
+      <c r="D227" s="4"/>
       <c r="E227" s="6" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="F227" s="4"/>
       <c r="G227" s="4"/>
@@ -7659,15 +7697,11 @@
       <c r="C228" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="D228" s="8" t="s">
-        <v>721</v>
-      </c>
+      <c r="D228" s="4"/>
       <c r="E228" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F228" s="6" t="s">
-        <v>415</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F228" s="4"/>
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
       <c r="I228" s="4"/>
@@ -7677,16 +7711,18 @@
     <row r="229">
       <c r="A229" s="4"/>
       <c r="B229" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C229" s="6" t="s">
         <v>416</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>417</v>
       </c>
       <c r="D229" s="4"/>
       <c r="E229" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F229" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="F229" s="6" t="s">
+        <v>417</v>
+      </c>
       <c r="G229" s="4"/>
       <c r="H229" s="4"/>
       <c r="I229" s="4"/>
@@ -7699,11 +7735,13 @@
         <v>418</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="D230" s="4"/>
+        <v>419</v>
+      </c>
+      <c r="D230" s="8" t="s">
+        <v>734</v>
+      </c>
       <c r="E230" s="6" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F230" s="4"/>
       <c r="G230" s="4"/>
@@ -7715,16 +7753,20 @@
     <row r="231">
       <c r="A231" s="4"/>
       <c r="B231" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="D231" s="4"/>
+        <v>421</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>735</v>
+      </c>
       <c r="E231" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F231" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="F231" s="6" t="s">
+        <v>422</v>
+      </c>
       <c r="G231" s="4"/>
       <c r="H231" s="4"/>
       <c r="I231" s="4"/>
@@ -7734,16 +7776,14 @@
     <row r="232">
       <c r="A232" s="4"/>
       <c r="B232" s="5" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="D232" s="8" t="s">
-        <v>722</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="D232" s="4"/>
       <c r="E232" s="6" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F232" s="4"/>
       <c r="G232" s="4"/>
@@ -7755,14 +7795,14 @@
     <row r="233">
       <c r="A233" s="4"/>
       <c r="B233" s="5" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D233" s="4"/>
       <c r="E233" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F233" s="4"/>
       <c r="G233" s="4"/>
@@ -7774,14 +7814,14 @@
     <row r="234">
       <c r="A234" s="4"/>
       <c r="B234" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C234" s="6" t="s">
         <v>424</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>425</v>
       </c>
       <c r="D234" s="4"/>
       <c r="E234" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F234" s="4"/>
       <c r="G234" s="4"/>
@@ -7793,14 +7833,16 @@
     <row r="235">
       <c r="A235" s="4"/>
       <c r="B235" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D235" s="4"/>
+        <v>428</v>
+      </c>
+      <c r="D235" s="8" t="s">
+        <v>736</v>
+      </c>
       <c r="E235" s="6" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F235" s="4"/>
       <c r="G235" s="4"/>
@@ -7812,14 +7854,14 @@
     <row r="236">
       <c r="A236" s="4"/>
       <c r="B236" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D236" s="4"/>
       <c r="E236" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F236" s="4"/>
       <c r="G236" s="4"/>
@@ -7831,10 +7873,10 @@
     <row r="237">
       <c r="A237" s="4"/>
       <c r="B237" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D237" s="4"/>
       <c r="E237" s="6" t="s">
@@ -7850,14 +7892,14 @@
     <row r="238">
       <c r="A238" s="4"/>
       <c r="B238" s="5" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="D238" s="4"/>
       <c r="E238" s="6" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="F238" s="4"/>
       <c r="G238" s="4"/>
@@ -7869,10 +7911,10 @@
     <row r="239">
       <c r="A239" s="4"/>
       <c r="B239" s="5" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="D239" s="4"/>
       <c r="E239" s="6" t="s">
@@ -7888,14 +7930,14 @@
     <row r="240">
       <c r="A240" s="4"/>
       <c r="B240" s="5" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="D240" s="4"/>
       <c r="E240" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F240" s="4"/>
       <c r="G240" s="4"/>
@@ -7906,21 +7948,17 @@
     </row>
     <row r="241">
       <c r="A241" s="4"/>
-      <c r="B241" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="C241" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="D241" s="8" t="s">
-        <v>723</v>
-      </c>
+      <c r="B241" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D241" s="4"/>
       <c r="E241" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="F241" s="6" t="s">
-        <v>436</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F241" s="4"/>
       <c r="G241" s="4"/>
       <c r="H241" s="4"/>
       <c r="I241" s="4"/>
@@ -7930,14 +7968,14 @@
     <row r="242">
       <c r="A242" s="4"/>
       <c r="B242" s="5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D242" s="4"/>
       <c r="E242" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F242" s="4"/>
       <c r="G242" s="4"/>
@@ -7947,22 +7985,18 @@
       <c r="K242" s="4"/>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C243" s="1" t="s">
+      <c r="A243" s="4"/>
+      <c r="B243" s="5" t="s">
         <v>440</v>
       </c>
+      <c r="C243" s="6" t="s">
+        <v>436</v>
+      </c>
       <c r="D243" s="4"/>
-      <c r="E243" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F243" s="3" t="s">
-        <v>441</v>
-      </c>
+      <c r="E243" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F243" s="4"/>
       <c r="G243" s="4"/>
       <c r="H243" s="4"/>
       <c r="I243" s="4"/>
@@ -7971,17 +8005,21 @@
     </row>
     <row r="244">
       <c r="A244" s="4"/>
-      <c r="B244" s="5" t="s">
+      <c r="B244" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="E244" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="C244" s="6" t="s">
+      <c r="F244" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="D244" s="4"/>
-      <c r="E244" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F244" s="4"/>
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
       <c r="I244" s="4"/>
@@ -7998,7 +8036,7 @@
       </c>
       <c r="D245" s="4"/>
       <c r="E245" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F245" s="4"/>
       <c r="G245" s="4"/>
@@ -8008,18 +8046,20 @@
       <c r="K245" s="4"/>
     </row>
     <row r="246">
-      <c r="A246" s="4"/>
-      <c r="B246" s="5" t="s">
+      <c r="A246" s="1" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C246" s="6" t="s">
+      <c r="C246" s="1" t="s">
         <v>447</v>
       </c>
       <c r="D246" s="4"/>
-      <c r="E246" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F246" s="6" t="s">
+      <c r="E246" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F246" s="3" t="s">
         <v>448</v>
       </c>
       <c r="G246" s="4"/>
@@ -8038,7 +8078,7 @@
       </c>
       <c r="D247" s="4"/>
       <c r="E247" s="6" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F247" s="4"/>
       <c r="G247" s="4"/>
@@ -8057,7 +8097,7 @@
       </c>
       <c r="D248" s="4"/>
       <c r="E248" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F248" s="4"/>
       <c r="G248" s="4"/>
@@ -8072,13 +8112,15 @@
         <v>453</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D249" s="4"/>
       <c r="E249" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F249" s="4"/>
+      <c r="F249" s="6" t="s">
+        <v>455</v>
+      </c>
       <c r="G249" s="4"/>
       <c r="H249" s="4"/>
       <c r="I249" s="4"/>
@@ -8088,20 +8130,16 @@
     <row r="250">
       <c r="A250" s="4"/>
       <c r="B250" s="5" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="D250" s="8" t="s">
-        <v>724</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="D250" s="4"/>
       <c r="E250" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F250" s="6" t="s">
-        <v>456</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F250" s="4"/>
       <c r="G250" s="4"/>
       <c r="H250" s="4"/>
       <c r="I250" s="4"/>
@@ -8111,14 +8149,14 @@
     <row r="251">
       <c r="A251" s="4"/>
       <c r="B251" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D251" s="4"/>
       <c r="E251" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F251" s="4"/>
       <c r="G251" s="4"/>
@@ -8130,14 +8168,14 @@
     <row r="252">
       <c r="A252" s="4"/>
       <c r="B252" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C252" s="6" t="s">
         <v>459</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>460</v>
       </c>
       <c r="D252" s="4"/>
       <c r="E252" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F252" s="4"/>
       <c r="G252" s="4"/>
@@ -8154,9 +8192,11 @@
       <c r="C253" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D253" s="4"/>
+      <c r="D253" s="8" t="s">
+        <v>738</v>
+      </c>
       <c r="E253" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F253" s="6" t="s">
         <v>463</v>
@@ -8175,11 +8215,9 @@
       <c r="C254" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="D254" s="8" t="s">
-        <v>725</v>
-      </c>
+      <c r="D254" s="4"/>
       <c r="E254" s="6" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="F254" s="4"/>
       <c r="G254" s="4"/>
@@ -8198,7 +8236,7 @@
       </c>
       <c r="D255" s="4"/>
       <c r="E255" s="6" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="F255" s="4"/>
       <c r="G255" s="4"/>
@@ -8219,7 +8257,9 @@
       <c r="E256" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F256" s="4"/>
+      <c r="F256" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="G256" s="4"/>
       <c r="H256" s="4"/>
       <c r="I256" s="4"/>
@@ -8229,14 +8269,16 @@
     <row r="257">
       <c r="A257" s="4"/>
       <c r="B257" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="D257" s="4"/>
+        <v>472</v>
+      </c>
+      <c r="D257" s="8" t="s">
+        <v>739</v>
+      </c>
       <c r="E257" s="6" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F257" s="4"/>
       <c r="G257" s="4"/>
@@ -8248,14 +8290,14 @@
     <row r="258">
       <c r="A258" s="4"/>
       <c r="B258" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D258" s="4"/>
       <c r="E258" s="6" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F258" s="4"/>
       <c r="G258" s="4"/>
@@ -8267,14 +8309,14 @@
     <row r="259">
       <c r="A259" s="4"/>
       <c r="B259" s="5" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D259" s="4"/>
       <c r="E259" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F259" s="4"/>
       <c r="G259" s="4"/>
@@ -8286,10 +8328,10 @@
     <row r="260">
       <c r="A260" s="4"/>
       <c r="B260" s="5" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D260" s="4"/>
       <c r="E260" s="6" t="s">
@@ -8305,14 +8347,14 @@
     <row r="261">
       <c r="A261" s="4"/>
       <c r="B261" s="5" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D261" s="4"/>
       <c r="E261" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F261" s="4"/>
       <c r="G261" s="4"/>
@@ -8324,14 +8366,14 @@
     <row r="262">
       <c r="A262" s="4"/>
       <c r="B262" s="5" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D262" s="4"/>
       <c r="E262" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F262" s="4"/>
       <c r="G262" s="4"/>
@@ -8343,14 +8385,12 @@
     <row r="263">
       <c r="A263" s="4"/>
       <c r="B263" s="5" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="D263" s="8" t="s">
-        <v>726</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="D263" s="4"/>
       <c r="E263" s="6" t="s">
         <v>12</v>
       </c>
@@ -8364,14 +8404,14 @@
     <row r="264">
       <c r="A264" s="4"/>
       <c r="B264" s="5" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D264" s="4"/>
       <c r="E264" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F264" s="4"/>
       <c r="G264" s="4"/>
@@ -8383,14 +8423,14 @@
     <row r="265">
       <c r="A265" s="4"/>
       <c r="B265" s="5" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D265" s="4"/>
       <c r="E265" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F265" s="4"/>
       <c r="G265" s="4"/>
@@ -8402,14 +8442,16 @@
     <row r="266">
       <c r="A266" s="4"/>
       <c r="B266" s="5" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="D266" s="4"/>
+        <v>483</v>
+      </c>
+      <c r="D266" s="8" t="s">
+        <v>740</v>
+      </c>
       <c r="E266" s="6" t="s">
-        <v>483</v>
+        <v>12</v>
       </c>
       <c r="F266" s="4"/>
       <c r="G266" s="4"/>
@@ -8421,14 +8463,14 @@
     <row r="267">
       <c r="A267" s="4"/>
       <c r="B267" s="5" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D267" s="4"/>
       <c r="E267" s="6" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="F267" s="4"/>
       <c r="G267" s="4"/>
@@ -8440,14 +8482,14 @@
     <row r="268">
       <c r="A268" s="4"/>
       <c r="B268" s="5" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D268" s="4"/>
-      <c r="E268" s="11" t="s">
-        <v>12</v>
+      <c r="E268" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="F268" s="4"/>
       <c r="G268" s="4"/>
@@ -8458,21 +8500,17 @@
     </row>
     <row r="269">
       <c r="A269" s="4"/>
-      <c r="B269" s="9" t="s">
-        <v>486</v>
+      <c r="B269" s="5" t="s">
+        <v>489</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="D269" s="8" t="s">
-        <v>727</v>
-      </c>
-      <c r="E269" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F269" s="6" t="s">
-        <v>488</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="D269" s="4"/>
+      <c r="E269" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="F269" s="4"/>
       <c r="G269" s="4"/>
       <c r="H269" s="4"/>
       <c r="I269" s="4"/>
@@ -8482,14 +8520,14 @@
     <row r="270">
       <c r="A270" s="4"/>
       <c r="B270" s="5" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D270" s="4"/>
       <c r="E270" s="6" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="F270" s="4"/>
       <c r="G270" s="4"/>
@@ -8501,14 +8539,14 @@
     <row r="271">
       <c r="A271" s="4"/>
       <c r="B271" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D271" s="4"/>
-      <c r="E271" s="6" t="s">
-        <v>64</v>
+      <c r="E271" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="F271" s="4"/>
       <c r="G271" s="4"/>
@@ -8519,17 +8557,21 @@
     </row>
     <row r="272">
       <c r="A272" s="4"/>
-      <c r="B272" s="5" t="s">
-        <v>492</v>
+      <c r="B272" s="9" t="s">
+        <v>493</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="D272" s="4"/>
-      <c r="E272" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F272" s="4"/>
+        <v>494</v>
+      </c>
+      <c r="D272" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="E272" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F272" s="6" t="s">
+        <v>495</v>
+      </c>
       <c r="G272" s="4"/>
       <c r="H272" s="4"/>
       <c r="I272" s="4"/>
@@ -8539,14 +8581,14 @@
     <row r="273">
       <c r="A273" s="4"/>
       <c r="B273" s="5" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D273" s="4"/>
       <c r="E273" s="6" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="F273" s="4"/>
       <c r="G273" s="4"/>
@@ -8558,14 +8600,14 @@
     <row r="274">
       <c r="A274" s="4"/>
       <c r="B274" s="5" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D274" s="4"/>
       <c r="E274" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F274" s="4"/>
       <c r="G274" s="4"/>
@@ -8577,14 +8619,14 @@
     <row r="275">
       <c r="A275" s="4"/>
       <c r="B275" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C275" s="6" t="s">
         <v>497</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>496</v>
       </c>
       <c r="D275" s="4"/>
       <c r="E275" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F275" s="4"/>
       <c r="G275" s="4"/>
@@ -8596,14 +8638,14 @@
     <row r="276">
       <c r="A276" s="4"/>
       <c r="B276" s="5" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="D276" s="4"/>
       <c r="E276" s="6" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F276" s="4"/>
       <c r="G276" s="4"/>
@@ -8615,14 +8657,14 @@
     <row r="277">
       <c r="A277" s="4"/>
       <c r="B277" s="5" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="D277" s="4"/>
       <c r="E277" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F277" s="4"/>
       <c r="G277" s="4"/>
@@ -8634,10 +8676,10 @@
     <row r="278">
       <c r="A278" s="4"/>
       <c r="B278" s="5" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D278" s="4"/>
       <c r="E278" s="6" t="s">
@@ -8653,14 +8695,14 @@
     <row r="279">
       <c r="A279" s="4"/>
       <c r="B279" s="5" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C279" s="6" t="s">
         <v>503</v>
       </c>
       <c r="D279" s="4"/>
       <c r="E279" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F279" s="4"/>
       <c r="G279" s="4"/>
@@ -8672,14 +8714,14 @@
     <row r="280">
       <c r="A280" s="4"/>
       <c r="B280" s="5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C280" s="6" t="s">
         <v>503</v>
       </c>
       <c r="D280" s="4"/>
       <c r="E280" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F280" s="4"/>
       <c r="G280" s="4"/>
@@ -8691,14 +8733,14 @@
     <row r="281">
       <c r="A281" s="4"/>
       <c r="B281" s="5" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D281" s="4"/>
       <c r="E281" s="6" t="s">
-        <v>507</v>
+        <v>12</v>
       </c>
       <c r="F281" s="4"/>
       <c r="G281" s="4"/>
@@ -8709,19 +8751,17 @@
     </row>
     <row r="282">
       <c r="A282" s="4"/>
-      <c r="B282" s="9" t="s">
-        <v>508</v>
+      <c r="B282" s="5" t="s">
+        <v>509</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D282" s="4"/>
       <c r="E282" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="F282" s="6" t="s">
-        <v>510</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F282" s="4"/>
       <c r="G282" s="4"/>
       <c r="H282" s="4"/>
       <c r="I282" s="4"/>
@@ -8734,11 +8774,11 @@
         <v>511</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D283" s="4"/>
       <c r="E283" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F283" s="4"/>
       <c r="G283" s="4"/>
@@ -8753,11 +8793,11 @@
         <v>512</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D284" s="4"/>
       <c r="E284" s="6" t="s">
-        <v>64</v>
+        <v>514</v>
       </c>
       <c r="F284" s="4"/>
       <c r="G284" s="4"/>
@@ -8768,17 +8808,19 @@
     </row>
     <row r="285">
       <c r="A285" s="4"/>
-      <c r="B285" s="5" t="s">
-        <v>513</v>
+      <c r="B285" s="9" t="s">
+        <v>515</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="D285" s="4"/>
       <c r="E285" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F285" s="4"/>
+        <v>514</v>
+      </c>
+      <c r="F285" s="6" t="s">
+        <v>517</v>
+      </c>
       <c r="G285" s="4"/>
       <c r="H285" s="4"/>
       <c r="I285" s="4"/>
@@ -8788,18 +8830,16 @@
     <row r="286">
       <c r="A286" s="4"/>
       <c r="B286" s="5" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D286" s="4"/>
       <c r="E286" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F286" s="6" t="s">
-        <v>516</v>
-      </c>
+      <c r="F286" s="4"/>
       <c r="G286" s="4"/>
       <c r="H286" s="4"/>
       <c r="I286" s="4"/>
@@ -8809,14 +8849,14 @@
     <row r="287">
       <c r="A287" s="4"/>
       <c r="B287" s="5" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D287" s="4"/>
       <c r="E287" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F287" s="4"/>
       <c r="G287" s="4"/>
@@ -8828,14 +8868,14 @@
     <row r="288">
       <c r="A288" s="4"/>
       <c r="B288" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D288" s="4"/>
       <c r="E288" s="6" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="F288" s="4"/>
       <c r="G288" s="4"/>
@@ -8850,13 +8890,15 @@
         <v>521</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D289" s="4"/>
       <c r="E289" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="F289" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="F289" s="6" t="s">
+        <v>523</v>
+      </c>
       <c r="G289" s="4"/>
       <c r="H289" s="4"/>
       <c r="I289" s="4"/>
@@ -8866,10 +8908,10 @@
     <row r="290">
       <c r="A290" s="4"/>
       <c r="B290" s="5" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D290" s="4"/>
       <c r="E290" s="6" t="s">
@@ -8884,17 +8926,15 @@
     </row>
     <row r="291">
       <c r="A291" s="4"/>
-      <c r="B291" s="9" t="s">
-        <v>524</v>
+      <c r="B291" s="5" t="s">
+        <v>526</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="D291" s="8" t="s">
-        <v>728</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="D291" s="4"/>
       <c r="E291" s="6" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F291" s="4"/>
       <c r="G291" s="4"/>
@@ -8906,14 +8946,14 @@
     <row r="292">
       <c r="A292" s="4"/>
       <c r="B292" s="5" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C292" s="6" t="s">
         <v>527</v>
       </c>
       <c r="D292" s="4"/>
       <c r="E292" s="6" t="s">
-        <v>42</v>
+        <v>238</v>
       </c>
       <c r="F292" s="4"/>
       <c r="G292" s="4"/>
@@ -8925,14 +8965,14 @@
     <row r="293">
       <c r="A293" s="4"/>
       <c r="B293" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D293" s="4"/>
       <c r="E293" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F293" s="4"/>
       <c r="G293" s="4"/>
@@ -8943,15 +8983,17 @@
     </row>
     <row r="294">
       <c r="A294" s="4"/>
-      <c r="B294" s="5" t="s">
-        <v>530</v>
+      <c r="B294" s="9" t="s">
+        <v>531</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="D294" s="4"/>
+        <v>532</v>
+      </c>
+      <c r="D294" s="8" t="s">
+        <v>742</v>
+      </c>
       <c r="E294" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F294" s="4"/>
       <c r="G294" s="4"/>
@@ -8963,14 +9005,14 @@
     <row r="295">
       <c r="A295" s="4"/>
       <c r="B295" s="5" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="D295" s="4"/>
       <c r="E295" s="6" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F295" s="4"/>
       <c r="G295" s="4"/>
@@ -8982,14 +9024,14 @@
     <row r="296">
       <c r="A296" s="4"/>
       <c r="B296" s="5" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="D296" s="4"/>
       <c r="E296" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F296" s="4"/>
       <c r="G296" s="4"/>
@@ -9001,14 +9043,14 @@
     <row r="297">
       <c r="A297" s="4"/>
       <c r="B297" s="5" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="D297" s="4"/>
       <c r="E297" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F297" s="4"/>
       <c r="G297" s="4"/>
@@ -9020,14 +9062,14 @@
     <row r="298">
       <c r="A298" s="4"/>
       <c r="B298" s="5" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="D298" s="4"/>
       <c r="E298" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F298" s="4"/>
       <c r="G298" s="4"/>
@@ -9039,14 +9081,14 @@
     <row r="299">
       <c r="A299" s="4"/>
       <c r="B299" s="5" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="D299" s="4"/>
       <c r="E299" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F299" s="4"/>
       <c r="G299" s="4"/>
@@ -9058,14 +9100,14 @@
     <row r="300">
       <c r="A300" s="4"/>
       <c r="B300" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C300" s="6" t="s">
         <v>536</v>
-      </c>
-      <c r="C300" s="6" t="s">
-        <v>529</v>
       </c>
       <c r="D300" s="4"/>
       <c r="E300" s="6" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="F300" s="4"/>
       <c r="G300" s="4"/>
@@ -9077,14 +9119,14 @@
     <row r="301">
       <c r="A301" s="4"/>
       <c r="B301" s="5" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D301" s="4"/>
       <c r="E301" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F301" s="4"/>
       <c r="G301" s="4"/>
@@ -9096,14 +9138,14 @@
     <row r="302">
       <c r="A302" s="4"/>
       <c r="B302" s="5" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D302" s="4"/>
       <c r="E302" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F302" s="4"/>
       <c r="G302" s="4"/>
@@ -9114,15 +9156,15 @@
     </row>
     <row r="303">
       <c r="A303" s="4"/>
-      <c r="B303" s="9" t="s">
-        <v>541</v>
+      <c r="B303" s="5" t="s">
+        <v>543</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D303" s="4"/>
       <c r="E303" s="6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F303" s="4"/>
       <c r="G303" s="4"/>
@@ -9134,14 +9176,14 @@
     <row r="304">
       <c r="A304" s="4"/>
       <c r="B304" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D304" s="4"/>
       <c r="E304" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F304" s="4"/>
       <c r="G304" s="4"/>
@@ -9153,16 +9195,14 @@
     <row r="305">
       <c r="A305" s="4"/>
       <c r="B305" s="5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="D305" s="8" t="s">
-        <v>729</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="D305" s="4"/>
       <c r="E305" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F305" s="4"/>
       <c r="G305" s="4"/>
@@ -9172,16 +9212,18 @@
       <c r="K305" s="4"/>
     </row>
     <row r="306">
-      <c r="A306" s="4"/>
-      <c r="B306" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="C306" s="6" t="s">
+      <c r="A306" s="4" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B306" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="D306" s="4"/>
+      <c r="C306" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="D306" s="11"/>
       <c r="E306" s="6" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F306" s="4"/>
       <c r="G306" s="4"/>
@@ -9192,15 +9234,15 @@
     </row>
     <row r="307">
       <c r="A307" s="4"/>
-      <c r="B307" s="5" t="s">
-        <v>549</v>
+      <c r="B307" s="9" t="s">
+        <v>550</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D307" s="4"/>
       <c r="E307" s="6" t="s">
-        <v>551</v>
+        <v>8</v>
       </c>
       <c r="F307" s="4"/>
       <c r="G307" s="4"/>
@@ -9219,7 +9261,7 @@
       </c>
       <c r="D308" s="4"/>
       <c r="E308" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F308" s="4"/>
       <c r="G308" s="4"/>
@@ -9236,9 +9278,11 @@
       <c r="C309" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="D309" s="4"/>
+      <c r="D309" s="8" t="s">
+        <v>743</v>
+      </c>
       <c r="E309" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F309" s="4"/>
       <c r="G309" s="4"/>
@@ -9257,7 +9301,7 @@
       </c>
       <c r="D310" s="4"/>
       <c r="E310" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F310" s="4"/>
       <c r="G310" s="4"/>
@@ -9276,7 +9320,7 @@
       </c>
       <c r="D311" s="4"/>
       <c r="E311" s="6" t="s">
-        <v>12</v>
+        <v>560</v>
       </c>
       <c r="F311" s="4"/>
       <c r="G311" s="4"/>
@@ -9288,14 +9332,14 @@
     <row r="312">
       <c r="A312" s="4"/>
       <c r="B312" s="5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D312" s="4"/>
       <c r="E312" s="6" t="s">
-        <v>562</v>
+        <v>67</v>
       </c>
       <c r="F312" s="4"/>
       <c r="G312" s="4"/>
@@ -9314,7 +9358,7 @@
       </c>
       <c r="D313" s="4"/>
       <c r="E313" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F313" s="4"/>
       <c r="G313" s="4"/>
@@ -9333,7 +9377,7 @@
       </c>
       <c r="D314" s="4"/>
       <c r="E314" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F314" s="4"/>
       <c r="G314" s="4"/>
@@ -9348,11 +9392,11 @@
         <v>567</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D315" s="4"/>
       <c r="E315" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F315" s="4"/>
       <c r="G315" s="4"/>
@@ -9364,14 +9408,14 @@
     <row r="316">
       <c r="A316" s="4"/>
       <c r="B316" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="D316" s="4"/>
       <c r="E316" s="6" t="s">
-        <v>64</v>
+        <v>571</v>
       </c>
       <c r="F316" s="4"/>
       <c r="G316" s="4"/>
@@ -9383,14 +9427,14 @@
     <row r="317">
       <c r="A317" s="4"/>
       <c r="B317" s="5" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D317" s="4"/>
       <c r="E317" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F317" s="4"/>
       <c r="G317" s="4"/>
@@ -9402,14 +9446,14 @@
     <row r="318">
       <c r="A318" s="4"/>
       <c r="B318" s="5" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D318" s="4"/>
       <c r="E318" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F318" s="4"/>
       <c r="G318" s="4"/>
@@ -9421,14 +9465,14 @@
     <row r="319">
       <c r="A319" s="4"/>
       <c r="B319" s="5" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D319" s="4"/>
       <c r="E319" s="6" t="s">
-        <v>562</v>
+        <v>67</v>
       </c>
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
@@ -9440,14 +9484,14 @@
     <row r="320">
       <c r="A320" s="4"/>
       <c r="B320" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C320" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="C320" s="6" t="s">
-        <v>576</v>
       </c>
       <c r="D320" s="4"/>
       <c r="E320" s="6" t="s">
-        <v>577</v>
+        <v>67</v>
       </c>
       <c r="F320" s="4"/>
       <c r="G320" s="4"/>
@@ -9466,7 +9510,7 @@
       </c>
       <c r="D321" s="4"/>
       <c r="E321" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F321" s="4"/>
       <c r="G321" s="4"/>
@@ -9485,7 +9529,7 @@
       </c>
       <c r="D322" s="4"/>
       <c r="E322" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F322" s="4"/>
       <c r="G322" s="4"/>
@@ -9504,7 +9548,7 @@
       </c>
       <c r="D323" s="4"/>
       <c r="E323" s="6" t="s">
-        <v>12</v>
+        <v>571</v>
       </c>
       <c r="F323" s="4"/>
       <c r="G323" s="4"/>
@@ -9523,7 +9567,7 @@
       </c>
       <c r="D324" s="4"/>
       <c r="E324" s="6" t="s">
-        <v>42</v>
+        <v>586</v>
       </c>
       <c r="F324" s="4"/>
       <c r="G324" s="4"/>
@@ -9535,14 +9579,14 @@
     <row r="325">
       <c r="A325" s="4"/>
       <c r="B325" s="5" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D325" s="4"/>
       <c r="E325" s="6" t="s">
-        <v>234</v>
+        <v>67</v>
       </c>
       <c r="F325" s="4"/>
       <c r="G325" s="4"/>
@@ -9554,14 +9598,14 @@
     <row r="326">
       <c r="A326" s="4"/>
       <c r="B326" s="5" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D326" s="4"/>
       <c r="E326" s="6" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="F326" s="4"/>
       <c r="G326" s="4"/>
@@ -9573,18 +9617,16 @@
     <row r="327">
       <c r="A327" s="4"/>
       <c r="B327" s="5" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D327" s="4"/>
       <c r="E327" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F327" s="6" t="s">
-        <v>591</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F327" s="4"/>
       <c r="G327" s="4"/>
       <c r="H327" s="4"/>
       <c r="I327" s="4"/>
@@ -9593,21 +9635,17 @@
     </row>
     <row r="328">
       <c r="A328" s="4"/>
-      <c r="B328" s="9" t="s">
-        <v>592</v>
+      <c r="B328" s="5" t="s">
+        <v>593</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="D328" s="8" t="s">
-        <v>730</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="D328" s="4"/>
       <c r="E328" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F328" s="6" t="s">
-        <v>594</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F328" s="4"/>
       <c r="G328" s="4"/>
       <c r="H328" s="4"/>
       <c r="I328" s="4"/>
@@ -9620,11 +9658,11 @@
         <v>595</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D329" s="4"/>
       <c r="E329" s="6" t="s">
-        <v>64</v>
+        <v>238</v>
       </c>
       <c r="F329" s="4"/>
       <c r="G329" s="4"/>
@@ -9635,15 +9673,15 @@
     </row>
     <row r="330">
       <c r="A330" s="4"/>
-      <c r="B330" s="9" t="s">
+      <c r="B330" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="C330" s="6" t="s">
         <v>597</v>
-      </c>
-      <c r="C330" s="6" t="s">
-        <v>598</v>
       </c>
       <c r="D330" s="4"/>
       <c r="E330" s="6" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="F330" s="4"/>
       <c r="G330" s="4"/>
@@ -9654,19 +9692,19 @@
     </row>
     <row r="331">
       <c r="A331" s="4"/>
-      <c r="B331" s="9" t="s">
+      <c r="B331" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C331" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="C331" s="14" t="s">
+      <c r="D331" s="4"/>
+      <c r="E331" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F331" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="D331" s="8" t="s">
-        <v>731</v>
-      </c>
-      <c r="E331" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F331" s="4"/>
       <c r="G331" s="4"/>
       <c r="H331" s="4"/>
       <c r="I331" s="4"/>
@@ -9681,11 +9719,15 @@
       <c r="C332" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="D332" s="4"/>
+      <c r="D332" s="8" t="s">
+        <v>744</v>
+      </c>
       <c r="E332" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F332" s="4"/>
+      <c r="F332" s="6" t="s">
+        <v>603</v>
+      </c>
       <c r="G332" s="4"/>
       <c r="H332" s="4"/>
       <c r="I332" s="4"/>
@@ -9695,14 +9737,14 @@
     <row r="333">
       <c r="A333" s="4"/>
       <c r="B333" s="5" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D333" s="4"/>
       <c r="E333" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F333" s="4"/>
       <c r="G333" s="4"/>
@@ -9713,15 +9755,15 @@
     </row>
     <row r="334">
       <c r="A334" s="4"/>
-      <c r="B334" s="5" t="s">
-        <v>605</v>
+      <c r="B334" s="9" t="s">
+        <v>606</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D334" s="4"/>
       <c r="E334" s="6" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="F334" s="4"/>
       <c r="G334" s="4"/>
@@ -9732,15 +9774,17 @@
     </row>
     <row r="335">
       <c r="A335" s="4"/>
-      <c r="B335" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="C335" s="6" t="s">
+      <c r="B335" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="D335" s="4"/>
+      <c r="C335" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="D335" s="8" t="s">
+        <v>745</v>
+      </c>
       <c r="E335" s="6" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="F335" s="4"/>
       <c r="G335" s="4"/>
@@ -9751,15 +9795,15 @@
     </row>
     <row r="336">
       <c r="A336" s="4"/>
-      <c r="B336" s="5" t="s">
-        <v>609</v>
+      <c r="B336" s="9" t="s">
+        <v>610</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D336" s="4"/>
       <c r="E336" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F336" s="4"/>
       <c r="G336" s="4"/>
@@ -9771,14 +9815,14 @@
     <row r="337">
       <c r="A337" s="4"/>
       <c r="B337" s="5" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D337" s="4"/>
       <c r="E337" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F337" s="4"/>
       <c r="G337" s="4"/>
@@ -9790,14 +9834,14 @@
     <row r="338">
       <c r="A338" s="4"/>
       <c r="B338" s="5" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D338" s="4"/>
       <c r="E338" s="6" t="s">
-        <v>615</v>
+        <v>67</v>
       </c>
       <c r="F338" s="4"/>
       <c r="G338" s="4"/>
@@ -9831,11 +9875,11 @@
         <v>618</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D340" s="4"/>
       <c r="E340" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F340" s="4"/>
       <c r="G340" s="4"/>
@@ -9847,14 +9891,14 @@
     <row r="341">
       <c r="A341" s="4"/>
       <c r="B341" s="5" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="D341" s="4"/>
       <c r="E341" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F341" s="4"/>
       <c r="G341" s="4"/>
@@ -9866,14 +9910,14 @@
     <row r="342">
       <c r="A342" s="4"/>
       <c r="B342" s="5" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="D342" s="4"/>
       <c r="E342" s="6" t="s">
-        <v>64</v>
+        <v>624</v>
       </c>
       <c r="F342" s="4"/>
       <c r="G342" s="4"/>
@@ -9884,15 +9928,15 @@
     </row>
     <row r="343">
       <c r="A343" s="4"/>
-      <c r="B343" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="C343" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="D343" s="4"/>
+      <c r="B343" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="C343" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="D343" s="11"/>
       <c r="E343" s="6" t="s">
-        <v>12</v>
+        <v>627</v>
       </c>
       <c r="F343" s="4"/>
       <c r="G343" s="4"/>
@@ -9904,14 +9948,14 @@
     <row r="344">
       <c r="A344" s="4"/>
       <c r="B344" s="5" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="D344" s="4"/>
       <c r="E344" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F344" s="4"/>
       <c r="G344" s="4"/>
@@ -9923,14 +9967,14 @@
     <row r="345">
       <c r="A345" s="4"/>
       <c r="B345" s="5" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="D345" s="4"/>
       <c r="E345" s="6" t="s">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="F345" s="4"/>
       <c r="G345" s="4"/>
@@ -9942,14 +9986,14 @@
     <row r="346">
       <c r="A346" s="4"/>
       <c r="B346" s="5" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="D346" s="4"/>
       <c r="E346" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F346" s="4"/>
       <c r="G346" s="4"/>
@@ -9961,14 +10005,14 @@
     <row r="347">
       <c r="A347" s="4"/>
       <c r="B347" s="5" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="D347" s="4"/>
-      <c r="E347" s="11" t="s">
-        <v>12</v>
+      <c r="E347" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="F347" s="4"/>
       <c r="G347" s="4"/>
@@ -9980,10 +10024,10 @@
     <row r="348">
       <c r="A348" s="4"/>
       <c r="B348" s="5" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D348" s="4"/>
       <c r="E348" s="6" t="s">
@@ -9999,14 +10043,14 @@
     <row r="349">
       <c r="A349" s="4"/>
       <c r="B349" s="5" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="C349" s="6" t="s">
         <v>629</v>
       </c>
       <c r="D349" s="4"/>
       <c r="E349" s="6" t="s">
-        <v>562</v>
+        <v>67</v>
       </c>
       <c r="F349" s="4"/>
       <c r="G349" s="4"/>
@@ -10018,18 +10062,16 @@
     <row r="350">
       <c r="A350" s="4"/>
       <c r="B350" s="5" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D350" s="4"/>
       <c r="E350" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F350" s="6" t="s">
-        <v>632</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="F350" s="4"/>
       <c r="G350" s="4"/>
       <c r="H350" s="4"/>
       <c r="I350" s="4"/>
@@ -10039,14 +10081,14 @@
     <row r="351">
       <c r="A351" s="4"/>
       <c r="B351" s="5" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D351" s="4"/>
       <c r="E351" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F351" s="4"/>
       <c r="G351" s="4"/>
@@ -10058,13 +10100,13 @@
     <row r="352">
       <c r="A352" s="4"/>
       <c r="B352" s="5" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D352" s="4"/>
-      <c r="E352" s="6" t="s">
+      <c r="E352" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F352" s="4"/>
@@ -10077,10 +10119,10 @@
     <row r="353">
       <c r="A353" s="4"/>
       <c r="B353" s="5" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="D353" s="4"/>
       <c r="E353" s="6" t="s">
@@ -10096,14 +10138,14 @@
     <row r="354">
       <c r="A354" s="4"/>
       <c r="B354" s="5" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C354" s="6" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="D354" s="4"/>
       <c r="E354" s="6" t="s">
-        <v>12</v>
+        <v>571</v>
       </c>
       <c r="F354" s="4"/>
       <c r="G354" s="4"/>
@@ -10115,16 +10157,18 @@
     <row r="355">
       <c r="A355" s="4"/>
       <c r="B355" s="5" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="D355" s="4"/>
       <c r="E355" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F355" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="F355" s="6" t="s">
+        <v>644</v>
+      </c>
       <c r="G355" s="4"/>
       <c r="H355" s="4"/>
       <c r="I355" s="4"/>
@@ -10134,14 +10178,14 @@
     <row r="356">
       <c r="A356" s="4"/>
       <c r="B356" s="5" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="D356" s="4"/>
       <c r="E356" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F356" s="4"/>
       <c r="G356" s="4"/>
@@ -10153,10 +10197,10 @@
     <row r="357">
       <c r="A357" s="4"/>
       <c r="B357" s="5" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="D357" s="4"/>
       <c r="E357" s="6" t="s">
@@ -10171,15 +10215,15 @@
     </row>
     <row r="358">
       <c r="A358" s="4"/>
-      <c r="B358" s="2" t="s">
-        <v>640</v>
+      <c r="B358" s="5" t="s">
+        <v>647</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="D358" s="4"/>
       <c r="E358" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F358" s="4"/>
       <c r="G358" s="4"/>
@@ -10191,14 +10235,14 @@
     <row r="359">
       <c r="A359" s="4"/>
       <c r="B359" s="5" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="D359" s="4"/>
       <c r="E359" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F359" s="4"/>
       <c r="G359" s="4"/>
@@ -10210,14 +10254,14 @@
     <row r="360">
       <c r="A360" s="4"/>
       <c r="B360" s="5" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="D360" s="4"/>
       <c r="E360" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F360" s="4"/>
       <c r="G360" s="4"/>
@@ -10229,14 +10273,14 @@
     <row r="361">
       <c r="A361" s="4"/>
       <c r="B361" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="C361" s="6" t="s">
         <v>643</v>
-      </c>
-      <c r="C361" s="6" t="s">
-        <v>631</v>
       </c>
       <c r="D361" s="4"/>
       <c r="E361" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F361" s="4"/>
       <c r="G361" s="4"/>
@@ -10248,10 +10292,10 @@
     <row r="362">
       <c r="A362" s="4"/>
       <c r="B362" s="5" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="D362" s="4"/>
       <c r="E362" s="6" t="s">
@@ -10266,15 +10310,15 @@
     </row>
     <row r="363">
       <c r="A363" s="4"/>
-      <c r="B363" s="5" t="s">
-        <v>645</v>
+      <c r="B363" s="2" t="s">
+        <v>652</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="D363" s="4"/>
       <c r="E363" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F363" s="4"/>
       <c r="G363" s="4"/>
@@ -10286,14 +10330,14 @@
     <row r="364">
       <c r="A364" s="4"/>
       <c r="B364" s="5" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="D364" s="4"/>
       <c r="E364" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F364" s="4"/>
       <c r="G364" s="4"/>
@@ -10305,14 +10349,14 @@
     <row r="365">
       <c r="A365" s="4"/>
       <c r="B365" s="5" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="D365" s="4"/>
       <c r="E365" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F365" s="4"/>
       <c r="G365" s="4"/>
@@ -10324,14 +10368,14 @@
     <row r="366">
       <c r="A366" s="4"/>
       <c r="B366" s="5" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="D366" s="4"/>
       <c r="E366" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F366" s="4"/>
       <c r="G366" s="4"/>
@@ -10343,14 +10387,14 @@
     <row r="367">
       <c r="A367" s="4"/>
       <c r="B367" s="5" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="D367" s="4"/>
       <c r="E367" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F367" s="4"/>
       <c r="G367" s="4"/>
@@ -10362,14 +10406,14 @@
     <row r="368">
       <c r="A368" s="4"/>
       <c r="B368" s="5" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="D368" s="4"/>
       <c r="E368" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F368" s="4"/>
       <c r="G368" s="4"/>
@@ -10381,14 +10425,14 @@
     <row r="369">
       <c r="A369" s="4"/>
       <c r="B369" s="5" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="D369" s="4"/>
       <c r="E369" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F369" s="4"/>
       <c r="G369" s="4"/>
@@ -10400,14 +10444,14 @@
     <row r="370">
       <c r="A370" s="4"/>
       <c r="B370" s="5" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="D370" s="4"/>
       <c r="E370" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F370" s="4"/>
       <c r="G370" s="4"/>
@@ -10419,14 +10463,14 @@
     <row r="371">
       <c r="A371" s="4"/>
       <c r="B371" s="5" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="D371" s="4"/>
       <c r="E371" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F371" s="4"/>
       <c r="G371" s="4"/>
@@ -10438,14 +10482,14 @@
     <row r="372">
       <c r="A372" s="4"/>
       <c r="B372" s="5" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="D372" s="4"/>
       <c r="E372" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F372" s="4"/>
       <c r="G372" s="4"/>
@@ -10457,14 +10501,14 @@
     <row r="373">
       <c r="A373" s="4"/>
       <c r="B373" s="5" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="D373" s="4"/>
       <c r="E373" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F373" s="4"/>
       <c r="G373" s="4"/>
@@ -10476,16 +10520,14 @@
     <row r="374">
       <c r="A374" s="4"/>
       <c r="B374" s="5" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="D374" s="8" t="s">
-        <v>732</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="D374" s="4"/>
       <c r="E374" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F374" s="4"/>
       <c r="G374" s="4"/>
@@ -10497,14 +10539,14 @@
     <row r="375">
       <c r="A375" s="4"/>
       <c r="B375" s="5" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="D375" s="4"/>
       <c r="E375" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F375" s="4"/>
       <c r="G375" s="4"/>
@@ -10516,14 +10558,14 @@
     <row r="376">
       <c r="A376" s="4"/>
       <c r="B376" s="5" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="D376" s="4"/>
       <c r="E376" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F376" s="4"/>
       <c r="G376" s="4"/>
@@ -10535,14 +10577,14 @@
     <row r="377">
       <c r="A377" s="4"/>
       <c r="B377" s="5" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="D377" s="4"/>
       <c r="E377" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F377" s="4"/>
       <c r="G377" s="4"/>
@@ -10553,15 +10595,15 @@
     </row>
     <row r="378">
       <c r="A378" s="4"/>
-      <c r="B378" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="C378" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="D378" s="4"/>
+      <c r="B378" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="C378" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D378" s="11"/>
       <c r="E378" s="6" t="s">
-        <v>12</v>
+        <v>668</v>
       </c>
       <c r="F378" s="4"/>
       <c r="G378" s="4"/>
@@ -10573,10 +10615,10 @@
     <row r="379">
       <c r="A379" s="4"/>
       <c r="B379" s="5" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="D379" s="4"/>
       <c r="E379" s="6" t="s">
@@ -10592,12 +10634,14 @@
     <row r="380">
       <c r="A380" s="4"/>
       <c r="B380" s="5" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="D380" s="4"/>
+        <v>672</v>
+      </c>
+      <c r="D380" s="8" t="s">
+        <v>746</v>
+      </c>
       <c r="E380" s="6" t="s">
         <v>12</v>
       </c>
@@ -10611,14 +10655,14 @@
     <row r="381">
       <c r="A381" s="4"/>
       <c r="B381" s="5" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="D381" s="4"/>
       <c r="E381" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F381" s="4"/>
       <c r="G381" s="4"/>
@@ -10630,14 +10674,14 @@
     <row r="382">
       <c r="A382" s="4"/>
       <c r="B382" s="5" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="D382" s="4"/>
       <c r="E382" s="6" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="F382" s="4"/>
       <c r="G382" s="4"/>
@@ -10649,20 +10693,16 @@
     <row r="383">
       <c r="A383" s="4"/>
       <c r="B383" s="5" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="D383" s="8" t="s">
-        <v>733</v>
-      </c>
-      <c r="E383" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F383" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="D383" s="4"/>
+      <c r="E383" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F383" s="4"/>
       <c r="G383" s="4"/>
       <c r="H383" s="4"/>
       <c r="I383" s="4"/>
@@ -10672,14 +10712,14 @@
     <row r="384">
       <c r="A384" s="4"/>
       <c r="B384" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C384" s="6" t="s">
         <v>672</v>
-      </c>
-      <c r="C384" s="6" t="s">
-        <v>673</v>
       </c>
       <c r="D384" s="4"/>
       <c r="E384" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F384" s="4"/>
       <c r="G384" s="4"/>
@@ -10690,10 +10730,16 @@
     </row>
     <row r="385">
       <c r="A385" s="4"/>
-      <c r="B385" s="9"/>
-      <c r="C385" s="14"/>
-      <c r="D385" s="15"/>
-      <c r="E385" s="6"/>
+      <c r="B385" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="C385" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="D385" s="4"/>
+      <c r="E385" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F385" s="4"/>
       <c r="G385" s="4"/>
       <c r="H385" s="4"/>
@@ -10703,10 +10749,16 @@
     </row>
     <row r="386">
       <c r="A386" s="4"/>
-      <c r="B386" s="9"/>
-      <c r="C386" s="14"/>
-      <c r="D386" s="15"/>
-      <c r="E386" s="6"/>
+      <c r="B386" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="C386" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="D386" s="4"/>
+      <c r="E386" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F386" s="4"/>
       <c r="G386" s="4"/>
       <c r="H386" s="4"/>
@@ -10716,10 +10768,16 @@
     </row>
     <row r="387">
       <c r="A387" s="4"/>
-      <c r="B387" s="9"/>
-      <c r="C387" s="14"/>
-      <c r="D387" s="15"/>
-      <c r="E387" s="6"/>
+      <c r="B387" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="C387" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="D387" s="4"/>
+      <c r="E387" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="F387" s="4"/>
       <c r="G387" s="4"/>
       <c r="H387" s="4"/>
@@ -10729,10 +10787,16 @@
     </row>
     <row r="388">
       <c r="A388" s="4"/>
-      <c r="B388" s="9"/>
-      <c r="C388" s="14"/>
-      <c r="D388" s="15"/>
-      <c r="E388" s="6"/>
+      <c r="B388" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="C388" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="D388" s="4"/>
+      <c r="E388" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="F388" s="4"/>
       <c r="G388" s="4"/>
       <c r="H388" s="4"/>
@@ -10742,81 +10806,175 @@
     </row>
     <row r="389">
       <c r="A389" s="4"/>
-      <c r="B389" s="9"/>
-      <c r="C389" s="14"/>
-      <c r="D389" s="15"/>
-      <c r="E389" s="6"/>
-      <c r="F389" s="4"/>
+      <c r="B389" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="C389" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="D389" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="E389" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F389" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G389" s="4"/>
       <c r="H389" s="4"/>
       <c r="I389" s="4"/>
       <c r="J389" s="4"/>
       <c r="K389" s="4"/>
     </row>
+    <row r="390">
+      <c r="A390" s="4"/>
+      <c r="B390" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="C390" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="D390" s="4"/>
+      <c r="E390" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F390" s="4"/>
+      <c r="G390" s="4"/>
+      <c r="H390" s="4"/>
+      <c r="I390" s="4"/>
+      <c r="J390" s="4"/>
+      <c r="K390" s="4"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="4"/>
+      <c r="B391" s="9"/>
+      <c r="C391" s="15"/>
+      <c r="D391" s="11"/>
+      <c r="E391" s="6"/>
+      <c r="F391" s="4"/>
+      <c r="G391" s="4"/>
+      <c r="H391" s="4"/>
+      <c r="I391" s="4"/>
+      <c r="J391" s="4"/>
+      <c r="K391" s="4"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="4"/>
+      <c r="B392" s="9"/>
+      <c r="C392" s="15"/>
+      <c r="D392" s="11"/>
+      <c r="E392" s="6"/>
+      <c r="F392" s="4"/>
+      <c r="G392" s="4"/>
+      <c r="H392" s="4"/>
+      <c r="I392" s="4"/>
+      <c r="J392" s="4"/>
+      <c r="K392" s="4"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="4"/>
+      <c r="B393" s="9"/>
+      <c r="C393" s="15"/>
+      <c r="D393" s="11"/>
+      <c r="E393" s="6"/>
+      <c r="F393" s="4"/>
+      <c r="G393" s="4"/>
+      <c r="H393" s="4"/>
+      <c r="I393" s="4"/>
+      <c r="J393" s="4"/>
+      <c r="K393" s="4"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="4"/>
+      <c r="B394" s="9"/>
+      <c r="C394" s="15"/>
+      <c r="D394" s="11"/>
+      <c r="E394" s="6"/>
+      <c r="F394" s="4"/>
+      <c r="G394" s="4"/>
+      <c r="H394" s="4"/>
+      <c r="I394" s="4"/>
+      <c r="J394" s="4"/>
+      <c r="K394" s="4"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="4"/>
+      <c r="B395" s="9"/>
+      <c r="C395" s="15"/>
+      <c r="D395" s="11"/>
+      <c r="E395" s="6"/>
+      <c r="F395" s="4"/>
+      <c r="G395" s="4"/>
+      <c r="H395" s="4"/>
+      <c r="I395" s="4"/>
+      <c r="J395" s="4"/>
+      <c r="K395" s="4"/>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <autoFilter ref="A1:F384"/>
+  <autoFilter ref="A1:F390"/>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="D16" r:id="rId2"/>
     <hyperlink ref="D18" r:id="rId3"/>
-    <hyperlink ref="D24" r:id="rId4"/>
-    <hyperlink ref="D25" r:id="rId5"/>
-    <hyperlink ref="D34" r:id="rId6"/>
-    <hyperlink ref="D41" r:id="rId7"/>
-    <hyperlink ref="D42" r:id="rId8"/>
-    <hyperlink ref="D46" r:id="rId9"/>
-    <hyperlink ref="D50" r:id="rId10"/>
-    <hyperlink ref="D58" r:id="rId11"/>
-    <hyperlink ref="D60" r:id="rId12"/>
-    <hyperlink ref="D74" r:id="rId13"/>
-    <hyperlink ref="D75" r:id="rId14"/>
-    <hyperlink ref="D77" r:id="rId15"/>
-    <hyperlink ref="D78" r:id="rId16"/>
-    <hyperlink ref="D81" r:id="rId17"/>
-    <hyperlink ref="D83" r:id="rId18"/>
-    <hyperlink ref="D92" r:id="rId19"/>
-    <hyperlink ref="D93" r:id="rId20"/>
-    <hyperlink ref="D104" r:id="rId21"/>
-    <hyperlink ref="D114" r:id="rId22"/>
-    <hyperlink ref="D127" r:id="rId23"/>
-    <hyperlink ref="D133" r:id="rId24"/>
-    <hyperlink ref="D134" r:id="rId25"/>
-    <hyperlink ref="D135" r:id="rId26"/>
-    <hyperlink ref="D139" r:id="rId27"/>
-    <hyperlink ref="D171" r:id="rId28"/>
-    <hyperlink ref="D173" r:id="rId29"/>
-    <hyperlink ref="D174" r:id="rId30"/>
-    <hyperlink ref="D177" r:id="rId31"/>
-    <hyperlink ref="D181" r:id="rId32"/>
-    <hyperlink ref="D182" r:id="rId33"/>
-    <hyperlink ref="D183" r:id="rId34"/>
-    <hyperlink ref="D193" r:id="rId35"/>
-    <hyperlink ref="D197" r:id="rId36"/>
-    <hyperlink ref="D199" r:id="rId37"/>
-    <hyperlink ref="D203" r:id="rId38"/>
-    <hyperlink ref="D204" r:id="rId39"/>
-    <hyperlink ref="D207" r:id="rId40"/>
-    <hyperlink ref="D210" r:id="rId41"/>
-    <hyperlink ref="D212" r:id="rId42"/>
-    <hyperlink ref="D216" r:id="rId43"/>
-    <hyperlink ref="D220" r:id="rId44"/>
-    <hyperlink ref="D222" r:id="rId45"/>
-    <hyperlink ref="D223" r:id="rId46"/>
-    <hyperlink ref="D227" r:id="rId47"/>
-    <hyperlink ref="D228" r:id="rId48"/>
-    <hyperlink ref="D232" r:id="rId49"/>
-    <hyperlink ref="D241" r:id="rId50"/>
-    <hyperlink ref="D250" r:id="rId51"/>
-    <hyperlink ref="D254" r:id="rId52"/>
-    <hyperlink ref="D263" r:id="rId53"/>
-    <hyperlink ref="D269" r:id="rId54"/>
-    <hyperlink ref="D291" r:id="rId55"/>
-    <hyperlink ref="D305" r:id="rId56"/>
-    <hyperlink ref="D328" r:id="rId57"/>
-    <hyperlink ref="D331" r:id="rId58"/>
-    <hyperlink ref="D374" r:id="rId59"/>
-    <hyperlink ref="D383" r:id="rId60"/>
+    <hyperlink ref="D25" r:id="rId4"/>
+    <hyperlink ref="D26" r:id="rId5"/>
+    <hyperlink ref="D35" r:id="rId6"/>
+    <hyperlink ref="D43" r:id="rId7"/>
+    <hyperlink ref="D44" r:id="rId8"/>
+    <hyperlink ref="D48" r:id="rId9"/>
+    <hyperlink ref="D52" r:id="rId10"/>
+    <hyperlink ref="D60" r:id="rId11"/>
+    <hyperlink ref="D62" r:id="rId12"/>
+    <hyperlink ref="D76" r:id="rId13"/>
+    <hyperlink ref="D77" r:id="rId14"/>
+    <hyperlink ref="D79" r:id="rId15"/>
+    <hyperlink ref="D80" r:id="rId16"/>
+    <hyperlink ref="D83" r:id="rId17"/>
+    <hyperlink ref="D85" r:id="rId18"/>
+    <hyperlink ref="D94" r:id="rId19"/>
+    <hyperlink ref="D95" r:id="rId20"/>
+    <hyperlink ref="D106" r:id="rId21"/>
+    <hyperlink ref="D116" r:id="rId22"/>
+    <hyperlink ref="D129" r:id="rId23"/>
+    <hyperlink ref="D135" r:id="rId24"/>
+    <hyperlink ref="D136" r:id="rId25"/>
+    <hyperlink ref="D137" r:id="rId26"/>
+    <hyperlink ref="D142" r:id="rId27"/>
+    <hyperlink ref="D174" r:id="rId28"/>
+    <hyperlink ref="D176" r:id="rId29"/>
+    <hyperlink ref="D177" r:id="rId30"/>
+    <hyperlink ref="D180" r:id="rId31"/>
+    <hyperlink ref="D184" r:id="rId32"/>
+    <hyperlink ref="D185" r:id="rId33"/>
+    <hyperlink ref="D186" r:id="rId34"/>
+    <hyperlink ref="D196" r:id="rId35"/>
+    <hyperlink ref="D200" r:id="rId36"/>
+    <hyperlink ref="D202" r:id="rId37"/>
+    <hyperlink ref="D206" r:id="rId38"/>
+    <hyperlink ref="D207" r:id="rId39"/>
+    <hyperlink ref="D210" r:id="rId40"/>
+    <hyperlink ref="D213" r:id="rId41"/>
+    <hyperlink ref="D215" r:id="rId42"/>
+    <hyperlink ref="D219" r:id="rId43"/>
+    <hyperlink ref="D223" r:id="rId44"/>
+    <hyperlink ref="D225" r:id="rId45"/>
+    <hyperlink ref="D226" r:id="rId46"/>
+    <hyperlink ref="D230" r:id="rId47"/>
+    <hyperlink ref="D231" r:id="rId48"/>
+    <hyperlink ref="D235" r:id="rId49"/>
+    <hyperlink ref="D244" r:id="rId50"/>
+    <hyperlink ref="D253" r:id="rId51"/>
+    <hyperlink ref="D257" r:id="rId52"/>
+    <hyperlink ref="D266" r:id="rId53"/>
+    <hyperlink ref="D272" r:id="rId54"/>
+    <hyperlink ref="D294" r:id="rId55"/>
+    <hyperlink ref="D309" r:id="rId56"/>
+    <hyperlink ref="D332" r:id="rId57"/>
+    <hyperlink ref="D335" r:id="rId58"/>
+    <hyperlink ref="D380" r:id="rId59"/>
+    <hyperlink ref="D389" r:id="rId60"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/幽灵歌单整理.xlsx
+++ b/幽灵歌单整理.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="748" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="751" uniqueCount="751">
   <si>
     <t>价格</t>
   </si>
@@ -2015,12 +2015,6 @@
     <t>最长的电影</t>
   </si>
   <si>
-    <t>烟花易冷</t>
-  </si>
-  <si>
-    <t>国语,国风</t>
-  </si>
-  <si>
     <t>等你下课</t>
   </si>
   <si>
@@ -2076,6 +2070,18 @@
   </si>
   <si>
     <t>ヰ世界情緒(异世界情绪)</t>
+  </si>
+  <si>
+    <t>推し変なんて許さない！(要是改推了绝不原谅你！)</t>
+  </si>
+  <si>
+    <t>可不,HoneyWorks</t>
+  </si>
+  <si>
+    <t>日语,学习中</t>
+  </si>
+  <si>
+    <t>1680是学歌的价格</t>
   </si>
   <si>
     <r>
@@ -2086,6 +2092,18 @@
         <u val="single"/>
       </rPr>
       <t xml:space="preserve">https://www.bilibili.com/video/BV1MK4y1E7W1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="12.0"/>
+        <color rgb="FF175CEB"/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve">https://www.bilibili.com/video/BV1GW4y167nR</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2951,7 +2969,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office Theme">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3222,7 +3240,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="10.0" hidden="false" customWidth="true"/>
-    <col min="2" max="2" width="47.0" hidden="false" customWidth="true"/>
+    <col min="2" max="2" width="61.0" hidden="false" customWidth="true"/>
     <col min="3" max="3" width="58.0" hidden="false" customWidth="true"/>
     <col min="4" max="4" width="49.0" hidden="false" customWidth="true"/>
     <col min="5" max="5" width="35.0" hidden="false" customWidth="true"/>
@@ -3287,7 +3305,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
@@ -3385,7 +3403,9 @@
       <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="8" t="s">
+        <v>691</v>
+      </c>
       <c r="E8" s="6" t="s">
         <v>8</v>
       </c>
@@ -3538,7 +3558,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>12</v>
@@ -3578,7 +3598,7 @@
         <v>33</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>8</v>
@@ -3715,7 +3735,7 @@
         <v>52</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>8</v>
@@ -3738,7 +3758,7 @@
         <v>55</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>8</v>
@@ -3913,7 +3933,7 @@
         <v>74</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>12</v>
@@ -4069,7 +4089,7 @@
         <v>88</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>8</v>
@@ -4092,7 +4112,7 @@
         <v>91</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>8</v>
@@ -4172,7 +4192,7 @@
         <v>100</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>8</v>
@@ -4250,7 +4270,7 @@
         <v>108</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>109</v>
@@ -4404,7 +4424,7 @@
         <v>122</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>12</v>
@@ -4444,7 +4464,7 @@
         <v>126</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>48</v>
@@ -4714,7 +4734,7 @@
         <v>148</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>18</v>
@@ -4735,7 +4755,7 @@
         <v>151</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>45</v>
@@ -4775,7 +4795,7 @@
         <v>153</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>8</v>
@@ -4796,7 +4816,7 @@
         <v>153</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>39</v>
@@ -4855,7 +4875,7 @@
         <v>160</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>8</v>
@@ -4897,7 +4917,7 @@
         <v>165</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>12</v>
@@ -5070,7 +5090,7 @@
         <v>180</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>12</v>
@@ -5091,7 +5111,7 @@
         <v>182</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>12</v>
@@ -5304,7 +5324,7 @@
         <v>197</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>12</v>
@@ -5498,7 +5518,7 @@
         <v>220</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>8</v>
@@ -5747,7 +5767,7 @@
         <v>246</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>247</v>
@@ -5863,7 +5883,7 @@
         <v>260</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="E135" s="6" t="s">
         <v>12</v>
@@ -5884,7 +5904,7 @@
         <v>262</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>12</v>
@@ -5905,7 +5925,7 @@
         <v>264</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>39</v>
@@ -6002,7 +6022,7 @@
         <v>274</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>275</v>
@@ -6618,7 +6638,7 @@
         <v>327</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="E174" s="6" t="s">
         <v>8</v>
@@ -6662,7 +6682,7 @@
         <v>330</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>45</v>
@@ -6683,7 +6703,7 @@
         <v>330</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="E177" s="6" t="s">
         <v>12</v>
@@ -6742,7 +6762,7 @@
         <v>330</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>12</v>
@@ -6824,7 +6844,7 @@
         <v>343</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="E184" s="6" t="s">
         <v>12</v>
@@ -6845,7 +6865,7 @@
         <v>345</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>12</v>
@@ -6866,7 +6886,7 @@
         <v>347</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>39</v>
@@ -7062,7 +7082,7 @@
         <v>369</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="E196" s="6" t="s">
         <v>45</v>
@@ -7140,7 +7160,7 @@
         <v>369</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="E200" s="6" t="s">
         <v>12</v>
@@ -7180,7 +7200,7 @@
         <v>369</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="E202" s="6" t="s">
         <v>12</v>
@@ -7258,7 +7278,7 @@
         <v>369</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="E206" s="6" t="s">
         <v>12</v>
@@ -7281,7 +7301,7 @@
         <v>369</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>39</v>
@@ -7340,7 +7360,7 @@
         <v>369</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="E210" s="6" t="s">
         <v>12</v>
@@ -7401,7 +7421,7 @@
         <v>388</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="E213" s="6" t="s">
         <v>12</v>
@@ -7441,7 +7461,7 @@
         <v>391</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="E215" s="6" t="s">
         <v>12</v>
@@ -7519,7 +7539,7 @@
         <v>397</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="E219" s="6" t="s">
         <v>12</v>
@@ -7597,7 +7617,7 @@
         <v>403</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="E223" s="6" t="s">
         <v>12</v>
@@ -7637,7 +7657,7 @@
         <v>408</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="E225" s="6" t="s">
         <v>12</v>
@@ -7658,7 +7678,7 @@
         <v>410</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="E226" s="6" t="s">
         <v>12</v>
@@ -7738,7 +7758,7 @@
         <v>419</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="E230" s="6" t="s">
         <v>48</v>
@@ -7759,7 +7779,7 @@
         <v>421</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="E231" s="6" t="s">
         <v>8</v>
@@ -7839,7 +7859,7 @@
         <v>428</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="E235" s="6" t="s">
         <v>45</v>
@@ -8012,7 +8032,7 @@
         <v>309</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="E244" s="6" t="s">
         <v>442</v>
@@ -8193,7 +8213,7 @@
         <v>462</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="E253" s="6" t="s">
         <v>8</v>
@@ -8275,7 +8295,7 @@
         <v>472</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="E257" s="6" t="s">
         <v>45</v>
@@ -8448,7 +8468,7 @@
         <v>483</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="E266" s="6" t="s">
         <v>12</v>
@@ -8564,7 +8584,7 @@
         <v>494</v>
       </c>
       <c r="D272" s="8" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="E272" s="4" t="s">
         <v>275</v>
@@ -8990,7 +9010,7 @@
         <v>532</v>
       </c>
       <c r="D294" s="8" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="E294" s="6" t="s">
         <v>12</v>
@@ -9279,7 +9299,7 @@
         <v>555</v>
       </c>
       <c r="D309" s="8" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="E309" s="6" t="s">
         <v>12</v>
@@ -9720,7 +9740,7 @@
         <v>602</v>
       </c>
       <c r="D332" s="8" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="E332" s="6" t="s">
         <v>8</v>
@@ -9781,7 +9801,7 @@
         <v>609</v>
       </c>
       <c r="D335" s="8" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="E335" s="6" t="s">
         <v>109</v>
@@ -10595,15 +10615,15 @@
     </row>
     <row r="378">
       <c r="A378" s="4"/>
-      <c r="B378" s="9" t="s">
+      <c r="B378" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="C378" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="D378" s="11"/>
+      <c r="C378" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="D378" s="4"/>
       <c r="E378" s="6" t="s">
-        <v>668</v>
+        <v>12</v>
       </c>
       <c r="F378" s="4"/>
       <c r="G378" s="4"/>
@@ -10620,7 +10640,9 @@
       <c r="C379" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="D379" s="4"/>
+      <c r="D379" s="8" t="s">
+        <v>749</v>
+      </c>
       <c r="E379" s="6" t="s">
         <v>12</v>
       </c>
@@ -10637,13 +10659,11 @@
         <v>671</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="D380" s="8" t="s">
-        <v>746</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="D380" s="4"/>
       <c r="E380" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F380" s="4"/>
       <c r="G380" s="4"/>
@@ -10655,10 +10675,10 @@
     <row r="381">
       <c r="A381" s="4"/>
       <c r="B381" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D381" s="4"/>
       <c r="E381" s="6" t="s">
@@ -10674,14 +10694,14 @@
     <row r="382">
       <c r="A382" s="4"/>
       <c r="B382" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D382" s="4"/>
       <c r="E382" s="6" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F382" s="4"/>
       <c r="G382" s="4"/>
@@ -10693,10 +10713,10 @@
     <row r="383">
       <c r="A383" s="4"/>
       <c r="B383" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D383" s="4"/>
       <c r="E383" s="6" t="s">
@@ -10712,10 +10732,10 @@
     <row r="384">
       <c r="A384" s="4"/>
       <c r="B384" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D384" s="4"/>
       <c r="E384" s="6" t="s">
@@ -10731,10 +10751,10 @@
     <row r="385">
       <c r="A385" s="4"/>
       <c r="B385" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C385" s="6" t="s">
         <v>677</v>
-      </c>
-      <c r="C385" s="6" t="s">
-        <v>672</v>
       </c>
       <c r="D385" s="4"/>
       <c r="E385" s="6" t="s">
@@ -10757,7 +10777,7 @@
       </c>
       <c r="D386" s="4"/>
       <c r="E386" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F386" s="4"/>
       <c r="G386" s="4"/>
@@ -10776,7 +10796,7 @@
       </c>
       <c r="D387" s="4"/>
       <c r="E387" s="6" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F387" s="4"/>
       <c r="G387" s="4"/>
@@ -10793,11 +10813,15 @@
       <c r="C388" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D388" s="4"/>
-      <c r="E388" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F388" s="4"/>
+      <c r="D388" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="E388" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F388" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G388" s="4"/>
       <c r="H388" s="4"/>
       <c r="I388" s="4"/>
@@ -10812,15 +10836,11 @@
       <c r="C389" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="D389" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="E389" s="4" t="s">
+      <c r="D389" s="4"/>
+      <c r="E389" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F389" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="F389" s="4"/>
       <c r="G389" s="4"/>
       <c r="H389" s="4"/>
       <c r="I389" s="4"/>
@@ -10828,18 +10848,22 @@
       <c r="K389" s="4"/>
     </row>
     <row r="390">
-      <c r="A390" s="4"/>
-      <c r="B390" s="5" t="s">
+      <c r="A390" s="4" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="B390" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="C390" s="6" t="s">
+      <c r="C390" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="D390" s="4"/>
+      <c r="D390" s="11"/>
       <c r="E390" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F390" s="4"/>
+        <v>688</v>
+      </c>
+      <c r="F390" s="6" t="s">
+        <v>689</v>
+      </c>
       <c r="G390" s="4"/>
       <c r="H390" s="4"/>
       <c r="I390" s="4"/>
@@ -10898,83 +10922,71 @@
       <c r="J394" s="4"/>
       <c r="K394" s="4"/>
     </row>
-    <row r="395">
-      <c r="A395" s="4"/>
-      <c r="B395" s="9"/>
-      <c r="C395" s="15"/>
-      <c r="D395" s="11"/>
-      <c r="E395" s="6"/>
-      <c r="F395" s="4"/>
-      <c r="G395" s="4"/>
-      <c r="H395" s="4"/>
-      <c r="I395" s="4"/>
-      <c r="J395" s="4"/>
-      <c r="K395" s="4"/>
-    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
   <autoFilter ref="A1:F390"/>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D16" r:id="rId2"/>
-    <hyperlink ref="D18" r:id="rId3"/>
-    <hyperlink ref="D25" r:id="rId4"/>
-    <hyperlink ref="D26" r:id="rId5"/>
-    <hyperlink ref="D35" r:id="rId6"/>
-    <hyperlink ref="D43" r:id="rId7"/>
-    <hyperlink ref="D44" r:id="rId8"/>
-    <hyperlink ref="D48" r:id="rId9"/>
-    <hyperlink ref="D52" r:id="rId10"/>
-    <hyperlink ref="D60" r:id="rId11"/>
-    <hyperlink ref="D62" r:id="rId12"/>
-    <hyperlink ref="D76" r:id="rId13"/>
-    <hyperlink ref="D77" r:id="rId14"/>
-    <hyperlink ref="D79" r:id="rId15"/>
-    <hyperlink ref="D80" r:id="rId16"/>
-    <hyperlink ref="D83" r:id="rId17"/>
-    <hyperlink ref="D85" r:id="rId18"/>
-    <hyperlink ref="D94" r:id="rId19"/>
-    <hyperlink ref="D95" r:id="rId20"/>
-    <hyperlink ref="D106" r:id="rId21"/>
-    <hyperlink ref="D116" r:id="rId22"/>
-    <hyperlink ref="D129" r:id="rId23"/>
-    <hyperlink ref="D135" r:id="rId24"/>
-    <hyperlink ref="D136" r:id="rId25"/>
-    <hyperlink ref="D137" r:id="rId26"/>
-    <hyperlink ref="D142" r:id="rId27"/>
-    <hyperlink ref="D174" r:id="rId28"/>
-    <hyperlink ref="D176" r:id="rId29"/>
-    <hyperlink ref="D177" r:id="rId30"/>
-    <hyperlink ref="D180" r:id="rId31"/>
-    <hyperlink ref="D184" r:id="rId32"/>
-    <hyperlink ref="D185" r:id="rId33"/>
-    <hyperlink ref="D186" r:id="rId34"/>
-    <hyperlink ref="D196" r:id="rId35"/>
-    <hyperlink ref="D200" r:id="rId36"/>
-    <hyperlink ref="D202" r:id="rId37"/>
-    <hyperlink ref="D206" r:id="rId38"/>
-    <hyperlink ref="D207" r:id="rId39"/>
-    <hyperlink ref="D210" r:id="rId40"/>
-    <hyperlink ref="D213" r:id="rId41"/>
-    <hyperlink ref="D215" r:id="rId42"/>
-    <hyperlink ref="D219" r:id="rId43"/>
-    <hyperlink ref="D223" r:id="rId44"/>
-    <hyperlink ref="D225" r:id="rId45"/>
-    <hyperlink ref="D226" r:id="rId46"/>
-    <hyperlink ref="D230" r:id="rId47"/>
-    <hyperlink ref="D231" r:id="rId48"/>
-    <hyperlink ref="D235" r:id="rId49"/>
-    <hyperlink ref="D244" r:id="rId50"/>
-    <hyperlink ref="D253" r:id="rId51"/>
-    <hyperlink ref="D257" r:id="rId52"/>
-    <hyperlink ref="D266" r:id="rId53"/>
-    <hyperlink ref="D272" r:id="rId54"/>
-    <hyperlink ref="D294" r:id="rId55"/>
-    <hyperlink ref="D309" r:id="rId56"/>
-    <hyperlink ref="D332" r:id="rId57"/>
-    <hyperlink ref="D335" r:id="rId58"/>
-    <hyperlink ref="D380" r:id="rId59"/>
-    <hyperlink ref="D389" r:id="rId60"/>
+    <hyperlink ref="D8" r:id="rId2"/>
+    <hyperlink ref="D16" r:id="rId3"/>
+    <hyperlink ref="D18" r:id="rId4"/>
+    <hyperlink ref="D25" r:id="rId5"/>
+    <hyperlink ref="D26" r:id="rId6"/>
+    <hyperlink ref="D35" r:id="rId7"/>
+    <hyperlink ref="D43" r:id="rId8"/>
+    <hyperlink ref="D44" r:id="rId9"/>
+    <hyperlink ref="D48" r:id="rId10"/>
+    <hyperlink ref="D52" r:id="rId11"/>
+    <hyperlink ref="D60" r:id="rId12"/>
+    <hyperlink ref="D62" r:id="rId13"/>
+    <hyperlink ref="D76" r:id="rId14"/>
+    <hyperlink ref="D77" r:id="rId15"/>
+    <hyperlink ref="D79" r:id="rId16"/>
+    <hyperlink ref="D80" r:id="rId17"/>
+    <hyperlink ref="D83" r:id="rId18"/>
+    <hyperlink ref="D85" r:id="rId19"/>
+    <hyperlink ref="D94" r:id="rId20"/>
+    <hyperlink ref="D95" r:id="rId21"/>
+    <hyperlink ref="D106" r:id="rId22"/>
+    <hyperlink ref="D116" r:id="rId23"/>
+    <hyperlink ref="D129" r:id="rId24"/>
+    <hyperlink ref="D135" r:id="rId25"/>
+    <hyperlink ref="D136" r:id="rId26"/>
+    <hyperlink ref="D137" r:id="rId27"/>
+    <hyperlink ref="D142" r:id="rId28"/>
+    <hyperlink ref="D174" r:id="rId29"/>
+    <hyperlink ref="D176" r:id="rId30"/>
+    <hyperlink ref="D177" r:id="rId31"/>
+    <hyperlink ref="D180" r:id="rId32"/>
+    <hyperlink ref="D184" r:id="rId33"/>
+    <hyperlink ref="D185" r:id="rId34"/>
+    <hyperlink ref="D186" r:id="rId35"/>
+    <hyperlink ref="D196" r:id="rId36"/>
+    <hyperlink ref="D200" r:id="rId37"/>
+    <hyperlink ref="D202" r:id="rId38"/>
+    <hyperlink ref="D206" r:id="rId39"/>
+    <hyperlink ref="D207" r:id="rId40"/>
+    <hyperlink ref="D210" r:id="rId41"/>
+    <hyperlink ref="D213" r:id="rId42"/>
+    <hyperlink ref="D215" r:id="rId43"/>
+    <hyperlink ref="D219" r:id="rId44"/>
+    <hyperlink ref="D223" r:id="rId45"/>
+    <hyperlink ref="D225" r:id="rId46"/>
+    <hyperlink ref="D226" r:id="rId47"/>
+    <hyperlink ref="D230" r:id="rId48"/>
+    <hyperlink ref="D231" r:id="rId49"/>
+    <hyperlink ref="D235" r:id="rId50"/>
+    <hyperlink ref="D244" r:id="rId51"/>
+    <hyperlink ref="D253" r:id="rId52"/>
+    <hyperlink ref="D257" r:id="rId53"/>
+    <hyperlink ref="D266" r:id="rId54"/>
+    <hyperlink ref="D272" r:id="rId55"/>
+    <hyperlink ref="D294" r:id="rId56"/>
+    <hyperlink ref="D309" r:id="rId57"/>
+    <hyperlink ref="D332" r:id="rId58"/>
+    <hyperlink ref="D335" r:id="rId59"/>
+    <hyperlink ref="D379" r:id="rId60"/>
+    <hyperlink ref="D388" r:id="rId61"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/幽灵歌单整理.xlsx
+++ b/幽灵歌单整理.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="751" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="750" uniqueCount="750">
   <si>
     <t>价格</t>
   </si>
@@ -402,9 +402,6 @@
   </si>
   <si>
     <t>陈洁仪</t>
-  </si>
-  <si>
-    <t>粤语,流行,抒情</t>
   </si>
   <si>
     <t>奇妙能力歌</t>
@@ -2739,7 +2736,7 @@
         <color rgb="FF175CEB"/>
         <u val="single"/>
       </rPr>
-      <t xml:space="preserve">https://www.bilibili.com/video/BV1Xx41117UL</t>
+      <t xml:space="preserve">https://www.bilibili.com/video/BV1ZF411Y7gs</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2969,7 +2966,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office Theme">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3305,7 +3302,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
@@ -3404,7 +3401,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>8</v>
@@ -3558,7 +3555,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>12</v>
@@ -3598,7 +3595,7 @@
         <v>33</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>8</v>
@@ -3735,7 +3732,7 @@
         <v>52</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>8</v>
@@ -3758,7 +3755,7 @@
         <v>55</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>8</v>
@@ -3933,7 +3930,7 @@
         <v>74</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>12</v>
@@ -4089,7 +4086,7 @@
         <v>88</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>8</v>
@@ -4112,7 +4109,7 @@
         <v>91</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>8</v>
@@ -4192,7 +4189,7 @@
         <v>100</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>8</v>
@@ -4270,7 +4267,7 @@
         <v>108</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>109</v>
@@ -4424,7 +4421,7 @@
         <v>122</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>12</v>
@@ -4464,7 +4461,7 @@
         <v>126</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>48</v>
@@ -4488,7 +4485,7 @@
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="6" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -4500,10 +4497,10 @@
     <row r="64">
       <c r="A64" s="4"/>
       <c r="B64" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="6" t="s">
@@ -4519,10 +4516,10 @@
     <row r="65">
       <c r="A65" s="4"/>
       <c r="B65" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="6" t="s">
@@ -4538,10 +4535,10 @@
     <row r="66">
       <c r="A66" s="4"/>
       <c r="B66" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="6" t="s">
@@ -4557,10 +4554,10 @@
     <row r="67">
       <c r="A67" s="4"/>
       <c r="B67" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="6" t="s">
@@ -4576,14 +4573,14 @@
     <row r="68">
       <c r="A68" s="4"/>
       <c r="B68" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -4595,14 +4592,14 @@
     <row r="69">
       <c r="A69" s="4"/>
       <c r="B69" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -4614,10 +4611,10 @@
     <row r="70">
       <c r="A70" s="4"/>
       <c r="B70" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="6" t="s">
@@ -4633,14 +4630,14 @@
     <row r="71">
       <c r="A71" s="4"/>
       <c r="B71" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -4652,10 +4649,10 @@
     <row r="72">
       <c r="A72" s="4"/>
       <c r="B72" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="6" t="s">
@@ -4671,10 +4668,10 @@
     <row r="73">
       <c r="A73" s="4"/>
       <c r="B73" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="6" t="s">
@@ -4690,10 +4687,10 @@
     <row r="74">
       <c r="A74" s="4"/>
       <c r="B74" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="6" t="s">
@@ -4709,10 +4706,10 @@
     <row r="75">
       <c r="A75" s="4"/>
       <c r="B75" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="6" t="s">
@@ -4728,13 +4725,13 @@
     <row r="76">
       <c r="A76" s="4"/>
       <c r="B76" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>18</v>
@@ -4749,13 +4746,13 @@
     <row r="77">
       <c r="A77" s="4"/>
       <c r="B77" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>151</v>
-      </c>
       <c r="D77" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>45</v>
@@ -4770,10 +4767,10 @@
     <row r="78">
       <c r="A78" s="4"/>
       <c r="B78" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="6" t="s">
@@ -4789,13 +4786,13 @@
     <row r="79">
       <c r="A79" s="4"/>
       <c r="B79" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>8</v>
@@ -4810,13 +4807,13 @@
     <row r="80">
       <c r="A80" s="4"/>
       <c r="B80" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>39</v>
@@ -4831,10 +4828,10 @@
     <row r="81">
       <c r="A81" s="4"/>
       <c r="B81" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="6" t="s">
@@ -4850,10 +4847,10 @@
     <row r="82">
       <c r="A82" s="4"/>
       <c r="B82" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="6" t="s">
@@ -4869,19 +4866,19 @@
     <row r="83">
       <c r="A83" s="4"/>
       <c r="B83" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C83" s="10" t="s">
-        <v>160</v>
-      </c>
       <c r="D83" s="8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -4892,10 +4889,10 @@
     <row r="84">
       <c r="A84" s="4"/>
       <c r="B84" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="6" t="s">
@@ -4911,13 +4908,13 @@
     <row r="85">
       <c r="A85" s="4"/>
       <c r="B85" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>165</v>
-      </c>
       <c r="D85" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>12</v>
@@ -4932,10 +4929,10 @@
     <row r="86">
       <c r="A86" s="4"/>
       <c r="B86" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
@@ -4951,10 +4948,10 @@
     <row r="87">
       <c r="A87" s="4"/>
       <c r="B87" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="6" t="s">
@@ -4970,10 +4967,10 @@
     <row r="88">
       <c r="A88" s="4"/>
       <c r="B88" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="12" t="s">
@@ -4989,10 +4986,10 @@
     <row r="89">
       <c r="A89" s="4"/>
       <c r="B89" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="6" t="s">
@@ -5008,10 +5005,10 @@
     <row r="90">
       <c r="A90" s="4"/>
       <c r="B90" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="6" t="s">
@@ -5027,10 +5024,10 @@
     <row r="91">
       <c r="A91" s="4"/>
       <c r="B91" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="6" t="s">
@@ -5046,10 +5043,10 @@
     <row r="92">
       <c r="A92" s="4"/>
       <c r="B92" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="6" t="s">
@@ -5065,10 +5062,10 @@
     <row r="93">
       <c r="A93" s="4"/>
       <c r="B93" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="6" t="s">
@@ -5084,13 +5081,13 @@
     <row r="94">
       <c r="A94" s="4"/>
       <c r="B94" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>180</v>
-      </c>
       <c r="D94" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>12</v>
@@ -5105,19 +5102,19 @@
     <row r="95">
       <c r="A95" s="4"/>
       <c r="B95" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C95" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="D95" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -5128,10 +5125,10 @@
     <row r="96">
       <c r="A96" s="4"/>
       <c r="B96" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="6" t="s">
@@ -5147,10 +5144,10 @@
     <row r="97">
       <c r="A97" s="4"/>
       <c r="B97" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="6" t="s">
@@ -5166,10 +5163,10 @@
     <row r="98">
       <c r="A98" s="4"/>
       <c r="B98" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="6" t="s">
@@ -5185,10 +5182,10 @@
     <row r="99">
       <c r="A99" s="4"/>
       <c r="B99" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="6" t="s">
@@ -5204,10 +5201,10 @@
     <row r="100">
       <c r="A100" s="4"/>
       <c r="B100" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="6" t="s">
@@ -5223,10 +5220,10 @@
     <row r="101">
       <c r="A101" s="4"/>
       <c r="B101" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="6" t="s">
@@ -5242,10 +5239,10 @@
     <row r="102">
       <c r="A102" s="4"/>
       <c r="B102" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="6" t="s">
@@ -5261,10 +5258,10 @@
     <row r="103">
       <c r="A103" s="4"/>
       <c r="B103" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="6" t="s">
@@ -5280,10 +5277,10 @@
     <row r="104">
       <c r="A104" s="4"/>
       <c r="B104" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="6" t="s">
@@ -5299,10 +5296,10 @@
     <row r="105">
       <c r="A105" s="4"/>
       <c r="B105" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="6" t="s">
@@ -5318,13 +5315,13 @@
     <row r="106">
       <c r="A106" s="4"/>
       <c r="B106" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>12</v>
@@ -5339,10 +5336,10 @@
     <row r="107">
       <c r="A107" s="4"/>
       <c r="B107" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C107" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="6" t="s">
@@ -5358,14 +5355,14 @@
     <row r="108">
       <c r="A108" s="4"/>
       <c r="B108" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
@@ -5377,10 +5374,10 @@
     <row r="109">
       <c r="A109" s="4"/>
       <c r="B109" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C109" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="6" t="s">
@@ -5396,10 +5393,10 @@
     <row r="110">
       <c r="A110" s="4"/>
       <c r="B110" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C110" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="6" t="s">
@@ -5415,10 +5412,10 @@
     <row r="111">
       <c r="A111" s="4"/>
       <c r="B111" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C111" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="6" t="s">
@@ -5434,10 +5431,10 @@
     <row r="112">
       <c r="A112" s="4"/>
       <c r="B112" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C112" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="6" t="s">
@@ -5453,10 +5450,10 @@
     <row r="113">
       <c r="A113" s="4"/>
       <c r="B113" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C113" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="12" t="s">
@@ -5472,10 +5469,10 @@
     <row r="114">
       <c r="A114" s="4"/>
       <c r="B114" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="D114" s="13"/>
       <c r="E114" s="6" t="s">
@@ -5491,17 +5488,17 @@
     <row r="115">
       <c r="A115" s="4"/>
       <c r="B115" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C115" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -5512,13 +5509,13 @@
     <row r="116">
       <c r="A116" s="4"/>
       <c r="B116" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C116" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C116" s="10" t="s">
-        <v>220</v>
-      </c>
       <c r="D116" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>8</v>
@@ -5533,14 +5530,14 @@
     <row r="117">
       <c r="A117" s="4"/>
       <c r="B117" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C117" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>222</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
@@ -5552,10 +5549,10 @@
     <row r="118">
       <c r="A118" s="4"/>
       <c r="B118" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>225</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="6" t="s">
@@ -5571,10 +5568,10 @@
     <row r="119">
       <c r="A119" s="4"/>
       <c r="B119" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C119" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="6" t="s">
@@ -5590,10 +5587,10 @@
     <row r="120">
       <c r="A120" s="4"/>
       <c r="B120" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>229</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="6" t="s">
@@ -5609,10 +5606,10 @@
     <row r="121">
       <c r="A121" s="4"/>
       <c r="B121" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="6" t="s">
@@ -5628,14 +5625,14 @@
     <row r="122">
       <c r="A122" s="4"/>
       <c r="B122" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
@@ -5647,10 +5644,10 @@
     <row r="123">
       <c r="A123" s="4"/>
       <c r="B123" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C123" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="6" t="s">
@@ -5666,10 +5663,10 @@
     <row r="124">
       <c r="A124" s="4"/>
       <c r="B124" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>235</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="6" t="s">
@@ -5685,14 +5682,14 @@
     <row r="125">
       <c r="A125" s="4"/>
       <c r="B125" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C125" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>237</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
@@ -5704,10 +5701,10 @@
     <row r="126">
       <c r="A126" s="4"/>
       <c r="B126" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="6" t="s">
@@ -5723,10 +5720,10 @@
     <row r="127">
       <c r="A127" s="4"/>
       <c r="B127" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C127" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="6" t="s">
@@ -5742,10 +5739,10 @@
     <row r="128">
       <c r="A128" s="4"/>
       <c r="B128" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="6" t="s">
@@ -5761,16 +5758,16 @@
     <row r="129">
       <c r="A129" s="4"/>
       <c r="B129" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C129" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="D129" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="E129" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>713</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>247</v>
       </c>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
@@ -5782,10 +5779,10 @@
     <row r="130">
       <c r="A130" s="4"/>
       <c r="B130" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C130" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="6" t="s">
@@ -5801,10 +5798,10 @@
     <row r="131">
       <c r="A131" s="4"/>
       <c r="B131" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C131" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="6" t="s">
@@ -5820,14 +5817,14 @@
     <row r="132">
       <c r="A132" s="4"/>
       <c r="B132" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C132" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>253</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
@@ -5839,10 +5836,10 @@
     <row r="133">
       <c r="A133" s="4"/>
       <c r="B133" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C133" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="6" t="s">
@@ -5858,10 +5855,10 @@
     <row r="134">
       <c r="A134" s="4"/>
       <c r="B134" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C134" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>258</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="6" t="s">
@@ -5877,13 +5874,13 @@
     <row r="135">
       <c r="A135" s="4"/>
       <c r="B135" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C135" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C135" s="6" t="s">
-        <v>260</v>
-      </c>
       <c r="D135" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E135" s="6" t="s">
         <v>12</v>
@@ -5898,13 +5895,13 @@
     <row r="136">
       <c r="A136" s="4"/>
       <c r="B136" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C136" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C136" s="10" t="s">
-        <v>262</v>
-      </c>
       <c r="D136" s="8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>12</v>
@@ -5919,13 +5916,13 @@
     <row r="137">
       <c r="A137" s="4"/>
       <c r="B137" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C137" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C137" s="6" t="s">
-        <v>264</v>
-      </c>
       <c r="D137" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>39</v>
@@ -5940,10 +5937,10 @@
     <row r="138">
       <c r="A138" s="4"/>
       <c r="B138" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C138" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="6" t="s">
@@ -5959,10 +5956,10 @@
     <row r="139">
       <c r="A139" s="4"/>
       <c r="B139" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C139" s="6" t="s">
         <v>267</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>268</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="6" t="s">
@@ -5978,10 +5975,10 @@
     <row r="140">
       <c r="A140" s="4"/>
       <c r="B140" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="6" t="s">
@@ -5997,14 +5994,14 @@
     <row r="141">
       <c r="A141" s="4"/>
       <c r="B141" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C141" s="10" t="s">
         <v>270</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>271</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
@@ -6016,16 +6013,16 @@
     <row r="142">
       <c r="A142" s="4"/>
       <c r="B142" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C142" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C142" s="6" t="s">
+      <c r="D142" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="E142" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>717</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
@@ -6037,10 +6034,10 @@
     <row r="143">
       <c r="A143" s="4"/>
       <c r="B143" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="3" t="s">
@@ -6056,10 +6053,10 @@
     <row r="144">
       <c r="A144" s="4"/>
       <c r="B144" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C144" s="6" t="s">
         <v>278</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>279</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="6" t="s">
@@ -6075,10 +6072,10 @@
     <row r="145">
       <c r="A145" s="4"/>
       <c r="B145" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C145" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>281</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="6" t="s">
@@ -6094,10 +6091,10 @@
     <row r="146">
       <c r="A146" s="4"/>
       <c r="B146" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="6" t="s">
@@ -6113,10 +6110,10 @@
     <row r="147">
       <c r="A147" s="4"/>
       <c r="B147" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="6" t="s">
@@ -6132,10 +6129,10 @@
     <row r="148">
       <c r="A148" s="4"/>
       <c r="B148" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C148" s="14" t="s">
         <v>284</v>
-      </c>
-      <c r="C148" s="14" t="s">
-        <v>285</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="6" t="s">
@@ -6151,10 +6148,10 @@
     <row r="149">
       <c r="A149" s="4"/>
       <c r="B149" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C149" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="6" t="s">
@@ -6170,17 +6167,17 @@
     <row r="150">
       <c r="A150" s="4"/>
       <c r="B150" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C150" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F150" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="F150" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
@@ -6191,17 +6188,17 @@
     <row r="151">
       <c r="A151" s="4"/>
       <c r="B151" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C151" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>293</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
@@ -6212,10 +6209,10 @@
     <row r="152">
       <c r="A152" s="4"/>
       <c r="B152" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>295</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>296</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="6" t="s">
@@ -6231,10 +6228,10 @@
     <row r="153">
       <c r="A153" s="4"/>
       <c r="B153" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="6" t="s">
@@ -6250,10 +6247,10 @@
     <row r="154">
       <c r="A154" s="4"/>
       <c r="B154" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C154" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="D154" s="4"/>
       <c r="E154" s="6" t="s">
@@ -6269,17 +6266,17 @@
     <row r="155">
       <c r="A155" s="4"/>
       <c r="B155" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C155" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>301</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
@@ -6290,10 +6287,10 @@
     <row r="156">
       <c r="A156" s="4"/>
       <c r="B156" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="6" t="s">
@@ -6309,14 +6306,14 @@
     <row r="157">
       <c r="A157" s="4"/>
       <c r="B157" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
@@ -6328,14 +6325,14 @@
     <row r="158">
       <c r="A158" s="4"/>
       <c r="B158" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
@@ -6347,10 +6344,10 @@
     <row r="159">
       <c r="A159" s="4"/>
       <c r="B159" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D159" s="4"/>
       <c r="E159" s="6" t="s">
@@ -6366,10 +6363,10 @@
     <row r="160">
       <c r="A160" s="4"/>
       <c r="B160" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="6" t="s">
@@ -6385,10 +6382,10 @@
     <row r="161">
       <c r="A161" s="4"/>
       <c r="B161" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="6" t="s">
@@ -6404,10 +6401,10 @@
     <row r="162">
       <c r="A162" s="4"/>
       <c r="B162" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="6" t="s">
@@ -6423,10 +6420,10 @@
     <row r="163">
       <c r="A163" s="4"/>
       <c r="B163" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="6" t="s">
@@ -6442,10 +6439,10 @@
     <row r="164">
       <c r="A164" s="4"/>
       <c r="B164" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="6" t="s">
@@ -6461,10 +6458,10 @@
     <row r="165">
       <c r="A165" s="4"/>
       <c r="B165" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="6" t="s">
@@ -6480,10 +6477,10 @@
     <row r="166">
       <c r="A166" s="4"/>
       <c r="B166" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="6" t="s">
@@ -6499,10 +6496,10 @@
     <row r="167">
       <c r="A167" s="4"/>
       <c r="B167" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D167" s="4"/>
       <c r="E167" s="6" t="s">
@@ -6518,10 +6515,10 @@
     <row r="168">
       <c r="A168" s="4"/>
       <c r="B168" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>316</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="6" t="s">
@@ -6537,10 +6534,10 @@
     <row r="169">
       <c r="A169" s="4"/>
       <c r="B169" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C169" s="6" t="s">
         <v>317</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>318</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="6" t="s">
@@ -6556,10 +6553,10 @@
     <row r="170">
       <c r="A170" s="4"/>
       <c r="B170" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D170" s="4"/>
       <c r="E170" s="6" t="s">
@@ -6575,10 +6572,10 @@
     <row r="171">
       <c r="A171" s="4"/>
       <c r="B171" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C171" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>321</v>
       </c>
       <c r="D171" s="4"/>
       <c r="E171" s="6" t="s">
@@ -6594,10 +6591,10 @@
     <row r="172">
       <c r="A172" s="4"/>
       <c r="B172" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C172" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>323</v>
       </c>
       <c r="D172" s="4"/>
       <c r="E172" s="6" t="s">
@@ -6613,10 +6610,10 @@
     <row r="173">
       <c r="A173" s="4"/>
       <c r="B173" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C173" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="D173" s="4"/>
       <c r="E173" s="6" t="s">
@@ -6632,19 +6629,19 @@
     <row r="174">
       <c r="A174" s="4"/>
       <c r="B174" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C174" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C174" s="10" t="s">
-        <v>327</v>
-      </c>
       <c r="D174" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E174" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
@@ -6655,17 +6652,17 @@
     <row r="175">
       <c r="A175" s="4"/>
       <c r="B175" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C175" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="D175" s="4"/>
       <c r="E175" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
@@ -6676,13 +6673,13 @@
     <row r="176">
       <c r="A176" s="4"/>
       <c r="B176" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>45</v>
@@ -6697,13 +6694,13 @@
     <row r="177">
       <c r="A177" s="4"/>
       <c r="B177" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E177" s="6" t="s">
         <v>12</v>
@@ -6718,10 +6715,10 @@
     <row r="178">
       <c r="A178" s="4"/>
       <c r="B178" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D178" s="4"/>
       <c r="E178" s="6" t="s">
@@ -6737,10 +6734,10 @@
     <row r="179">
       <c r="A179" s="4"/>
       <c r="B179" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D179" s="4"/>
       <c r="E179" s="6" t="s">
@@ -6756,13 +6753,13 @@
     <row r="180">
       <c r="A180" s="4"/>
       <c r="B180" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>12</v>
@@ -6777,17 +6774,17 @@
     <row r="181">
       <c r="A181" s="4"/>
       <c r="B181" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D181" s="4"/>
       <c r="E181" s="6" t="s">
         <v>109</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
@@ -6798,10 +6795,10 @@
     <row r="182">
       <c r="A182" s="4"/>
       <c r="B182" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="12" t="s">
@@ -6817,17 +6814,17 @@
     <row r="183">
       <c r="A183" s="4"/>
       <c r="B183" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D183" s="4"/>
       <c r="E183" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
@@ -6838,13 +6835,13 @@
     <row r="184">
       <c r="A184" s="4"/>
       <c r="B184" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C184" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C184" s="6" t="s">
-        <v>343</v>
-      </c>
       <c r="D184" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E184" s="6" t="s">
         <v>12</v>
@@ -6859,13 +6856,13 @@
     <row r="185">
       <c r="A185" s="4"/>
       <c r="B185" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C185" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C185" s="6" t="s">
-        <v>345</v>
-      </c>
       <c r="D185" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>12</v>
@@ -6880,19 +6877,19 @@
     <row r="186">
       <c r="A186" s="4"/>
       <c r="B186" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C186" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C186" s="6" t="s">
-        <v>347</v>
-      </c>
       <c r="D186" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
@@ -6903,10 +6900,10 @@
     <row r="187">
       <c r="A187" s="4"/>
       <c r="B187" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C187" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>350</v>
       </c>
       <c r="D187" s="4"/>
       <c r="E187" s="6" t="s">
@@ -6922,10 +6919,10 @@
     <row r="188">
       <c r="A188" s="4"/>
       <c r="B188" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C188" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>352</v>
       </c>
       <c r="D188" s="4"/>
       <c r="E188" s="6" t="s">
@@ -6941,10 +6938,10 @@
     <row r="189">
       <c r="A189" s="4"/>
       <c r="B189" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C189" s="6" t="s">
         <v>353</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>354</v>
       </c>
       <c r="D189" s="4"/>
       <c r="E189" s="6" t="s">
@@ -6960,10 +6957,10 @@
     <row r="190">
       <c r="A190" s="4"/>
       <c r="B190" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C190" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>356</v>
       </c>
       <c r="D190" s="4"/>
       <c r="E190" s="6" t="s">
@@ -6979,10 +6976,10 @@
     <row r="191">
       <c r="A191" s="4"/>
       <c r="B191" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C191" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>358</v>
       </c>
       <c r="D191" s="4"/>
       <c r="E191" s="6" t="s">
@@ -6998,17 +6995,17 @@
     <row r="192">
       <c r="A192" s="4"/>
       <c r="B192" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C192" s="6" t="s">
         <v>359</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>360</v>
       </c>
       <c r="D192" s="4"/>
       <c r="E192" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
@@ -7019,10 +7016,10 @@
     <row r="193">
       <c r="A193" s="4"/>
       <c r="B193" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C193" s="6" t="s">
         <v>362</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>363</v>
       </c>
       <c r="D193" s="4"/>
       <c r="E193" s="6" t="s">
@@ -7038,10 +7035,10 @@
     <row r="194">
       <c r="A194" s="4"/>
       <c r="B194" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C194" s="6" t="s">
         <v>364</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>365</v>
       </c>
       <c r="D194" s="4"/>
       <c r="E194" s="6" t="s">
@@ -7057,14 +7054,14 @@
     <row r="195">
       <c r="A195" s="4"/>
       <c r="B195" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C195" s="6" t="s">
         <v>366</v>
-      </c>
-      <c r="C195" s="6" t="s">
-        <v>367</v>
       </c>
       <c r="D195" s="4"/>
       <c r="E195" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
@@ -7076,13 +7073,13 @@
     <row r="196">
       <c r="A196" s="4"/>
       <c r="B196" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C196" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C196" s="6" t="s">
-        <v>369</v>
-      </c>
       <c r="D196" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E196" s="6" t="s">
         <v>45</v>
@@ -7097,10 +7094,10 @@
     <row r="197">
       <c r="A197" s="4"/>
       <c r="B197" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D197" s="4"/>
       <c r="E197" s="6" t="s">
@@ -7116,10 +7113,10 @@
     <row r="198">
       <c r="A198" s="4"/>
       <c r="B198" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D198" s="4"/>
       <c r="E198" s="6" t="s">
@@ -7135,10 +7132,10 @@
     <row r="199">
       <c r="A199" s="4"/>
       <c r="B199" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D199" s="4"/>
       <c r="E199" s="6" t="s">
@@ -7154,13 +7151,13 @@
     <row r="200">
       <c r="A200" s="4"/>
       <c r="B200" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E200" s="6" t="s">
         <v>12</v>
@@ -7175,10 +7172,10 @@
     <row r="201">
       <c r="A201" s="4"/>
       <c r="B201" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D201" s="4"/>
       <c r="E201" s="6" t="s">
@@ -7194,13 +7191,13 @@
     <row r="202">
       <c r="A202" s="4"/>
       <c r="B202" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E202" s="6" t="s">
         <v>12</v>
@@ -7215,10 +7212,10 @@
     <row r="203">
       <c r="A203" s="4"/>
       <c r="B203" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D203" s="4"/>
       <c r="E203" s="6" t="s">
@@ -7234,10 +7231,10 @@
     <row r="204">
       <c r="A204" s="4"/>
       <c r="B204" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D204" s="4"/>
       <c r="E204" s="6" t="s">
@@ -7253,14 +7250,14 @@
     <row r="205">
       <c r="A205" s="4"/>
       <c r="B205" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D205" s="4"/>
       <c r="E205" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
@@ -7272,13 +7269,13 @@
     <row r="206">
       <c r="A206" s="4"/>
       <c r="B206" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E206" s="6" t="s">
         <v>12</v>
@@ -7295,13 +7292,13 @@
         <v>200.0</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>39</v>
@@ -7316,14 +7313,14 @@
     <row r="208">
       <c r="A208" s="4"/>
       <c r="B208" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D208" s="4"/>
       <c r="E208" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
@@ -7335,10 +7332,10 @@
     <row r="209">
       <c r="A209" s="4"/>
       <c r="B209" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D209" s="4"/>
       <c r="E209" s="6" t="s">
@@ -7354,13 +7351,13 @@
     <row r="210">
       <c r="A210" s="4"/>
       <c r="B210" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E210" s="6" t="s">
         <v>12</v>
@@ -7375,10 +7372,10 @@
     <row r="211">
       <c r="A211" s="4"/>
       <c r="B211" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D211" s="4"/>
       <c r="E211" s="6" t="s">
@@ -7394,17 +7391,17 @@
     <row r="212">
       <c r="A212" s="4"/>
       <c r="B212" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D212" s="4"/>
       <c r="E212" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
@@ -7415,13 +7412,13 @@
     <row r="213">
       <c r="A213" s="4"/>
       <c r="B213" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C213" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="C213" s="15" t="s">
-        <v>388</v>
-      </c>
       <c r="D213" s="8" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E213" s="6" t="s">
         <v>12</v>
@@ -7436,10 +7433,10 @@
     <row r="214">
       <c r="A214" s="4"/>
       <c r="B214" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D214" s="4"/>
       <c r="E214" s="6" t="s">
@@ -7455,13 +7452,13 @@
     <row r="215">
       <c r="A215" s="4"/>
       <c r="B215" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C215" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="C215" s="10" t="s">
-        <v>391</v>
-      </c>
       <c r="D215" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E215" s="6" t="s">
         <v>12</v>
@@ -7476,10 +7473,10 @@
     <row r="216">
       <c r="A216" s="4"/>
       <c r="B216" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C216" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="C216" s="6" t="s">
-        <v>393</v>
       </c>
       <c r="D216" s="4"/>
       <c r="E216" s="6" t="s">
@@ -7495,10 +7492,10 @@
     <row r="217">
       <c r="A217" s="4"/>
       <c r="B217" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D217" s="4"/>
       <c r="E217" s="6" t="s">
@@ -7514,10 +7511,10 @@
     <row r="218">
       <c r="A218" s="4"/>
       <c r="B218" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D218" s="4"/>
       <c r="E218" s="6" t="s">
@@ -7533,13 +7530,13 @@
     <row r="219">
       <c r="A219" s="4"/>
       <c r="B219" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C219" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C219" s="6" t="s">
-        <v>397</v>
-      </c>
       <c r="D219" s="8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E219" s="6" t="s">
         <v>12</v>
@@ -7554,10 +7551,10 @@
     <row r="220">
       <c r="A220" s="4"/>
       <c r="B220" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C220" s="6" t="s">
         <v>398</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>399</v>
       </c>
       <c r="D220" s="4"/>
       <c r="E220" s="6" t="s">
@@ -7573,10 +7570,10 @@
     <row r="221">
       <c r="A221" s="4"/>
       <c r="B221" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C221" s="6" t="s">
         <v>400</v>
-      </c>
-      <c r="C221" s="6" t="s">
-        <v>401</v>
       </c>
       <c r="D221" s="4"/>
       <c r="E221" s="6" t="s">
@@ -7592,10 +7589,10 @@
     <row r="222">
       <c r="A222" s="4"/>
       <c r="B222" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C222" s="6" t="s">
         <v>402</v>
-      </c>
-      <c r="C222" s="6" t="s">
-        <v>403</v>
       </c>
       <c r="D222" s="4"/>
       <c r="E222" s="6" t="s">
@@ -7611,13 +7608,13 @@
     <row r="223">
       <c r="A223" s="4"/>
       <c r="B223" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E223" s="6" t="s">
         <v>12</v>
@@ -7632,10 +7629,10 @@
     <row r="224">
       <c r="A224" s="4"/>
       <c r="B224" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C224" s="6" t="s">
         <v>405</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>406</v>
       </c>
       <c r="D224" s="4"/>
       <c r="E224" s="6" t="s">
@@ -7651,13 +7648,13 @@
     <row r="225">
       <c r="A225" s="4"/>
       <c r="B225" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C225" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="C225" s="10" t="s">
-        <v>408</v>
-      </c>
       <c r="D225" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E225" s="6" t="s">
         <v>12</v>
@@ -7672,13 +7669,13 @@
     <row r="226">
       <c r="A226" s="4"/>
       <c r="B226" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C226" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C226" s="6" t="s">
-        <v>410</v>
-      </c>
       <c r="D226" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E226" s="6" t="s">
         <v>12</v>
@@ -7693,10 +7690,10 @@
     <row r="227">
       <c r="A227" s="4"/>
       <c r="B227" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C227" s="6" t="s">
         <v>411</v>
-      </c>
-      <c r="C227" s="6" t="s">
-        <v>412</v>
       </c>
       <c r="D227" s="4"/>
       <c r="E227" s="6" t="s">
@@ -7712,10 +7709,10 @@
     <row r="228">
       <c r="A228" s="4"/>
       <c r="B228" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C228" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="C228" s="6" t="s">
-        <v>414</v>
       </c>
       <c r="D228" s="4"/>
       <c r="E228" s="6" t="s">
@@ -7731,17 +7728,17 @@
     <row r="229">
       <c r="A229" s="4"/>
       <c r="B229" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C229" s="6" t="s">
         <v>415</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>416</v>
       </c>
       <c r="D229" s="4"/>
       <c r="E229" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G229" s="4"/>
       <c r="H229" s="4"/>
@@ -7752,13 +7749,13 @@
     <row r="230">
       <c r="A230" s="4"/>
       <c r="B230" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C230" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="C230" s="6" t="s">
-        <v>419</v>
-      </c>
       <c r="D230" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E230" s="6" t="s">
         <v>48</v>
@@ -7773,19 +7770,19 @@
     <row r="231">
       <c r="A231" s="4"/>
       <c r="B231" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C231" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C231" s="6" t="s">
-        <v>421</v>
-      </c>
       <c r="D231" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E231" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G231" s="4"/>
       <c r="H231" s="4"/>
@@ -7796,10 +7793,10 @@
     <row r="232">
       <c r="A232" s="4"/>
       <c r="B232" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C232" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="D232" s="4"/>
       <c r="E232" s="6" t="s">
@@ -7815,10 +7812,10 @@
     <row r="233">
       <c r="A233" s="4"/>
       <c r="B233" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D233" s="4"/>
       <c r="E233" s="6" t="s">
@@ -7834,10 +7831,10 @@
     <row r="234">
       <c r="A234" s="4"/>
       <c r="B234" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D234" s="4"/>
       <c r="E234" s="6" t="s">
@@ -7853,13 +7850,13 @@
     <row r="235">
       <c r="A235" s="4"/>
       <c r="B235" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C235" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C235" s="6" t="s">
-        <v>428</v>
-      </c>
       <c r="D235" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E235" s="6" t="s">
         <v>45</v>
@@ -7874,10 +7871,10 @@
     <row r="236">
       <c r="A236" s="4"/>
       <c r="B236" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C236" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="C236" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="D236" s="4"/>
       <c r="E236" s="6" t="s">
@@ -7893,10 +7890,10 @@
     <row r="237">
       <c r="A237" s="4"/>
       <c r="B237" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C237" s="6" t="s">
         <v>431</v>
-      </c>
-      <c r="C237" s="6" t="s">
-        <v>432</v>
       </c>
       <c r="D237" s="4"/>
       <c r="E237" s="6" t="s">
@@ -7912,10 +7909,10 @@
     <row r="238">
       <c r="A238" s="4"/>
       <c r="B238" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C238" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="C238" s="6" t="s">
-        <v>434</v>
       </c>
       <c r="D238" s="4"/>
       <c r="E238" s="6" t="s">
@@ -7931,10 +7928,10 @@
     <row r="239">
       <c r="A239" s="4"/>
       <c r="B239" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C239" s="6" t="s">
         <v>435</v>
-      </c>
-      <c r="C239" s="6" t="s">
-        <v>436</v>
       </c>
       <c r="D239" s="4"/>
       <c r="E239" s="6" t="s">
@@ -7950,10 +7947,10 @@
     <row r="240">
       <c r="A240" s="4"/>
       <c r="B240" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D240" s="4"/>
       <c r="E240" s="6" t="s">
@@ -7969,10 +7966,10 @@
     <row r="241">
       <c r="A241" s="4"/>
       <c r="B241" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D241" s="4"/>
       <c r="E241" s="6" t="s">
@@ -7988,10 +7985,10 @@
     <row r="242">
       <c r="A242" s="4"/>
       <c r="B242" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D242" s="4"/>
       <c r="E242" s="6" t="s">
@@ -8007,10 +8004,10 @@
     <row r="243">
       <c r="A243" s="4"/>
       <c r="B243" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D243" s="4"/>
       <c r="E243" s="6" t="s">
@@ -8026,19 +8023,19 @@
     <row r="244">
       <c r="A244" s="4"/>
       <c r="B244" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="E244" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="C244" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="D244" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="E244" s="6" t="s">
+      <c r="F244" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="F244" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
@@ -8049,10 +8046,10 @@
     <row r="245">
       <c r="A245" s="4"/>
       <c r="B245" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C245" s="6" t="s">
         <v>444</v>
-      </c>
-      <c r="C245" s="6" t="s">
-        <v>445</v>
       </c>
       <c r="D245" s="4"/>
       <c r="E245" s="6" t="s">
@@ -8070,17 +8067,17 @@
         <v>200.0</v>
       </c>
       <c r="B246" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C246" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="D246" s="4"/>
       <c r="E246" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G246" s="4"/>
       <c r="H246" s="4"/>
@@ -8091,10 +8088,10 @@
     <row r="247">
       <c r="A247" s="4"/>
       <c r="B247" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C247" s="6" t="s">
         <v>449</v>
-      </c>
-      <c r="C247" s="6" t="s">
-        <v>450</v>
       </c>
       <c r="D247" s="4"/>
       <c r="E247" s="6" t="s">
@@ -8110,10 +8107,10 @@
     <row r="248">
       <c r="A248" s="4"/>
       <c r="B248" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C248" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="C248" s="6" t="s">
-        <v>452</v>
       </c>
       <c r="D248" s="4"/>
       <c r="E248" s="6" t="s">
@@ -8129,17 +8126,17 @@
     <row r="249">
       <c r="A249" s="4"/>
       <c r="B249" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C249" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="C249" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="D249" s="4"/>
       <c r="E249" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G249" s="4"/>
       <c r="H249" s="4"/>
@@ -8150,10 +8147,10 @@
     <row r="250">
       <c r="A250" s="4"/>
       <c r="B250" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C250" s="6" t="s">
         <v>456</v>
-      </c>
-      <c r="C250" s="6" t="s">
-        <v>457</v>
       </c>
       <c r="D250" s="4"/>
       <c r="E250" s="6" t="s">
@@ -8169,10 +8166,10 @@
     <row r="251">
       <c r="A251" s="4"/>
       <c r="B251" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C251" s="6" t="s">
         <v>458</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>459</v>
       </c>
       <c r="D251" s="4"/>
       <c r="E251" s="6" t="s">
@@ -8188,10 +8185,10 @@
     <row r="252">
       <c r="A252" s="4"/>
       <c r="B252" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D252" s="4"/>
       <c r="E252" s="6" t="s">
@@ -8207,19 +8204,19 @@
     <row r="253">
       <c r="A253" s="4"/>
       <c r="B253" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C253" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C253" s="6" t="s">
-        <v>462</v>
-      </c>
       <c r="D253" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E253" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G253" s="4"/>
       <c r="H253" s="4"/>
@@ -8230,10 +8227,10 @@
     <row r="254">
       <c r="A254" s="4"/>
       <c r="B254" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C254" s="6" t="s">
         <v>464</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>465</v>
       </c>
       <c r="D254" s="4"/>
       <c r="E254" s="6" t="s">
@@ -8249,10 +8246,10 @@
     <row r="255">
       <c r="A255" s="4"/>
       <c r="B255" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C255" s="6" t="s">
         <v>466</v>
-      </c>
-      <c r="C255" s="6" t="s">
-        <v>467</v>
       </c>
       <c r="D255" s="4"/>
       <c r="E255" s="6" t="s">
@@ -8268,17 +8265,17 @@
     <row r="256">
       <c r="A256" s="4"/>
       <c r="B256" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C256" s="6" t="s">
         <v>468</v>
-      </c>
-      <c r="C256" s="6" t="s">
-        <v>469</v>
       </c>
       <c r="D256" s="4"/>
       <c r="E256" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G256" s="4"/>
       <c r="H256" s="4"/>
@@ -8289,13 +8286,13 @@
     <row r="257">
       <c r="A257" s="4"/>
       <c r="B257" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C257" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="C257" s="6" t="s">
-        <v>472</v>
-      </c>
       <c r="D257" s="8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E257" s="6" t="s">
         <v>45</v>
@@ -8310,10 +8307,10 @@
     <row r="258">
       <c r="A258" s="4"/>
       <c r="B258" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C258" s="6" t="s">
         <v>473</v>
-      </c>
-      <c r="C258" s="6" t="s">
-        <v>474</v>
       </c>
       <c r="D258" s="4"/>
       <c r="E258" s="6" t="s">
@@ -8329,10 +8326,10 @@
     <row r="259">
       <c r="A259" s="4"/>
       <c r="B259" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C259" s="6" t="s">
         <v>475</v>
-      </c>
-      <c r="C259" s="6" t="s">
-        <v>476</v>
       </c>
       <c r="D259" s="4"/>
       <c r="E259" s="6" t="s">
@@ -8348,10 +8345,10 @@
     <row r="260">
       <c r="A260" s="4"/>
       <c r="B260" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C260" s="6" t="s">
         <v>477</v>
-      </c>
-      <c r="C260" s="6" t="s">
-        <v>478</v>
       </c>
       <c r="D260" s="4"/>
       <c r="E260" s="6" t="s">
@@ -8367,10 +8364,10 @@
     <row r="261">
       <c r="A261" s="4"/>
       <c r="B261" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D261" s="4"/>
       <c r="E261" s="6" t="s">
@@ -8386,10 +8383,10 @@
     <row r="262">
       <c r="A262" s="4"/>
       <c r="B262" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C262" s="6" t="s">
         <v>480</v>
-      </c>
-      <c r="C262" s="6" t="s">
-        <v>481</v>
       </c>
       <c r="D262" s="4"/>
       <c r="E262" s="6" t="s">
@@ -8405,10 +8402,10 @@
     <row r="263">
       <c r="A263" s="4"/>
       <c r="B263" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C263" s="6" t="s">
         <v>482</v>
-      </c>
-      <c r="C263" s="6" t="s">
-        <v>483</v>
       </c>
       <c r="D263" s="4"/>
       <c r="E263" s="6" t="s">
@@ -8424,10 +8421,10 @@
     <row r="264">
       <c r="A264" s="4"/>
       <c r="B264" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D264" s="4"/>
       <c r="E264" s="6" t="s">
@@ -8443,10 +8440,10 @@
     <row r="265">
       <c r="A265" s="4"/>
       <c r="B265" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D265" s="4"/>
       <c r="E265" s="6" t="s">
@@ -8462,13 +8459,13 @@
     <row r="266">
       <c r="A266" s="4"/>
       <c r="B266" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E266" s="6" t="s">
         <v>12</v>
@@ -8483,10 +8480,10 @@
     <row r="267">
       <c r="A267" s="4"/>
       <c r="B267" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D267" s="4"/>
       <c r="E267" s="6" t="s">
@@ -8502,10 +8499,10 @@
     <row r="268">
       <c r="A268" s="4"/>
       <c r="B268" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D268" s="4"/>
       <c r="E268" s="6" t="s">
@@ -8521,14 +8518,14 @@
     <row r="269">
       <c r="A269" s="4"/>
       <c r="B269" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D269" s="4"/>
       <c r="E269" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F269" s="4"/>
       <c r="G269" s="4"/>
@@ -8540,10 +8537,10 @@
     <row r="270">
       <c r="A270" s="4"/>
       <c r="B270" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D270" s="4"/>
       <c r="E270" s="6" t="s">
@@ -8559,10 +8556,10 @@
     <row r="271">
       <c r="A271" s="4"/>
       <c r="B271" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D271" s="4"/>
       <c r="E271" s="12" t="s">
@@ -8578,19 +8575,19 @@
     <row r="272">
       <c r="A272" s="4"/>
       <c r="B272" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C272" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="C272" s="6" t="s">
+      <c r="D272" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="E272" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F272" s="6" t="s">
         <v>494</v>
-      </c>
-      <c r="D272" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="E272" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="F272" s="6" t="s">
-        <v>495</v>
       </c>
       <c r="G272" s="4"/>
       <c r="H272" s="4"/>
@@ -8601,10 +8598,10 @@
     <row r="273">
       <c r="A273" s="4"/>
       <c r="B273" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C273" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="C273" s="6" t="s">
-        <v>497</v>
       </c>
       <c r="D273" s="4"/>
       <c r="E273" s="6" t="s">
@@ -8620,10 +8617,10 @@
     <row r="274">
       <c r="A274" s="4"/>
       <c r="B274" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D274" s="4"/>
       <c r="E274" s="6" t="s">
@@ -8639,10 +8636,10 @@
     <row r="275">
       <c r="A275" s="4"/>
       <c r="B275" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D275" s="4"/>
       <c r="E275" s="6" t="s">
@@ -8658,10 +8655,10 @@
     <row r="276">
       <c r="A276" s="4"/>
       <c r="B276" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C276" s="6" t="s">
         <v>500</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>501</v>
       </c>
       <c r="D276" s="4"/>
       <c r="E276" s="6" t="s">
@@ -8677,10 +8674,10 @@
     <row r="277">
       <c r="A277" s="4"/>
       <c r="B277" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C277" s="6" t="s">
         <v>502</v>
-      </c>
-      <c r="C277" s="6" t="s">
-        <v>503</v>
       </c>
       <c r="D277" s="4"/>
       <c r="E277" s="6" t="s">
@@ -8696,10 +8693,10 @@
     <row r="278">
       <c r="A278" s="4"/>
       <c r="B278" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D278" s="4"/>
       <c r="E278" s="6" t="s">
@@ -8715,10 +8712,10 @@
     <row r="279">
       <c r="A279" s="4"/>
       <c r="B279" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D279" s="4"/>
       <c r="E279" s="6" t="s">
@@ -8734,10 +8731,10 @@
     <row r="280">
       <c r="A280" s="4"/>
       <c r="B280" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D280" s="4"/>
       <c r="E280" s="6" t="s">
@@ -8753,10 +8750,10 @@
     <row r="281">
       <c r="A281" s="4"/>
       <c r="B281" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C281" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="C281" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="D281" s="4"/>
       <c r="E281" s="6" t="s">
@@ -8772,10 +8769,10 @@
     <row r="282">
       <c r="A282" s="4"/>
       <c r="B282" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C282" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="C282" s="6" t="s">
-        <v>510</v>
       </c>
       <c r="D282" s="4"/>
       <c r="E282" s="6" t="s">
@@ -8791,10 +8788,10 @@
     <row r="283">
       <c r="A283" s="4"/>
       <c r="B283" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D283" s="4"/>
       <c r="E283" s="6" t="s">
@@ -8810,14 +8807,14 @@
     <row r="284">
       <c r="A284" s="4"/>
       <c r="B284" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C284" s="6" t="s">
         <v>512</v>
-      </c>
-      <c r="C284" s="6" t="s">
-        <v>513</v>
       </c>
       <c r="D284" s="4"/>
       <c r="E284" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F284" s="4"/>
       <c r="G284" s="4"/>
@@ -8829,17 +8826,17 @@
     <row r="285">
       <c r="A285" s="4"/>
       <c r="B285" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="C285" s="6" t="s">
         <v>515</v>
-      </c>
-      <c r="C285" s="6" t="s">
-        <v>516</v>
       </c>
       <c r="D285" s="4"/>
       <c r="E285" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F285" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G285" s="4"/>
       <c r="H285" s="4"/>
@@ -8850,10 +8847,10 @@
     <row r="286">
       <c r="A286" s="4"/>
       <c r="B286" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D286" s="4"/>
       <c r="E286" s="6" t="s">
@@ -8869,10 +8866,10 @@
     <row r="287">
       <c r="A287" s="4"/>
       <c r="B287" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D287" s="4"/>
       <c r="E287" s="6" t="s">
@@ -8888,10 +8885,10 @@
     <row r="288">
       <c r="A288" s="4"/>
       <c r="B288" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D288" s="4"/>
       <c r="E288" s="6" t="s">
@@ -8907,17 +8904,17 @@
     <row r="289">
       <c r="A289" s="4"/>
       <c r="B289" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C289" s="6" t="s">
         <v>521</v>
-      </c>
-      <c r="C289" s="6" t="s">
-        <v>522</v>
       </c>
       <c r="D289" s="4"/>
       <c r="E289" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F289" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G289" s="4"/>
       <c r="H289" s="4"/>
@@ -8928,10 +8925,10 @@
     <row r="290">
       <c r="A290" s="4"/>
       <c r="B290" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C290" s="6" t="s">
         <v>524</v>
-      </c>
-      <c r="C290" s="6" t="s">
-        <v>525</v>
       </c>
       <c r="D290" s="4"/>
       <c r="E290" s="6" t="s">
@@ -8947,10 +8944,10 @@
     <row r="291">
       <c r="A291" s="4"/>
       <c r="B291" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C291" s="6" t="s">
         <v>526</v>
-      </c>
-      <c r="C291" s="6" t="s">
-        <v>527</v>
       </c>
       <c r="D291" s="4"/>
       <c r="E291" s="6" t="s">
@@ -8966,14 +8963,14 @@
     <row r="292">
       <c r="A292" s="4"/>
       <c r="B292" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D292" s="4"/>
       <c r="E292" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F292" s="4"/>
       <c r="G292" s="4"/>
@@ -8985,10 +8982,10 @@
     <row r="293">
       <c r="A293" s="4"/>
       <c r="B293" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C293" s="6" t="s">
         <v>529</v>
-      </c>
-      <c r="C293" s="6" t="s">
-        <v>530</v>
       </c>
       <c r="D293" s="4"/>
       <c r="E293" s="6" t="s">
@@ -9004,13 +9001,13 @@
     <row r="294">
       <c r="A294" s="4"/>
       <c r="B294" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="C294" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="C294" s="6" t="s">
-        <v>532</v>
-      </c>
       <c r="D294" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E294" s="6" t="s">
         <v>12</v>
@@ -9025,10 +9022,10 @@
     <row r="295">
       <c r="A295" s="4"/>
       <c r="B295" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C295" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="C295" s="6" t="s">
-        <v>534</v>
       </c>
       <c r="D295" s="4"/>
       <c r="E295" s="6" t="s">
@@ -9044,10 +9041,10 @@
     <row r="296">
       <c r="A296" s="4"/>
       <c r="B296" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C296" s="6" t="s">
         <v>535</v>
-      </c>
-      <c r="C296" s="6" t="s">
-        <v>536</v>
       </c>
       <c r="D296" s="4"/>
       <c r="E296" s="6" t="s">
@@ -9063,10 +9060,10 @@
     <row r="297">
       <c r="A297" s="4"/>
       <c r="B297" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D297" s="4"/>
       <c r="E297" s="6" t="s">
@@ -9082,10 +9079,10 @@
     <row r="298">
       <c r="A298" s="4"/>
       <c r="B298" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D298" s="4"/>
       <c r="E298" s="6" t="s">
@@ -9101,10 +9098,10 @@
     <row r="299">
       <c r="A299" s="4"/>
       <c r="B299" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D299" s="4"/>
       <c r="E299" s="6" t="s">
@@ -9120,10 +9117,10 @@
     <row r="300">
       <c r="A300" s="4"/>
       <c r="B300" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D300" s="4"/>
       <c r="E300" s="6" t="s">
@@ -9139,10 +9136,10 @@
     <row r="301">
       <c r="A301" s="4"/>
       <c r="B301" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D301" s="4"/>
       <c r="E301" s="6" t="s">
@@ -9158,10 +9155,10 @@
     <row r="302">
       <c r="A302" s="4"/>
       <c r="B302" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D302" s="4"/>
       <c r="E302" s="6" t="s">
@@ -9177,10 +9174,10 @@
     <row r="303">
       <c r="A303" s="4"/>
       <c r="B303" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D303" s="4"/>
       <c r="E303" s="6" t="s">
@@ -9196,10 +9193,10 @@
     <row r="304">
       <c r="A304" s="4"/>
       <c r="B304" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="C304" s="6" t="s">
         <v>544</v>
-      </c>
-      <c r="C304" s="6" t="s">
-        <v>545</v>
       </c>
       <c r="D304" s="4"/>
       <c r="E304" s="6" t="s">
@@ -9215,10 +9212,10 @@
     <row r="305">
       <c r="A305" s="4"/>
       <c r="B305" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C305" s="6" t="s">
         <v>546</v>
-      </c>
-      <c r="C305" s="6" t="s">
-        <v>547</v>
       </c>
       <c r="D305" s="4"/>
       <c r="E305" s="6" t="s">
@@ -9236,10 +9233,10 @@
         <v>100.0</v>
       </c>
       <c r="B306" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="C306" s="10" t="s">
         <v>548</v>
-      </c>
-      <c r="C306" s="10" t="s">
-        <v>549</v>
       </c>
       <c r="D306" s="11"/>
       <c r="E306" s="6" t="s">
@@ -9255,10 +9252,10 @@
     <row r="307">
       <c r="A307" s="4"/>
       <c r="B307" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="C307" s="6" t="s">
         <v>550</v>
-      </c>
-      <c r="C307" s="6" t="s">
-        <v>551</v>
       </c>
       <c r="D307" s="4"/>
       <c r="E307" s="6" t="s">
@@ -9274,10 +9271,10 @@
     <row r="308">
       <c r="A308" s="4"/>
       <c r="B308" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="C308" s="6" t="s">
         <v>552</v>
-      </c>
-      <c r="C308" s="6" t="s">
-        <v>553</v>
       </c>
       <c r="D308" s="4"/>
       <c r="E308" s="6" t="s">
@@ -9293,13 +9290,13 @@
     <row r="309">
       <c r="A309" s="4"/>
       <c r="B309" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C309" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="C309" s="6" t="s">
-        <v>555</v>
-      </c>
       <c r="D309" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E309" s="6" t="s">
         <v>12</v>
@@ -9314,10 +9311,10 @@
     <row r="310">
       <c r="A310" s="4"/>
       <c r="B310" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C310" s="6" t="s">
         <v>556</v>
-      </c>
-      <c r="C310" s="6" t="s">
-        <v>557</v>
       </c>
       <c r="D310" s="4"/>
       <c r="E310" s="6" t="s">
@@ -9333,14 +9330,14 @@
     <row r="311">
       <c r="A311" s="4"/>
       <c r="B311" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="C311" s="6" t="s">
         <v>558</v>
-      </c>
-      <c r="C311" s="6" t="s">
-        <v>559</v>
       </c>
       <c r="D311" s="4"/>
       <c r="E311" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F311" s="4"/>
       <c r="G311" s="4"/>
@@ -9352,10 +9349,10 @@
     <row r="312">
       <c r="A312" s="4"/>
       <c r="B312" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="C312" s="6" t="s">
         <v>561</v>
-      </c>
-      <c r="C312" s="6" t="s">
-        <v>562</v>
       </c>
       <c r="D312" s="4"/>
       <c r="E312" s="6" t="s">
@@ -9371,10 +9368,10 @@
     <row r="313">
       <c r="A313" s="4"/>
       <c r="B313" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="C313" s="6" t="s">
         <v>563</v>
-      </c>
-      <c r="C313" s="6" t="s">
-        <v>564</v>
       </c>
       <c r="D313" s="4"/>
       <c r="E313" s="6" t="s">
@@ -9390,10 +9387,10 @@
     <row r="314">
       <c r="A314" s="4"/>
       <c r="B314" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C314" s="6" t="s">
         <v>565</v>
-      </c>
-      <c r="C314" s="6" t="s">
-        <v>566</v>
       </c>
       <c r="D314" s="4"/>
       <c r="E314" s="6" t="s">
@@ -9409,10 +9406,10 @@
     <row r="315">
       <c r="A315" s="4"/>
       <c r="B315" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C315" s="6" t="s">
         <v>567</v>
-      </c>
-      <c r="C315" s="6" t="s">
-        <v>568</v>
       </c>
       <c r="D315" s="4"/>
       <c r="E315" s="6" t="s">
@@ -9428,14 +9425,14 @@
     <row r="316">
       <c r="A316" s="4"/>
       <c r="B316" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C316" s="6" t="s">
         <v>569</v>
-      </c>
-      <c r="C316" s="6" t="s">
-        <v>570</v>
       </c>
       <c r="D316" s="4"/>
       <c r="E316" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F316" s="4"/>
       <c r="G316" s="4"/>
@@ -9447,10 +9444,10 @@
     <row r="317">
       <c r="A317" s="4"/>
       <c r="B317" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C317" s="6" t="s">
         <v>572</v>
-      </c>
-      <c r="C317" s="6" t="s">
-        <v>573</v>
       </c>
       <c r="D317" s="4"/>
       <c r="E317" s="6" t="s">
@@ -9466,10 +9463,10 @@
     <row r="318">
       <c r="A318" s="4"/>
       <c r="B318" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="C318" s="6" t="s">
         <v>574</v>
-      </c>
-      <c r="C318" s="6" t="s">
-        <v>575</v>
       </c>
       <c r="D318" s="4"/>
       <c r="E318" s="6" t="s">
@@ -9485,10 +9482,10 @@
     <row r="319">
       <c r="A319" s="4"/>
       <c r="B319" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D319" s="4"/>
       <c r="E319" s="6" t="s">
@@ -9504,10 +9501,10 @@
     <row r="320">
       <c r="A320" s="4"/>
       <c r="B320" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D320" s="4"/>
       <c r="E320" s="6" t="s">
@@ -9523,10 +9520,10 @@
     <row r="321">
       <c r="A321" s="4"/>
       <c r="B321" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C321" s="6" t="s">
         <v>578</v>
-      </c>
-      <c r="C321" s="6" t="s">
-        <v>579</v>
       </c>
       <c r="D321" s="4"/>
       <c r="E321" s="6" t="s">
@@ -9542,10 +9539,10 @@
     <row r="322">
       <c r="A322" s="4"/>
       <c r="B322" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C322" s="6" t="s">
         <v>580</v>
-      </c>
-      <c r="C322" s="6" t="s">
-        <v>581</v>
       </c>
       <c r="D322" s="4"/>
       <c r="E322" s="6" t="s">
@@ -9561,14 +9558,14 @@
     <row r="323">
       <c r="A323" s="4"/>
       <c r="B323" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C323" s="6" t="s">
         <v>582</v>
-      </c>
-      <c r="C323" s="6" t="s">
-        <v>583</v>
       </c>
       <c r="D323" s="4"/>
       <c r="E323" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F323" s="4"/>
       <c r="G323" s="4"/>
@@ -9580,14 +9577,14 @@
     <row r="324">
       <c r="A324" s="4"/>
       <c r="B324" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="C324" s="6" t="s">
         <v>584</v>
-      </c>
-      <c r="C324" s="6" t="s">
-        <v>585</v>
       </c>
       <c r="D324" s="4"/>
       <c r="E324" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F324" s="4"/>
       <c r="G324" s="4"/>
@@ -9599,10 +9596,10 @@
     <row r="325">
       <c r="A325" s="4"/>
       <c r="B325" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C325" s="6" t="s">
         <v>587</v>
-      </c>
-      <c r="C325" s="6" t="s">
-        <v>588</v>
       </c>
       <c r="D325" s="4"/>
       <c r="E325" s="6" t="s">
@@ -9618,10 +9615,10 @@
     <row r="326">
       <c r="A326" s="4"/>
       <c r="B326" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C326" s="6" t="s">
         <v>589</v>
-      </c>
-      <c r="C326" s="6" t="s">
-        <v>590</v>
       </c>
       <c r="D326" s="4"/>
       <c r="E326" s="6" t="s">
@@ -9637,10 +9634,10 @@
     <row r="327">
       <c r="A327" s="4"/>
       <c r="B327" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C327" s="6" t="s">
         <v>591</v>
-      </c>
-      <c r="C327" s="6" t="s">
-        <v>592</v>
       </c>
       <c r="D327" s="4"/>
       <c r="E327" s="6" t="s">
@@ -9656,10 +9653,10 @@
     <row r="328">
       <c r="A328" s="4"/>
       <c r="B328" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="C328" s="6" t="s">
         <v>593</v>
-      </c>
-      <c r="C328" s="6" t="s">
-        <v>594</v>
       </c>
       <c r="D328" s="4"/>
       <c r="E328" s="6" t="s">
@@ -9675,14 +9672,14 @@
     <row r="329">
       <c r="A329" s="4"/>
       <c r="B329" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D329" s="4"/>
       <c r="E329" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F329" s="4"/>
       <c r="G329" s="4"/>
@@ -9694,10 +9691,10 @@
     <row r="330">
       <c r="A330" s="4"/>
       <c r="B330" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C330" s="6" t="s">
         <v>596</v>
-      </c>
-      <c r="C330" s="6" t="s">
-        <v>597</v>
       </c>
       <c r="D330" s="4"/>
       <c r="E330" s="6" t="s">
@@ -9713,17 +9710,17 @@
     <row r="331">
       <c r="A331" s="4"/>
       <c r="B331" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="C331" s="6" t="s">
         <v>598</v>
-      </c>
-      <c r="C331" s="6" t="s">
-        <v>599</v>
       </c>
       <c r="D331" s="4"/>
       <c r="E331" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F331" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G331" s="4"/>
       <c r="H331" s="4"/>
@@ -9734,19 +9731,19 @@
     <row r="332">
       <c r="A332" s="4"/>
       <c r="B332" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="C332" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="C332" s="6" t="s">
-        <v>602</v>
-      </c>
       <c r="D332" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E332" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F332" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G332" s="4"/>
       <c r="H332" s="4"/>
@@ -9757,10 +9754,10 @@
     <row r="333">
       <c r="A333" s="4"/>
       <c r="B333" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="C333" s="6" t="s">
         <v>604</v>
-      </c>
-      <c r="C333" s="6" t="s">
-        <v>605</v>
       </c>
       <c r="D333" s="4"/>
       <c r="E333" s="6" t="s">
@@ -9776,10 +9773,10 @@
     <row r="334">
       <c r="A334" s="4"/>
       <c r="B334" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="C334" s="6" t="s">
         <v>606</v>
-      </c>
-      <c r="C334" s="6" t="s">
-        <v>607</v>
       </c>
       <c r="D334" s="4"/>
       <c r="E334" s="6" t="s">
@@ -9795,13 +9792,13 @@
     <row r="335">
       <c r="A335" s="4"/>
       <c r="B335" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C335" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="C335" s="15" t="s">
-        <v>609</v>
-      </c>
       <c r="D335" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E335" s="6" t="s">
         <v>109</v>
@@ -9816,10 +9813,10 @@
     <row r="336">
       <c r="A336" s="4"/>
       <c r="B336" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="C336" s="6" t="s">
         <v>610</v>
-      </c>
-      <c r="C336" s="6" t="s">
-        <v>611</v>
       </c>
       <c r="D336" s="4"/>
       <c r="E336" s="6" t="s">
@@ -9835,10 +9832,10 @@
     <row r="337">
       <c r="A337" s="4"/>
       <c r="B337" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C337" s="6" t="s">
         <v>612</v>
-      </c>
-      <c r="C337" s="6" t="s">
-        <v>613</v>
       </c>
       <c r="D337" s="4"/>
       <c r="E337" s="6" t="s">
@@ -9854,10 +9851,10 @@
     <row r="338">
       <c r="A338" s="4"/>
       <c r="B338" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C338" s="6" t="s">
         <v>614</v>
-      </c>
-      <c r="C338" s="6" t="s">
-        <v>615</v>
       </c>
       <c r="D338" s="4"/>
       <c r="E338" s="6" t="s">
@@ -9873,10 +9870,10 @@
     <row r="339">
       <c r="A339" s="4"/>
       <c r="B339" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C339" s="6" t="s">
         <v>616</v>
-      </c>
-      <c r="C339" s="6" t="s">
-        <v>617</v>
       </c>
       <c r="D339" s="4"/>
       <c r="E339" s="6" t="s">
@@ -9892,10 +9889,10 @@
     <row r="340">
       <c r="A340" s="4"/>
       <c r="B340" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="C340" s="6" t="s">
         <v>618</v>
-      </c>
-      <c r="C340" s="6" t="s">
-        <v>619</v>
       </c>
       <c r="D340" s="4"/>
       <c r="E340" s="6" t="s">
@@ -9911,10 +9908,10 @@
     <row r="341">
       <c r="A341" s="4"/>
       <c r="B341" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="C341" s="6" t="s">
         <v>620</v>
-      </c>
-      <c r="C341" s="6" t="s">
-        <v>621</v>
       </c>
       <c r="D341" s="4"/>
       <c r="E341" s="6" t="s">
@@ -9930,14 +9927,14 @@
     <row r="342">
       <c r="A342" s="4"/>
       <c r="B342" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C342" s="6" t="s">
         <v>622</v>
-      </c>
-      <c r="C342" s="6" t="s">
-        <v>623</v>
       </c>
       <c r="D342" s="4"/>
       <c r="E342" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F342" s="4"/>
       <c r="G342" s="4"/>
@@ -9949,14 +9946,14 @@
     <row r="343">
       <c r="A343" s="4"/>
       <c r="B343" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="C343" s="10" t="s">
         <v>625</v>
-      </c>
-      <c r="C343" s="10" t="s">
-        <v>626</v>
       </c>
       <c r="D343" s="11"/>
       <c r="E343" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F343" s="4"/>
       <c r="G343" s="4"/>
@@ -9968,10 +9965,10 @@
     <row r="344">
       <c r="A344" s="4"/>
       <c r="B344" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="C344" s="6" t="s">
         <v>628</v>
-      </c>
-      <c r="C344" s="6" t="s">
-        <v>629</v>
       </c>
       <c r="D344" s="4"/>
       <c r="E344" s="6" t="s">
@@ -9987,10 +9984,10 @@
     <row r="345">
       <c r="A345" s="4"/>
       <c r="B345" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D345" s="4"/>
       <c r="E345" s="6" t="s">
@@ -10006,10 +10003,10 @@
     <row r="346">
       <c r="A346" s="4"/>
       <c r="B346" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D346" s="4"/>
       <c r="E346" s="6" t="s">
@@ -10025,10 +10022,10 @@
     <row r="347">
       <c r="A347" s="4"/>
       <c r="B347" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D347" s="4"/>
       <c r="E347" s="6" t="s">
@@ -10044,10 +10041,10 @@
     <row r="348">
       <c r="A348" s="4"/>
       <c r="B348" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D348" s="4"/>
       <c r="E348" s="6" t="s">
@@ -10063,10 +10060,10 @@
     <row r="349">
       <c r="A349" s="4"/>
       <c r="B349" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D349" s="4"/>
       <c r="E349" s="6" t="s">
@@ -10082,14 +10079,14 @@
     <row r="350">
       <c r="A350" s="4"/>
       <c r="B350" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D350" s="4"/>
       <c r="E350" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F350" s="4"/>
       <c r="G350" s="4"/>
@@ -10101,10 +10098,10 @@
     <row r="351">
       <c r="A351" s="4"/>
       <c r="B351" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D351" s="4"/>
       <c r="E351" s="6" t="s">
@@ -10120,10 +10117,10 @@
     <row r="352">
       <c r="A352" s="4"/>
       <c r="B352" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D352" s="4"/>
       <c r="E352" s="12" t="s">
@@ -10139,10 +10136,10 @@
     <row r="353">
       <c r="A353" s="4"/>
       <c r="B353" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C353" s="6" t="s">
         <v>638</v>
-      </c>
-      <c r="C353" s="6" t="s">
-        <v>639</v>
       </c>
       <c r="D353" s="4"/>
       <c r="E353" s="6" t="s">
@@ -10158,14 +10155,14 @@
     <row r="354">
       <c r="A354" s="4"/>
       <c r="B354" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="C354" s="6" t="s">
         <v>640</v>
-      </c>
-      <c r="C354" s="6" t="s">
-        <v>641</v>
       </c>
       <c r="D354" s="4"/>
       <c r="E354" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F354" s="4"/>
       <c r="G354" s="4"/>
@@ -10177,17 +10174,17 @@
     <row r="355">
       <c r="A355" s="4"/>
       <c r="B355" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="C355" s="6" t="s">
         <v>642</v>
-      </c>
-      <c r="C355" s="6" t="s">
-        <v>643</v>
       </c>
       <c r="D355" s="4"/>
       <c r="E355" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F355" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G355" s="4"/>
       <c r="H355" s="4"/>
@@ -10198,10 +10195,10 @@
     <row r="356">
       <c r="A356" s="4"/>
       <c r="B356" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D356" s="4"/>
       <c r="E356" s="6" t="s">
@@ -10217,10 +10214,10 @@
     <row r="357">
       <c r="A357" s="4"/>
       <c r="B357" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D357" s="4"/>
       <c r="E357" s="6" t="s">
@@ -10236,10 +10233,10 @@
     <row r="358">
       <c r="A358" s="4"/>
       <c r="B358" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D358" s="4"/>
       <c r="E358" s="6" t="s">
@@ -10255,10 +10252,10 @@
     <row r="359">
       <c r="A359" s="4"/>
       <c r="B359" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D359" s="4"/>
       <c r="E359" s="6" t="s">
@@ -10274,10 +10271,10 @@
     <row r="360">
       <c r="A360" s="4"/>
       <c r="B360" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D360" s="4"/>
       <c r="E360" s="6" t="s">
@@ -10293,10 +10290,10 @@
     <row r="361">
       <c r="A361" s="4"/>
       <c r="B361" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D361" s="4"/>
       <c r="E361" s="6" t="s">
@@ -10312,10 +10309,10 @@
     <row r="362">
       <c r="A362" s="4"/>
       <c r="B362" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D362" s="4"/>
       <c r="E362" s="6" t="s">
@@ -10331,10 +10328,10 @@
     <row r="363">
       <c r="A363" s="4"/>
       <c r="B363" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D363" s="4"/>
       <c r="E363" s="6" t="s">
@@ -10350,10 +10347,10 @@
     <row r="364">
       <c r="A364" s="4"/>
       <c r="B364" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D364" s="4"/>
       <c r="E364" s="6" t="s">
@@ -10369,10 +10366,10 @@
     <row r="365">
       <c r="A365" s="4"/>
       <c r="B365" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D365" s="4"/>
       <c r="E365" s="6" t="s">
@@ -10388,10 +10385,10 @@
     <row r="366">
       <c r="A366" s="4"/>
       <c r="B366" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D366" s="4"/>
       <c r="E366" s="6" t="s">
@@ -10407,10 +10404,10 @@
     <row r="367">
       <c r="A367" s="4"/>
       <c r="B367" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D367" s="4"/>
       <c r="E367" s="6" t="s">
@@ -10426,10 +10423,10 @@
     <row r="368">
       <c r="A368" s="4"/>
       <c r="B368" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D368" s="4"/>
       <c r="E368" s="6" t="s">
@@ -10445,10 +10442,10 @@
     <row r="369">
       <c r="A369" s="4"/>
       <c r="B369" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D369" s="4"/>
       <c r="E369" s="6" t="s">
@@ -10464,10 +10461,10 @@
     <row r="370">
       <c r="A370" s="4"/>
       <c r="B370" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D370" s="4"/>
       <c r="E370" s="6" t="s">
@@ -10483,10 +10480,10 @@
     <row r="371">
       <c r="A371" s="4"/>
       <c r="B371" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D371" s="4"/>
       <c r="E371" s="6" t="s">
@@ -10502,10 +10499,10 @@
     <row r="372">
       <c r="A372" s="4"/>
       <c r="B372" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D372" s="4"/>
       <c r="E372" s="6" t="s">
@@ -10521,10 +10518,10 @@
     <row r="373">
       <c r="A373" s="4"/>
       <c r="B373" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D373" s="4"/>
       <c r="E373" s="6" t="s">
@@ -10540,10 +10537,10 @@
     <row r="374">
       <c r="A374" s="4"/>
       <c r="B374" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D374" s="4"/>
       <c r="E374" s="6" t="s">
@@ -10559,10 +10556,10 @@
     <row r="375">
       <c r="A375" s="4"/>
       <c r="B375" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D375" s="4"/>
       <c r="E375" s="6" t="s">
@@ -10578,10 +10575,10 @@
     <row r="376">
       <c r="A376" s="4"/>
       <c r="B376" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D376" s="4"/>
       <c r="E376" s="6" t="s">
@@ -10597,10 +10594,10 @@
     <row r="377">
       <c r="A377" s="4"/>
       <c r="B377" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D377" s="4"/>
       <c r="E377" s="6" t="s">
@@ -10616,10 +10613,10 @@
     <row r="378">
       <c r="A378" s="4"/>
       <c r="B378" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="C378" s="6" t="s">
         <v>667</v>
-      </c>
-      <c r="C378" s="6" t="s">
-        <v>668</v>
       </c>
       <c r="D378" s="4"/>
       <c r="E378" s="6" t="s">
@@ -10635,13 +10632,13 @@
     <row r="379">
       <c r="A379" s="4"/>
       <c r="B379" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="C379" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="C379" s="6" t="s">
-        <v>670</v>
-      </c>
       <c r="D379" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E379" s="6" t="s">
         <v>12</v>
@@ -10656,10 +10653,10 @@
     <row r="380">
       <c r="A380" s="4"/>
       <c r="B380" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D380" s="4"/>
       <c r="E380" s="6" t="s">
@@ -10675,10 +10672,10 @@
     <row r="381">
       <c r="A381" s="4"/>
       <c r="B381" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D381" s="4"/>
       <c r="E381" s="6" t="s">
@@ -10694,10 +10691,10 @@
     <row r="382">
       <c r="A382" s="4"/>
       <c r="B382" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D382" s="4"/>
       <c r="E382" s="6" t="s">
@@ -10713,10 +10710,10 @@
     <row r="383">
       <c r="A383" s="4"/>
       <c r="B383" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D383" s="4"/>
       <c r="E383" s="6" t="s">
@@ -10732,10 +10729,10 @@
     <row r="384">
       <c r="A384" s="4"/>
       <c r="B384" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D384" s="4"/>
       <c r="E384" s="6" t="s">
@@ -10751,10 +10748,10 @@
     <row r="385">
       <c r="A385" s="4"/>
       <c r="B385" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="C385" s="6" t="s">
         <v>676</v>
-      </c>
-      <c r="C385" s="6" t="s">
-        <v>677</v>
       </c>
       <c r="D385" s="4"/>
       <c r="E385" s="6" t="s">
@@ -10770,10 +10767,10 @@
     <row r="386">
       <c r="A386" s="4"/>
       <c r="B386" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="C386" s="6" t="s">
         <v>678</v>
-      </c>
-      <c r="C386" s="6" t="s">
-        <v>679</v>
       </c>
       <c r="D386" s="4"/>
       <c r="E386" s="6" t="s">
@@ -10789,10 +10786,10 @@
     <row r="387">
       <c r="A387" s="4"/>
       <c r="B387" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="C387" s="6" t="s">
         <v>680</v>
-      </c>
-      <c r="C387" s="6" t="s">
-        <v>681</v>
       </c>
       <c r="D387" s="4"/>
       <c r="E387" s="6" t="s">
@@ -10808,13 +10805,13 @@
     <row r="388">
       <c r="A388" s="4"/>
       <c r="B388" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="C388" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="C388" s="6" t="s">
-        <v>683</v>
-      </c>
       <c r="D388" s="8" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E388" s="4" t="s">
         <v>8</v>
@@ -10831,10 +10828,10 @@
     <row r="389">
       <c r="A389" s="4"/>
       <c r="B389" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="C389" s="6" t="s">
         <v>684</v>
-      </c>
-      <c r="C389" s="6" t="s">
-        <v>685</v>
       </c>
       <c r="D389" s="4"/>
       <c r="E389" s="6" t="s">
@@ -10852,17 +10849,17 @@
         <v>1680.0</v>
       </c>
       <c r="B390" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="C390" s="10" t="s">
         <v>686</v>
-      </c>
-      <c r="C390" s="10" t="s">
-        <v>687</v>
       </c>
       <c r="D390" s="11"/>
       <c r="E390" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="F390" s="6" t="s">
         <v>688</v>
-      </c>
-      <c r="F390" s="6" t="s">
-        <v>689</v>
       </c>
       <c r="G390" s="4"/>
       <c r="H390" s="4"/>

--- a/幽灵歌单整理.xlsx
+++ b/幽灵歌单整理.xlsx
@@ -275,6 +275,9 @@
     <t>たぶん(大概)</t>
   </si>
   <si>
+    <t>日语,学习中</t>
+  </si>
+  <si>
     <t>月に浮かぶ物語(浮现于月色的故事)</t>
   </si>
   <si>
@@ -2073,9 +2076,6 @@
   </si>
   <si>
     <t>可不,HoneyWorks</t>
-  </si>
-  <si>
-    <t>日语,学习中</t>
   </si>
   <si>
     <t>1680是学歌的价格</t>
@@ -2966,7 +2966,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office Theme">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="6" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -4080,10 +4080,10 @@
     <row r="43">
       <c r="A43" s="4"/>
       <c r="B43" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>696</v>
@@ -4092,7 +4092,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -4103,10 +4103,10 @@
     <row r="44">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>697</v>
@@ -4124,10 +4124,10 @@
     <row r="45">
       <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="6" t="s">
@@ -4143,17 +4143,17 @@
     <row r="46">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -4164,10 +4164,10 @@
     <row r="47">
       <c r="A47" s="4"/>
       <c r="B47" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="6" t="s">
@@ -4183,10 +4183,10 @@
     <row r="48">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>698</v>
@@ -4204,10 +4204,10 @@
     <row r="49">
       <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="6" t="s">
@@ -4223,10 +4223,10 @@
     <row r="50">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="3" t="s">
@@ -4242,10 +4242,10 @@
     <row r="51">
       <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="6" t="s">
@@ -4261,16 +4261,16 @@
     <row r="52">
       <c r="A52" s="4"/>
       <c r="B52" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>699</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -4282,10 +4282,10 @@
     <row r="53">
       <c r="A53" s="4"/>
       <c r="B53" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="6" t="s">
@@ -4301,10 +4301,10 @@
     <row r="54">
       <c r="A54" s="4"/>
       <c r="B54" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="6" t="s">
@@ -4320,10 +4320,10 @@
     <row r="55">
       <c r="A55" s="4"/>
       <c r="B55" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="6" t="s">
@@ -4339,10 +4339,10 @@
     <row r="56">
       <c r="A56" s="4"/>
       <c r="B56" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="6" t="s">
@@ -4358,10 +4358,10 @@
     <row r="57">
       <c r="A57" s="4"/>
       <c r="B57" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="6" t="s">
@@ -4377,10 +4377,10 @@
     <row r="58">
       <c r="A58" s="4"/>
       <c r="B58" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="6" t="s">
@@ -4396,10 +4396,10 @@
     <row r="59">
       <c r="A59" s="4"/>
       <c r="B59" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="6" t="s">
@@ -4415,10 +4415,10 @@
     <row r="60">
       <c r="A60" s="4"/>
       <c r="B60" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>700</v>
@@ -4436,10 +4436,10 @@
     <row r="61">
       <c r="A61" s="4"/>
       <c r="B61" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="6" t="s">
@@ -4455,10 +4455,10 @@
     <row r="62">
       <c r="A62" s="4"/>
       <c r="B62" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>701</v>
@@ -4467,7 +4467,7 @@
         <v>48</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -4478,10 +4478,10 @@
     <row r="63">
       <c r="A63" s="4"/>
       <c r="B63" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="6" t="s">
@@ -4497,10 +4497,10 @@
     <row r="64">
       <c r="A64" s="4"/>
       <c r="B64" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="6" t="s">
@@ -4516,10 +4516,10 @@
     <row r="65">
       <c r="A65" s="4"/>
       <c r="B65" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="6" t="s">
@@ -4535,10 +4535,10 @@
     <row r="66">
       <c r="A66" s="4"/>
       <c r="B66" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="6" t="s">
@@ -4554,10 +4554,10 @@
     <row r="67">
       <c r="A67" s="4"/>
       <c r="B67" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="6" t="s">
@@ -4573,14 +4573,14 @@
     <row r="68">
       <c r="A68" s="4"/>
       <c r="B68" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -4592,14 +4592,14 @@
     <row r="69">
       <c r="A69" s="4"/>
       <c r="B69" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -4611,10 +4611,10 @@
     <row r="70">
       <c r="A70" s="4"/>
       <c r="B70" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="6" t="s">
@@ -4630,14 +4630,14 @@
     <row r="71">
       <c r="A71" s="4"/>
       <c r="B71" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -4649,10 +4649,10 @@
     <row r="72">
       <c r="A72" s="4"/>
       <c r="B72" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="6" t="s">
@@ -4668,10 +4668,10 @@
     <row r="73">
       <c r="A73" s="4"/>
       <c r="B73" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="6" t="s">
@@ -4687,10 +4687,10 @@
     <row r="74">
       <c r="A74" s="4"/>
       <c r="B74" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="6" t="s">
@@ -4706,10 +4706,10 @@
     <row r="75">
       <c r="A75" s="4"/>
       <c r="B75" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="6" t="s">
@@ -4725,10 +4725,10 @@
     <row r="76">
       <c r="A76" s="4"/>
       <c r="B76" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>702</v>
@@ -4746,10 +4746,10 @@
     <row r="77">
       <c r="A77" s="4"/>
       <c r="B77" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>703</v>
@@ -4767,10 +4767,10 @@
     <row r="78">
       <c r="A78" s="4"/>
       <c r="B78" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="6" t="s">
@@ -4786,10 +4786,10 @@
     <row r="79">
       <c r="A79" s="4"/>
       <c r="B79" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>704</v>
@@ -4807,10 +4807,10 @@
     <row r="80">
       <c r="A80" s="4"/>
       <c r="B80" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>705</v>
@@ -4828,10 +4828,10 @@
     <row r="81">
       <c r="A81" s="4"/>
       <c r="B81" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="6" t="s">
@@ -4847,10 +4847,10 @@
     <row r="82">
       <c r="A82" s="4"/>
       <c r="B82" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="6" t="s">
@@ -4866,10 +4866,10 @@
     <row r="83">
       <c r="A83" s="4"/>
       <c r="B83" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>706</v>
@@ -4878,7 +4878,7 @@
         <v>8</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -4889,10 +4889,10 @@
     <row r="84">
       <c r="A84" s="4"/>
       <c r="B84" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="6" t="s">
@@ -4908,10 +4908,10 @@
     <row r="85">
       <c r="A85" s="4"/>
       <c r="B85" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>707</v>
@@ -4929,10 +4929,10 @@
     <row r="86">
       <c r="A86" s="4"/>
       <c r="B86" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
@@ -4948,10 +4948,10 @@
     <row r="87">
       <c r="A87" s="4"/>
       <c r="B87" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="6" t="s">
@@ -4967,10 +4967,10 @@
     <row r="88">
       <c r="A88" s="4"/>
       <c r="B88" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="12" t="s">
@@ -4986,10 +4986,10 @@
     <row r="89">
       <c r="A89" s="4"/>
       <c r="B89" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="6" t="s">
@@ -5005,10 +5005,10 @@
     <row r="90">
       <c r="A90" s="4"/>
       <c r="B90" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="6" t="s">
@@ -5024,10 +5024,10 @@
     <row r="91">
       <c r="A91" s="4"/>
       <c r="B91" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="6" t="s">
@@ -5043,10 +5043,10 @@
     <row r="92">
       <c r="A92" s="4"/>
       <c r="B92" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="6" t="s">
@@ -5062,10 +5062,10 @@
     <row r="93">
       <c r="A93" s="4"/>
       <c r="B93" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="6" t="s">
@@ -5081,10 +5081,10 @@
     <row r="94">
       <c r="A94" s="4"/>
       <c r="B94" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>708</v>
@@ -5102,10 +5102,10 @@
     <row r="95">
       <c r="A95" s="4"/>
       <c r="B95" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>709</v>
@@ -5114,7 +5114,7 @@
         <v>12</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -5125,10 +5125,10 @@
     <row r="96">
       <c r="A96" s="4"/>
       <c r="B96" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="6" t="s">
@@ -5144,10 +5144,10 @@
     <row r="97">
       <c r="A97" s="4"/>
       <c r="B97" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="6" t="s">
@@ -5163,10 +5163,10 @@
     <row r="98">
       <c r="A98" s="4"/>
       <c r="B98" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="6" t="s">
@@ -5182,10 +5182,10 @@
     <row r="99">
       <c r="A99" s="4"/>
       <c r="B99" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="6" t="s">
@@ -5201,10 +5201,10 @@
     <row r="100">
       <c r="A100" s="4"/>
       <c r="B100" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="6" t="s">
@@ -5220,10 +5220,10 @@
     <row r="101">
       <c r="A101" s="4"/>
       <c r="B101" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="6" t="s">
@@ -5239,10 +5239,10 @@
     <row r="102">
       <c r="A102" s="4"/>
       <c r="B102" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="6" t="s">
@@ -5258,10 +5258,10 @@
     <row r="103">
       <c r="A103" s="4"/>
       <c r="B103" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="6" t="s">
@@ -5277,10 +5277,10 @@
     <row r="104">
       <c r="A104" s="4"/>
       <c r="B104" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="6" t="s">
@@ -5296,10 +5296,10 @@
     <row r="105">
       <c r="A105" s="4"/>
       <c r="B105" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="6" t="s">
@@ -5315,10 +5315,10 @@
     <row r="106">
       <c r="A106" s="4"/>
       <c r="B106" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>710</v>
@@ -5336,10 +5336,10 @@
     <row r="107">
       <c r="A107" s="4"/>
       <c r="B107" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="6" t="s">
@@ -5355,14 +5355,14 @@
     <row r="108">
       <c r="A108" s="4"/>
       <c r="B108" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
@@ -5374,10 +5374,10 @@
     <row r="109">
       <c r="A109" s="4"/>
       <c r="B109" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="6" t="s">
@@ -5393,10 +5393,10 @@
     <row r="110">
       <c r="A110" s="4"/>
       <c r="B110" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="6" t="s">
@@ -5412,10 +5412,10 @@
     <row r="111">
       <c r="A111" s="4"/>
       <c r="B111" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="6" t="s">
@@ -5431,10 +5431,10 @@
     <row r="112">
       <c r="A112" s="4"/>
       <c r="B112" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="6" t="s">
@@ -5450,10 +5450,10 @@
     <row r="113">
       <c r="A113" s="4"/>
       <c r="B113" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="12" t="s">
@@ -5469,10 +5469,10 @@
     <row r="114">
       <c r="A114" s="4"/>
       <c r="B114" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D114" s="13"/>
       <c r="E114" s="6" t="s">
@@ -5488,17 +5488,17 @@
     <row r="115">
       <c r="A115" s="4"/>
       <c r="B115" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -5509,10 +5509,10 @@
     <row r="116">
       <c r="A116" s="4"/>
       <c r="B116" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>711</v>
@@ -5530,14 +5530,14 @@
     <row r="117">
       <c r="A117" s="4"/>
       <c r="B117" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
@@ -5549,10 +5549,10 @@
     <row r="118">
       <c r="A118" s="4"/>
       <c r="B118" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="6" t="s">
@@ -5568,10 +5568,10 @@
     <row r="119">
       <c r="A119" s="4"/>
       <c r="B119" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="6" t="s">
@@ -5587,10 +5587,10 @@
     <row r="120">
       <c r="A120" s="4"/>
       <c r="B120" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="6" t="s">
@@ -5606,10 +5606,10 @@
     <row r="121">
       <c r="A121" s="4"/>
       <c r="B121" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="6" t="s">
@@ -5625,14 +5625,14 @@
     <row r="122">
       <c r="A122" s="4"/>
       <c r="B122" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
@@ -5644,10 +5644,10 @@
     <row r="123">
       <c r="A123" s="4"/>
       <c r="B123" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="6" t="s">
@@ -5663,10 +5663,10 @@
     <row r="124">
       <c r="A124" s="4"/>
       <c r="B124" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="6" t="s">
@@ -5682,14 +5682,14 @@
     <row r="125">
       <c r="A125" s="4"/>
       <c r="B125" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
@@ -5701,10 +5701,10 @@
     <row r="126">
       <c r="A126" s="4"/>
       <c r="B126" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="6" t="s">
@@ -5720,10 +5720,10 @@
     <row r="127">
       <c r="A127" s="4"/>
       <c r="B127" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="6" t="s">
@@ -5739,10 +5739,10 @@
     <row r="128">
       <c r="A128" s="4"/>
       <c r="B128" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="6" t="s">
@@ -5758,16 +5758,16 @@
     <row r="129">
       <c r="A129" s="4"/>
       <c r="B129" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>712</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
@@ -5779,10 +5779,10 @@
     <row r="130">
       <c r="A130" s="4"/>
       <c r="B130" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="6" t="s">
@@ -5798,10 +5798,10 @@
     <row r="131">
       <c r="A131" s="4"/>
       <c r="B131" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="6" t="s">
@@ -5817,14 +5817,14 @@
     <row r="132">
       <c r="A132" s="4"/>
       <c r="B132" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
@@ -5836,10 +5836,10 @@
     <row r="133">
       <c r="A133" s="4"/>
       <c r="B133" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="6" t="s">
@@ -5855,10 +5855,10 @@
     <row r="134">
       <c r="A134" s="4"/>
       <c r="B134" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="6" t="s">
@@ -5874,10 +5874,10 @@
     <row r="135">
       <c r="A135" s="4"/>
       <c r="B135" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>713</v>
@@ -5895,10 +5895,10 @@
     <row r="136">
       <c r="A136" s="4"/>
       <c r="B136" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>714</v>
@@ -5916,10 +5916,10 @@
     <row r="137">
       <c r="A137" s="4"/>
       <c r="B137" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>715</v>
@@ -5937,10 +5937,10 @@
     <row r="138">
       <c r="A138" s="4"/>
       <c r="B138" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="6" t="s">
@@ -5956,10 +5956,10 @@
     <row r="139">
       <c r="A139" s="4"/>
       <c r="B139" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="6" t="s">
@@ -5975,10 +5975,10 @@
     <row r="140">
       <c r="A140" s="4"/>
       <c r="B140" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C140" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>267</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="6" t="s">
@@ -5994,14 +5994,14 @@
     <row r="141">
       <c r="A141" s="4"/>
       <c r="B141" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
@@ -6013,16 +6013,16 @@
     <row r="142">
       <c r="A142" s="4"/>
       <c r="B142" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>716</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
@@ -6034,10 +6034,10 @@
     <row r="143">
       <c r="A143" s="4"/>
       <c r="B143" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="3" t="s">
@@ -6053,10 +6053,10 @@
     <row r="144">
       <c r="A144" s="4"/>
       <c r="B144" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="6" t="s">
@@ -6072,10 +6072,10 @@
     <row r="145">
       <c r="A145" s="4"/>
       <c r="B145" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="6" t="s">
@@ -6091,10 +6091,10 @@
     <row r="146">
       <c r="A146" s="4"/>
       <c r="B146" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C146" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="6" t="s">
@@ -6110,10 +6110,10 @@
     <row r="147">
       <c r="A147" s="4"/>
       <c r="B147" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="6" t="s">
@@ -6129,10 +6129,10 @@
     <row r="148">
       <c r="A148" s="4"/>
       <c r="B148" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="6" t="s">
@@ -6148,10 +6148,10 @@
     <row r="149">
       <c r="A149" s="4"/>
       <c r="B149" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="6" t="s">
@@ -6167,17 +6167,17 @@
     <row r="150">
       <c r="A150" s="4"/>
       <c r="B150" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
@@ -6188,17 +6188,17 @@
     <row r="151">
       <c r="A151" s="4"/>
       <c r="B151" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
@@ -6209,10 +6209,10 @@
     <row r="152">
       <c r="A152" s="4"/>
       <c r="B152" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="6" t="s">
@@ -6228,10 +6228,10 @@
     <row r="153">
       <c r="A153" s="4"/>
       <c r="B153" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C153" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>295</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="6" t="s">
@@ -6247,10 +6247,10 @@
     <row r="154">
       <c r="A154" s="4"/>
       <c r="B154" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D154" s="4"/>
       <c r="E154" s="6" t="s">
@@ -6266,17 +6266,17 @@
     <row r="155">
       <c r="A155" s="4"/>
       <c r="B155" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
@@ -6287,10 +6287,10 @@
     <row r="156">
       <c r="A156" s="4"/>
       <c r="B156" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="6" t="s">
@@ -6306,14 +6306,14 @@
     <row r="157">
       <c r="A157" s="4"/>
       <c r="B157" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
@@ -6325,14 +6325,14 @@
     <row r="158">
       <c r="A158" s="4"/>
       <c r="B158" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
@@ -6344,10 +6344,10 @@
     <row r="159">
       <c r="A159" s="4"/>
       <c r="B159" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D159" s="4"/>
       <c r="E159" s="6" t="s">
@@ -6363,10 +6363,10 @@
     <row r="160">
       <c r="A160" s="4"/>
       <c r="B160" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="6" t="s">
@@ -6382,10 +6382,10 @@
     <row r="161">
       <c r="A161" s="4"/>
       <c r="B161" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="6" t="s">
@@ -6401,10 +6401,10 @@
     <row r="162">
       <c r="A162" s="4"/>
       <c r="B162" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="6" t="s">
@@ -6420,10 +6420,10 @@
     <row r="163">
       <c r="A163" s="4"/>
       <c r="B163" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="6" t="s">
@@ -6439,10 +6439,10 @@
     <row r="164">
       <c r="A164" s="4"/>
       <c r="B164" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="6" t="s">
@@ -6458,10 +6458,10 @@
     <row r="165">
       <c r="A165" s="4"/>
       <c r="B165" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="6" t="s">
@@ -6477,10 +6477,10 @@
     <row r="166">
       <c r="A166" s="4"/>
       <c r="B166" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="6" t="s">
@@ -6496,10 +6496,10 @@
     <row r="167">
       <c r="A167" s="4"/>
       <c r="B167" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D167" s="4"/>
       <c r="E167" s="6" t="s">
@@ -6515,10 +6515,10 @@
     <row r="168">
       <c r="A168" s="4"/>
       <c r="B168" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="6" t="s">
@@ -6534,10 +6534,10 @@
     <row r="169">
       <c r="A169" s="4"/>
       <c r="B169" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="6" t="s">
@@ -6553,10 +6553,10 @@
     <row r="170">
       <c r="A170" s="4"/>
       <c r="B170" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C170" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>317</v>
       </c>
       <c r="D170" s="4"/>
       <c r="E170" s="6" t="s">
@@ -6572,10 +6572,10 @@
     <row r="171">
       <c r="A171" s="4"/>
       <c r="B171" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D171" s="4"/>
       <c r="E171" s="6" t="s">
@@ -6591,10 +6591,10 @@
     <row r="172">
       <c r="A172" s="4"/>
       <c r="B172" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D172" s="4"/>
       <c r="E172" s="6" t="s">
@@ -6610,10 +6610,10 @@
     <row r="173">
       <c r="A173" s="4"/>
       <c r="B173" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D173" s="4"/>
       <c r="E173" s="6" t="s">
@@ -6629,10 +6629,10 @@
     <row r="174">
       <c r="A174" s="4"/>
       <c r="B174" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>717</v>
@@ -6641,7 +6641,7 @@
         <v>8</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
@@ -6652,17 +6652,17 @@
     <row r="175">
       <c r="A175" s="4"/>
       <c r="B175" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D175" s="4"/>
       <c r="E175" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
@@ -6673,10 +6673,10 @@
     <row r="176">
       <c r="A176" s="4"/>
       <c r="B176" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D176" s="8" t="s">
         <v>718</v>
@@ -6694,10 +6694,10 @@
     <row r="177">
       <c r="A177" s="4"/>
       <c r="B177" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D177" s="8" t="s">
         <v>719</v>
@@ -6715,10 +6715,10 @@
     <row r="178">
       <c r="A178" s="4"/>
       <c r="B178" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D178" s="4"/>
       <c r="E178" s="6" t="s">
@@ -6734,10 +6734,10 @@
     <row r="179">
       <c r="A179" s="4"/>
       <c r="B179" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D179" s="4"/>
       <c r="E179" s="6" t="s">
@@ -6753,10 +6753,10 @@
     <row r="180">
       <c r="A180" s="4"/>
       <c r="B180" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D180" s="8" t="s">
         <v>720</v>
@@ -6774,17 +6774,17 @@
     <row r="181">
       <c r="A181" s="4"/>
       <c r="B181" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D181" s="4"/>
       <c r="E181" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
@@ -6795,10 +6795,10 @@
     <row r="182">
       <c r="A182" s="4"/>
       <c r="B182" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="12" t="s">
@@ -6814,17 +6814,17 @@
     <row r="183">
       <c r="A183" s="4"/>
       <c r="B183" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D183" s="4"/>
       <c r="E183" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
@@ -6835,10 +6835,10 @@
     <row r="184">
       <c r="A184" s="4"/>
       <c r="B184" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D184" s="8" t="s">
         <v>721</v>
@@ -6856,10 +6856,10 @@
     <row r="185">
       <c r="A185" s="4"/>
       <c r="B185" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D185" s="8" t="s">
         <v>722</v>
@@ -6877,10 +6877,10 @@
     <row r="186">
       <c r="A186" s="4"/>
       <c r="B186" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D186" s="8" t="s">
         <v>723</v>
@@ -6889,7 +6889,7 @@
         <v>39</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
@@ -6900,10 +6900,10 @@
     <row r="187">
       <c r="A187" s="4"/>
       <c r="B187" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D187" s="4"/>
       <c r="E187" s="6" t="s">
@@ -6919,10 +6919,10 @@
     <row r="188">
       <c r="A188" s="4"/>
       <c r="B188" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D188" s="4"/>
       <c r="E188" s="6" t="s">
@@ -6938,10 +6938,10 @@
     <row r="189">
       <c r="A189" s="4"/>
       <c r="B189" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D189" s="4"/>
       <c r="E189" s="6" t="s">
@@ -6957,10 +6957,10 @@
     <row r="190">
       <c r="A190" s="4"/>
       <c r="B190" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D190" s="4"/>
       <c r="E190" s="6" t="s">
@@ -6976,10 +6976,10 @@
     <row r="191">
       <c r="A191" s="4"/>
       <c r="B191" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D191" s="4"/>
       <c r="E191" s="6" t="s">
@@ -6995,17 +6995,17 @@
     <row r="192">
       <c r="A192" s="4"/>
       <c r="B192" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D192" s="4"/>
       <c r="E192" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
@@ -7016,10 +7016,10 @@
     <row r="193">
       <c r="A193" s="4"/>
       <c r="B193" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D193" s="4"/>
       <c r="E193" s="6" t="s">
@@ -7035,10 +7035,10 @@
     <row r="194">
       <c r="A194" s="4"/>
       <c r="B194" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D194" s="4"/>
       <c r="E194" s="6" t="s">
@@ -7054,14 +7054,14 @@
     <row r="195">
       <c r="A195" s="4"/>
       <c r="B195" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D195" s="4"/>
       <c r="E195" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
@@ -7073,10 +7073,10 @@
     <row r="196">
       <c r="A196" s="4"/>
       <c r="B196" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D196" s="8" t="s">
         <v>724</v>
@@ -7094,10 +7094,10 @@
     <row r="197">
       <c r="A197" s="4"/>
       <c r="B197" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C197" s="6" t="s">
         <v>369</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>368</v>
       </c>
       <c r="D197" s="4"/>
       <c r="E197" s="6" t="s">
@@ -7113,10 +7113,10 @@
     <row r="198">
       <c r="A198" s="4"/>
       <c r="B198" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D198" s="4"/>
       <c r="E198" s="6" t="s">
@@ -7132,10 +7132,10 @@
     <row r="199">
       <c r="A199" s="4"/>
       <c r="B199" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D199" s="4"/>
       <c r="E199" s="6" t="s">
@@ -7151,10 +7151,10 @@
     <row r="200">
       <c r="A200" s="4"/>
       <c r="B200" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D200" s="8" t="s">
         <v>725</v>
@@ -7172,10 +7172,10 @@
     <row r="201">
       <c r="A201" s="4"/>
       <c r="B201" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D201" s="4"/>
       <c r="E201" s="6" t="s">
@@ -7191,10 +7191,10 @@
     <row r="202">
       <c r="A202" s="4"/>
       <c r="B202" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D202" s="8" t="s">
         <v>726</v>
@@ -7212,10 +7212,10 @@
     <row r="203">
       <c r="A203" s="4"/>
       <c r="B203" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D203" s="4"/>
       <c r="E203" s="6" t="s">
@@ -7231,10 +7231,10 @@
     <row r="204">
       <c r="A204" s="4"/>
       <c r="B204" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D204" s="4"/>
       <c r="E204" s="6" t="s">
@@ -7250,14 +7250,14 @@
     <row r="205">
       <c r="A205" s="4"/>
       <c r="B205" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D205" s="4"/>
       <c r="E205" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
@@ -7269,10 +7269,10 @@
     <row r="206">
       <c r="A206" s="4"/>
       <c r="B206" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D206" s="8" t="s">
         <v>727</v>
@@ -7292,10 +7292,10 @@
         <v>200.0</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D207" s="8" t="s">
         <v>728</v>
@@ -7313,14 +7313,14 @@
     <row r="208">
       <c r="A208" s="4"/>
       <c r="B208" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D208" s="4"/>
       <c r="E208" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
@@ -7332,10 +7332,10 @@
     <row r="209">
       <c r="A209" s="4"/>
       <c r="B209" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D209" s="4"/>
       <c r="E209" s="6" t="s">
@@ -7351,10 +7351,10 @@
     <row r="210">
       <c r="A210" s="4"/>
       <c r="B210" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D210" s="8" t="s">
         <v>729</v>
@@ -7372,14 +7372,14 @@
     <row r="211">
       <c r="A211" s="4"/>
       <c r="B211" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D211" s="4"/>
       <c r="E211" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
@@ -7391,17 +7391,17 @@
     <row r="212">
       <c r="A212" s="4"/>
       <c r="B212" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D212" s="4"/>
       <c r="E212" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
@@ -7412,10 +7412,10 @@
     <row r="213">
       <c r="A213" s="4"/>
       <c r="B213" s="9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C213" s="15" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D213" s="8" t="s">
         <v>730</v>
@@ -7433,10 +7433,10 @@
     <row r="214">
       <c r="A214" s="4"/>
       <c r="B214" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C214" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="D214" s="4"/>
       <c r="E214" s="6" t="s">
@@ -7452,10 +7452,10 @@
     <row r="215">
       <c r="A215" s="4"/>
       <c r="B215" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D215" s="8" t="s">
         <v>731</v>
@@ -7473,10 +7473,10 @@
     <row r="216">
       <c r="A216" s="4"/>
       <c r="B216" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D216" s="4"/>
       <c r="E216" s="6" t="s">
@@ -7492,10 +7492,10 @@
     <row r="217">
       <c r="A217" s="4"/>
       <c r="B217" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C217" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="C217" s="6" t="s">
-        <v>392</v>
       </c>
       <c r="D217" s="4"/>
       <c r="E217" s="6" t="s">
@@ -7511,10 +7511,10 @@
     <row r="218">
       <c r="A218" s="4"/>
       <c r="B218" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D218" s="4"/>
       <c r="E218" s="6" t="s">
@@ -7530,10 +7530,10 @@
     <row r="219">
       <c r="A219" s="4"/>
       <c r="B219" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D219" s="8" t="s">
         <v>732</v>
@@ -7551,10 +7551,10 @@
     <row r="220">
       <c r="A220" s="4"/>
       <c r="B220" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D220" s="4"/>
       <c r="E220" s="6" t="s">
@@ -7570,10 +7570,10 @@
     <row r="221">
       <c r="A221" s="4"/>
       <c r="B221" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D221" s="4"/>
       <c r="E221" s="6" t="s">
@@ -7589,10 +7589,10 @@
     <row r="222">
       <c r="A222" s="4"/>
       <c r="B222" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D222" s="4"/>
       <c r="E222" s="6" t="s">
@@ -7608,10 +7608,10 @@
     <row r="223">
       <c r="A223" s="4"/>
       <c r="B223" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C223" s="6" t="s">
         <v>403</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>402</v>
       </c>
       <c r="D223" s="8" t="s">
         <v>733</v>
@@ -7629,10 +7629,10 @@
     <row r="224">
       <c r="A224" s="4"/>
       <c r="B224" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D224" s="4"/>
       <c r="E224" s="6" t="s">
@@ -7648,10 +7648,10 @@
     <row r="225">
       <c r="A225" s="4"/>
       <c r="B225" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D225" s="8" t="s">
         <v>734</v>
@@ -7669,10 +7669,10 @@
     <row r="226">
       <c r="A226" s="4"/>
       <c r="B226" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D226" s="8" t="s">
         <v>735</v>
@@ -7690,10 +7690,10 @@
     <row r="227">
       <c r="A227" s="4"/>
       <c r="B227" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D227" s="4"/>
       <c r="E227" s="6" t="s">
@@ -7709,10 +7709,10 @@
     <row r="228">
       <c r="A228" s="4"/>
       <c r="B228" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D228" s="4"/>
       <c r="E228" s="6" t="s">
@@ -7728,17 +7728,17 @@
     <row r="229">
       <c r="A229" s="4"/>
       <c r="B229" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D229" s="4"/>
       <c r="E229" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G229" s="4"/>
       <c r="H229" s="4"/>
@@ -7749,10 +7749,10 @@
     <row r="230">
       <c r="A230" s="4"/>
       <c r="B230" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D230" s="8" t="s">
         <v>736</v>
@@ -7770,10 +7770,10 @@
     <row r="231">
       <c r="A231" s="4"/>
       <c r="B231" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D231" s="8" t="s">
         <v>737</v>
@@ -7782,7 +7782,7 @@
         <v>8</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G231" s="4"/>
       <c r="H231" s="4"/>
@@ -7793,10 +7793,10 @@
     <row r="232">
       <c r="A232" s="4"/>
       <c r="B232" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D232" s="4"/>
       <c r="E232" s="6" t="s">
@@ -7812,10 +7812,10 @@
     <row r="233">
       <c r="A233" s="4"/>
       <c r="B233" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C233" s="6" t="s">
         <v>424</v>
-      </c>
-      <c r="C233" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="D233" s="4"/>
       <c r="E233" s="6" t="s">
@@ -7831,10 +7831,10 @@
     <row r="234">
       <c r="A234" s="4"/>
       <c r="B234" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D234" s="4"/>
       <c r="E234" s="6" t="s">
@@ -7850,10 +7850,10 @@
     <row r="235">
       <c r="A235" s="4"/>
       <c r="B235" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D235" s="8" t="s">
         <v>738</v>
@@ -7871,10 +7871,10 @@
     <row r="236">
       <c r="A236" s="4"/>
       <c r="B236" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D236" s="4"/>
       <c r="E236" s="6" t="s">
@@ -7890,10 +7890,10 @@
     <row r="237">
       <c r="A237" s="4"/>
       <c r="B237" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D237" s="4"/>
       <c r="E237" s="6" t="s">
@@ -7909,10 +7909,10 @@
     <row r="238">
       <c r="A238" s="4"/>
       <c r="B238" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D238" s="4"/>
       <c r="E238" s="6" t="s">
@@ -7928,10 +7928,10 @@
     <row r="239">
       <c r="A239" s="4"/>
       <c r="B239" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D239" s="4"/>
       <c r="E239" s="6" t="s">
@@ -7947,10 +7947,10 @@
     <row r="240">
       <c r="A240" s="4"/>
       <c r="B240" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C240" s="6" t="s">
         <v>436</v>
-      </c>
-      <c r="C240" s="6" t="s">
-        <v>435</v>
       </c>
       <c r="D240" s="4"/>
       <c r="E240" s="6" t="s">
@@ -7966,10 +7966,10 @@
     <row r="241">
       <c r="A241" s="4"/>
       <c r="B241" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D241" s="4"/>
       <c r="E241" s="6" t="s">
@@ -7985,10 +7985,10 @@
     <row r="242">
       <c r="A242" s="4"/>
       <c r="B242" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D242" s="4"/>
       <c r="E242" s="6" t="s">
@@ -8004,10 +8004,10 @@
     <row r="243">
       <c r="A243" s="4"/>
       <c r="B243" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D243" s="4"/>
       <c r="E243" s="6" t="s">
@@ -8023,19 +8023,19 @@
     <row r="244">
       <c r="A244" s="4"/>
       <c r="B244" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D244" s="8" t="s">
         <v>739</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
@@ -8046,10 +8046,10 @@
     <row r="245">
       <c r="A245" s="4"/>
       <c r="B245" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D245" s="4"/>
       <c r="E245" s="6" t="s">
@@ -8067,17 +8067,17 @@
         <v>200.0</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D246" s="4"/>
       <c r="E246" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G246" s="4"/>
       <c r="H246" s="4"/>
@@ -8088,10 +8088,10 @@
     <row r="247">
       <c r="A247" s="4"/>
       <c r="B247" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D247" s="4"/>
       <c r="E247" s="6" t="s">
@@ -8107,10 +8107,10 @@
     <row r="248">
       <c r="A248" s="4"/>
       <c r="B248" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D248" s="4"/>
       <c r="E248" s="6" t="s">
@@ -8126,17 +8126,17 @@
     <row r="249">
       <c r="A249" s="4"/>
       <c r="B249" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D249" s="4"/>
       <c r="E249" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G249" s="4"/>
       <c r="H249" s="4"/>
@@ -8147,10 +8147,10 @@
     <row r="250">
       <c r="A250" s="4"/>
       <c r="B250" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D250" s="4"/>
       <c r="E250" s="6" t="s">
@@ -8166,10 +8166,10 @@
     <row r="251">
       <c r="A251" s="4"/>
       <c r="B251" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D251" s="4"/>
       <c r="E251" s="6" t="s">
@@ -8185,10 +8185,10 @@
     <row r="252">
       <c r="A252" s="4"/>
       <c r="B252" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C252" s="6" t="s">
         <v>459</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>458</v>
       </c>
       <c r="D252" s="4"/>
       <c r="E252" s="6" t="s">
@@ -8204,10 +8204,10 @@
     <row r="253">
       <c r="A253" s="4"/>
       <c r="B253" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D253" s="8" t="s">
         <v>740</v>
@@ -8216,7 +8216,7 @@
         <v>8</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G253" s="4"/>
       <c r="H253" s="4"/>
@@ -8227,10 +8227,10 @@
     <row r="254">
       <c r="A254" s="4"/>
       <c r="B254" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D254" s="4"/>
       <c r="E254" s="6" t="s">
@@ -8246,10 +8246,10 @@
     <row r="255">
       <c r="A255" s="4"/>
       <c r="B255" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D255" s="4"/>
       <c r="E255" s="6" t="s">
@@ -8265,17 +8265,17 @@
     <row r="256">
       <c r="A256" s="4"/>
       <c r="B256" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D256" s="4"/>
       <c r="E256" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G256" s="4"/>
       <c r="H256" s="4"/>
@@ -8286,10 +8286,10 @@
     <row r="257">
       <c r="A257" s="4"/>
       <c r="B257" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D257" s="8" t="s">
         <v>741</v>
@@ -8307,10 +8307,10 @@
     <row r="258">
       <c r="A258" s="4"/>
       <c r="B258" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D258" s="4"/>
       <c r="E258" s="6" t="s">
@@ -8326,10 +8326,10 @@
     <row r="259">
       <c r="A259" s="4"/>
       <c r="B259" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D259" s="4"/>
       <c r="E259" s="6" t="s">
@@ -8345,10 +8345,10 @@
     <row r="260">
       <c r="A260" s="4"/>
       <c r="B260" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D260" s="4"/>
       <c r="E260" s="6" t="s">
@@ -8364,10 +8364,10 @@
     <row r="261">
       <c r="A261" s="4"/>
       <c r="B261" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C261" s="6" t="s">
         <v>478</v>
-      </c>
-      <c r="C261" s="6" t="s">
-        <v>477</v>
       </c>
       <c r="D261" s="4"/>
       <c r="E261" s="6" t="s">
@@ -8383,10 +8383,10 @@
     <row r="262">
       <c r="A262" s="4"/>
       <c r="B262" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D262" s="4"/>
       <c r="E262" s="6" t="s">
@@ -8402,10 +8402,10 @@
     <row r="263">
       <c r="A263" s="4"/>
       <c r="B263" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D263" s="4"/>
       <c r="E263" s="6" t="s">
@@ -8421,10 +8421,10 @@
     <row r="264">
       <c r="A264" s="4"/>
       <c r="B264" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C264" s="6" t="s">
         <v>483</v>
-      </c>
-      <c r="C264" s="6" t="s">
-        <v>482</v>
       </c>
       <c r="D264" s="4"/>
       <c r="E264" s="6" t="s">
@@ -8440,10 +8440,10 @@
     <row r="265">
       <c r="A265" s="4"/>
       <c r="B265" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D265" s="4"/>
       <c r="E265" s="6" t="s">
@@ -8459,10 +8459,10 @@
     <row r="266">
       <c r="A266" s="4"/>
       <c r="B266" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D266" s="8" t="s">
         <v>742</v>
@@ -8480,10 +8480,10 @@
     <row r="267">
       <c r="A267" s="4"/>
       <c r="B267" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D267" s="4"/>
       <c r="E267" s="6" t="s">
@@ -8499,10 +8499,10 @@
     <row r="268">
       <c r="A268" s="4"/>
       <c r="B268" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D268" s="4"/>
       <c r="E268" s="6" t="s">
@@ -8518,14 +8518,14 @@
     <row r="269">
       <c r="A269" s="4"/>
       <c r="B269" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D269" s="4"/>
       <c r="E269" s="6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F269" s="4"/>
       <c r="G269" s="4"/>
@@ -8537,10 +8537,10 @@
     <row r="270">
       <c r="A270" s="4"/>
       <c r="B270" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D270" s="4"/>
       <c r="E270" s="6" t="s">
@@ -8556,10 +8556,10 @@
     <row r="271">
       <c r="A271" s="4"/>
       <c r="B271" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D271" s="4"/>
       <c r="E271" s="12" t="s">
@@ -8575,19 +8575,19 @@
     <row r="272">
       <c r="A272" s="4"/>
       <c r="B272" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D272" s="8" t="s">
         <v>743</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F272" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G272" s="4"/>
       <c r="H272" s="4"/>
@@ -8598,10 +8598,10 @@
     <row r="273">
       <c r="A273" s="4"/>
       <c r="B273" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D273" s="4"/>
       <c r="E273" s="6" t="s">
@@ -8617,10 +8617,10 @@
     <row r="274">
       <c r="A274" s="4"/>
       <c r="B274" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C274" s="6" t="s">
         <v>497</v>
-      </c>
-      <c r="C274" s="6" t="s">
-        <v>496</v>
       </c>
       <c r="D274" s="4"/>
       <c r="E274" s="6" t="s">
@@ -8636,10 +8636,10 @@
     <row r="275">
       <c r="A275" s="4"/>
       <c r="B275" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D275" s="4"/>
       <c r="E275" s="6" t="s">
@@ -8655,10 +8655,10 @@
     <row r="276">
       <c r="A276" s="4"/>
       <c r="B276" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D276" s="4"/>
       <c r="E276" s="6" t="s">
@@ -8674,10 +8674,10 @@
     <row r="277">
       <c r="A277" s="4"/>
       <c r="B277" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D277" s="4"/>
       <c r="E277" s="6" t="s">
@@ -8693,10 +8693,10 @@
     <row r="278">
       <c r="A278" s="4"/>
       <c r="B278" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C278" s="6" t="s">
         <v>503</v>
-      </c>
-      <c r="C278" s="6" t="s">
-        <v>502</v>
       </c>
       <c r="D278" s="4"/>
       <c r="E278" s="6" t="s">
@@ -8712,10 +8712,10 @@
     <row r="279">
       <c r="A279" s="4"/>
       <c r="B279" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D279" s="4"/>
       <c r="E279" s="6" t="s">
@@ -8731,10 +8731,10 @@
     <row r="280">
       <c r="A280" s="4"/>
       <c r="B280" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D280" s="4"/>
       <c r="E280" s="6" t="s">
@@ -8750,10 +8750,10 @@
     <row r="281">
       <c r="A281" s="4"/>
       <c r="B281" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D281" s="4"/>
       <c r="E281" s="6" t="s">
@@ -8769,10 +8769,10 @@
     <row r="282">
       <c r="A282" s="4"/>
       <c r="B282" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D282" s="4"/>
       <c r="E282" s="6" t="s">
@@ -8788,10 +8788,10 @@
     <row r="283">
       <c r="A283" s="4"/>
       <c r="B283" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C283" s="6" t="s">
         <v>510</v>
-      </c>
-      <c r="C283" s="6" t="s">
-        <v>509</v>
       </c>
       <c r="D283" s="4"/>
       <c r="E283" s="6" t="s">
@@ -8807,14 +8807,14 @@
     <row r="284">
       <c r="A284" s="4"/>
       <c r="B284" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D284" s="4"/>
       <c r="E284" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F284" s="4"/>
       <c r="G284" s="4"/>
@@ -8826,17 +8826,17 @@
     <row r="285">
       <c r="A285" s="4"/>
       <c r="B285" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D285" s="4"/>
       <c r="E285" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F285" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G285" s="4"/>
       <c r="H285" s="4"/>
@@ -8847,10 +8847,10 @@
     <row r="286">
       <c r="A286" s="4"/>
       <c r="B286" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D286" s="4"/>
       <c r="E286" s="6" t="s">
@@ -8866,10 +8866,10 @@
     <row r="287">
       <c r="A287" s="4"/>
       <c r="B287" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D287" s="4"/>
       <c r="E287" s="6" t="s">
@@ -8885,10 +8885,10 @@
     <row r="288">
       <c r="A288" s="4"/>
       <c r="B288" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D288" s="4"/>
       <c r="E288" s="6" t="s">
@@ -8904,17 +8904,17 @@
     <row r="289">
       <c r="A289" s="4"/>
       <c r="B289" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D289" s="4"/>
       <c r="E289" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F289" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G289" s="4"/>
       <c r="H289" s="4"/>
@@ -8925,10 +8925,10 @@
     <row r="290">
       <c r="A290" s="4"/>
       <c r="B290" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D290" s="4"/>
       <c r="E290" s="6" t="s">
@@ -8944,10 +8944,10 @@
     <row r="291">
       <c r="A291" s="4"/>
       <c r="B291" s="5" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D291" s="4"/>
       <c r="E291" s="6" t="s">
@@ -8963,14 +8963,14 @@
     <row r="292">
       <c r="A292" s="4"/>
       <c r="B292" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C292" s="6" t="s">
         <v>527</v>
-      </c>
-      <c r="C292" s="6" t="s">
-        <v>526</v>
       </c>
       <c r="D292" s="4"/>
       <c r="E292" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F292" s="4"/>
       <c r="G292" s="4"/>
@@ -8982,10 +8982,10 @@
     <row r="293">
       <c r="A293" s="4"/>
       <c r="B293" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D293" s="4"/>
       <c r="E293" s="6" t="s">
@@ -9001,10 +9001,10 @@
     <row r="294">
       <c r="A294" s="4"/>
       <c r="B294" s="9" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D294" s="8" t="s">
         <v>744</v>
@@ -9022,10 +9022,10 @@
     <row r="295">
       <c r="A295" s="4"/>
       <c r="B295" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D295" s="4"/>
       <c r="E295" s="6" t="s">
@@ -9041,10 +9041,10 @@
     <row r="296">
       <c r="A296" s="4"/>
       <c r="B296" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D296" s="4"/>
       <c r="E296" s="6" t="s">
@@ -9060,10 +9060,10 @@
     <row r="297">
       <c r="A297" s="4"/>
       <c r="B297" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C297" s="6" t="s">
         <v>536</v>
-      </c>
-      <c r="C297" s="6" t="s">
-        <v>535</v>
       </c>
       <c r="D297" s="4"/>
       <c r="E297" s="6" t="s">
@@ -9079,10 +9079,10 @@
     <row r="298">
       <c r="A298" s="4"/>
       <c r="B298" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D298" s="4"/>
       <c r="E298" s="6" t="s">
@@ -9098,10 +9098,10 @@
     <row r="299">
       <c r="A299" s="4"/>
       <c r="B299" s="5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D299" s="4"/>
       <c r="E299" s="6" t="s">
@@ -9117,10 +9117,10 @@
     <row r="300">
       <c r="A300" s="4"/>
       <c r="B300" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D300" s="4"/>
       <c r="E300" s="6" t="s">
@@ -9136,10 +9136,10 @@
     <row r="301">
       <c r="A301" s="4"/>
       <c r="B301" s="5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D301" s="4"/>
       <c r="E301" s="6" t="s">
@@ -9155,10 +9155,10 @@
     <row r="302">
       <c r="A302" s="4"/>
       <c r="B302" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D302" s="4"/>
       <c r="E302" s="6" t="s">
@@ -9174,10 +9174,10 @@
     <row r="303">
       <c r="A303" s="4"/>
       <c r="B303" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D303" s="4"/>
       <c r="E303" s="6" t="s">
@@ -9193,10 +9193,10 @@
     <row r="304">
       <c r="A304" s="4"/>
       <c r="B304" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D304" s="4"/>
       <c r="E304" s="6" t="s">
@@ -9212,10 +9212,10 @@
     <row r="305">
       <c r="A305" s="4"/>
       <c r="B305" s="5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D305" s="4"/>
       <c r="E305" s="6" t="s">
@@ -9233,10 +9233,10 @@
         <v>100.0</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C306" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D306" s="11"/>
       <c r="E306" s="6" t="s">
@@ -9252,10 +9252,10 @@
     <row r="307">
       <c r="A307" s="4"/>
       <c r="B307" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D307" s="4"/>
       <c r="E307" s="6" t="s">
@@ -9271,10 +9271,10 @@
     <row r="308">
       <c r="A308" s="4"/>
       <c r="B308" s="5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D308" s="4"/>
       <c r="E308" s="6" t="s">
@@ -9290,10 +9290,10 @@
     <row r="309">
       <c r="A309" s="4"/>
       <c r="B309" s="5" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D309" s="8" t="s">
         <v>745</v>
@@ -9311,10 +9311,10 @@
     <row r="310">
       <c r="A310" s="4"/>
       <c r="B310" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D310" s="4"/>
       <c r="E310" s="6" t="s">
@@ -9330,14 +9330,14 @@
     <row r="311">
       <c r="A311" s="4"/>
       <c r="B311" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D311" s="4"/>
       <c r="E311" s="6" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F311" s="4"/>
       <c r="G311" s="4"/>
@@ -9349,10 +9349,10 @@
     <row r="312">
       <c r="A312" s="4"/>
       <c r="B312" s="5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D312" s="4"/>
       <c r="E312" s="6" t="s">
@@ -9368,10 +9368,10 @@
     <row r="313">
       <c r="A313" s="4"/>
       <c r="B313" s="5" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D313" s="4"/>
       <c r="E313" s="6" t="s">
@@ -9387,10 +9387,10 @@
     <row r="314">
       <c r="A314" s="4"/>
       <c r="B314" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D314" s="4"/>
       <c r="E314" s="6" t="s">
@@ -9406,10 +9406,10 @@
     <row r="315">
       <c r="A315" s="4"/>
       <c r="B315" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D315" s="4"/>
       <c r="E315" s="6" t="s">
@@ -9425,14 +9425,14 @@
     <row r="316">
       <c r="A316" s="4"/>
       <c r="B316" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D316" s="4"/>
       <c r="E316" s="6" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F316" s="4"/>
       <c r="G316" s="4"/>
@@ -9444,10 +9444,10 @@
     <row r="317">
       <c r="A317" s="4"/>
       <c r="B317" s="5" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D317" s="4"/>
       <c r="E317" s="6" t="s">
@@ -9463,10 +9463,10 @@
     <row r="318">
       <c r="A318" s="4"/>
       <c r="B318" s="5" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D318" s="4"/>
       <c r="E318" s="6" t="s">
@@ -9482,10 +9482,10 @@
     <row r="319">
       <c r="A319" s="4"/>
       <c r="B319" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C319" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="C319" s="6" t="s">
-        <v>574</v>
       </c>
       <c r="D319" s="4"/>
       <c r="E319" s="6" t="s">
@@ -9501,10 +9501,10 @@
     <row r="320">
       <c r="A320" s="4"/>
       <c r="B320" s="5" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D320" s="4"/>
       <c r="E320" s="6" t="s">
@@ -9520,10 +9520,10 @@
     <row r="321">
       <c r="A321" s="4"/>
       <c r="B321" s="5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D321" s="4"/>
       <c r="E321" s="6" t="s">
@@ -9539,10 +9539,10 @@
     <row r="322">
       <c r="A322" s="4"/>
       <c r="B322" s="5" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D322" s="4"/>
       <c r="E322" s="6" t="s">
@@ -9558,14 +9558,14 @@
     <row r="323">
       <c r="A323" s="4"/>
       <c r="B323" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D323" s="4"/>
       <c r="E323" s="6" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F323" s="4"/>
       <c r="G323" s="4"/>
@@ -9577,14 +9577,14 @@
     <row r="324">
       <c r="A324" s="4"/>
       <c r="B324" s="5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D324" s="4"/>
       <c r="E324" s="6" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F324" s="4"/>
       <c r="G324" s="4"/>
@@ -9596,10 +9596,10 @@
     <row r="325">
       <c r="A325" s="4"/>
       <c r="B325" s="5" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D325" s="4"/>
       <c r="E325" s="6" t="s">
@@ -9615,10 +9615,10 @@
     <row r="326">
       <c r="A326" s="4"/>
       <c r="B326" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D326" s="4"/>
       <c r="E326" s="6" t="s">
@@ -9634,10 +9634,10 @@
     <row r="327">
       <c r="A327" s="4"/>
       <c r="B327" s="5" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D327" s="4"/>
       <c r="E327" s="6" t="s">
@@ -9653,10 +9653,10 @@
     <row r="328">
       <c r="A328" s="4"/>
       <c r="B328" s="5" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D328" s="4"/>
       <c r="E328" s="6" t="s">
@@ -9672,14 +9672,14 @@
     <row r="329">
       <c r="A329" s="4"/>
       <c r="B329" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C329" s="6" t="s">
         <v>594</v>
-      </c>
-      <c r="C329" s="6" t="s">
-        <v>593</v>
       </c>
       <c r="D329" s="4"/>
       <c r="E329" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F329" s="4"/>
       <c r="G329" s="4"/>
@@ -9691,10 +9691,10 @@
     <row r="330">
       <c r="A330" s="4"/>
       <c r="B330" s="5" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D330" s="4"/>
       <c r="E330" s="6" t="s">
@@ -9710,17 +9710,17 @@
     <row r="331">
       <c r="A331" s="4"/>
       <c r="B331" s="5" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D331" s="4"/>
       <c r="E331" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F331" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G331" s="4"/>
       <c r="H331" s="4"/>
@@ -9731,10 +9731,10 @@
     <row r="332">
       <c r="A332" s="4"/>
       <c r="B332" s="9" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D332" s="8" t="s">
         <v>746</v>
@@ -9743,7 +9743,7 @@
         <v>8</v>
       </c>
       <c r="F332" s="6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G332" s="4"/>
       <c r="H332" s="4"/>
@@ -9754,10 +9754,10 @@
     <row r="333">
       <c r="A333" s="4"/>
       <c r="B333" s="5" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D333" s="4"/>
       <c r="E333" s="6" t="s">
@@ -9773,10 +9773,10 @@
     <row r="334">
       <c r="A334" s="4"/>
       <c r="B334" s="9" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D334" s="4"/>
       <c r="E334" s="6" t="s">
@@ -9792,16 +9792,16 @@
     <row r="335">
       <c r="A335" s="4"/>
       <c r="B335" s="9" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C335" s="15" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D335" s="8" t="s">
         <v>747</v>
       </c>
       <c r="E335" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F335" s="4"/>
       <c r="G335" s="4"/>
@@ -9813,10 +9813,10 @@
     <row r="336">
       <c r="A336" s="4"/>
       <c r="B336" s="9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D336" s="4"/>
       <c r="E336" s="6" t="s">
@@ -9832,10 +9832,10 @@
     <row r="337">
       <c r="A337" s="4"/>
       <c r="B337" s="5" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D337" s="4"/>
       <c r="E337" s="6" t="s">
@@ -9851,10 +9851,10 @@
     <row r="338">
       <c r="A338" s="4"/>
       <c r="B338" s="5" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D338" s="4"/>
       <c r="E338" s="6" t="s">
@@ -9870,10 +9870,10 @@
     <row r="339">
       <c r="A339" s="4"/>
       <c r="B339" s="5" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D339" s="4"/>
       <c r="E339" s="6" t="s">
@@ -9889,10 +9889,10 @@
     <row r="340">
       <c r="A340" s="4"/>
       <c r="B340" s="5" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D340" s="4"/>
       <c r="E340" s="6" t="s">
@@ -9908,10 +9908,10 @@
     <row r="341">
       <c r="A341" s="4"/>
       <c r="B341" s="5" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D341" s="4"/>
       <c r="E341" s="6" t="s">
@@ -9927,14 +9927,14 @@
     <row r="342">
       <c r="A342" s="4"/>
       <c r="B342" s="5" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D342" s="4"/>
       <c r="E342" s="6" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F342" s="4"/>
       <c r="G342" s="4"/>
@@ -9946,14 +9946,14 @@
     <row r="343">
       <c r="A343" s="4"/>
       <c r="B343" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C343" s="10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D343" s="11"/>
       <c r="E343" s="6" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F343" s="4"/>
       <c r="G343" s="4"/>
@@ -9965,10 +9965,10 @@
     <row r="344">
       <c r="A344" s="4"/>
       <c r="B344" s="5" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D344" s="4"/>
       <c r="E344" s="6" t="s">
@@ -9984,10 +9984,10 @@
     <row r="345">
       <c r="A345" s="4"/>
       <c r="B345" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="C345" s="6" t="s">
         <v>629</v>
-      </c>
-      <c r="C345" s="6" t="s">
-        <v>628</v>
       </c>
       <c r="D345" s="4"/>
       <c r="E345" s="6" t="s">
@@ -10003,10 +10003,10 @@
     <row r="346">
       <c r="A346" s="4"/>
       <c r="B346" s="5" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D346" s="4"/>
       <c r="E346" s="6" t="s">
@@ -10022,10 +10022,10 @@
     <row r="347">
       <c r="A347" s="4"/>
       <c r="B347" s="5" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D347" s="4"/>
       <c r="E347" s="6" t="s">
@@ -10041,10 +10041,10 @@
     <row r="348">
       <c r="A348" s="4"/>
       <c r="B348" s="5" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D348" s="4"/>
       <c r="E348" s="6" t="s">
@@ -10060,10 +10060,10 @@
     <row r="349">
       <c r="A349" s="4"/>
       <c r="B349" s="5" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D349" s="4"/>
       <c r="E349" s="6" t="s">
@@ -10079,14 +10079,14 @@
     <row r="350">
       <c r="A350" s="4"/>
       <c r="B350" s="5" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D350" s="4"/>
       <c r="E350" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F350" s="4"/>
       <c r="G350" s="4"/>
@@ -10098,10 +10098,10 @@
     <row r="351">
       <c r="A351" s="4"/>
       <c r="B351" s="5" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D351" s="4"/>
       <c r="E351" s="6" t="s">
@@ -10117,10 +10117,10 @@
     <row r="352">
       <c r="A352" s="4"/>
       <c r="B352" s="5" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D352" s="4"/>
       <c r="E352" s="12" t="s">
@@ -10136,10 +10136,10 @@
     <row r="353">
       <c r="A353" s="4"/>
       <c r="B353" s="5" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D353" s="4"/>
       <c r="E353" s="6" t="s">
@@ -10155,14 +10155,14 @@
     <row r="354">
       <c r="A354" s="4"/>
       <c r="B354" s="5" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C354" s="6" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D354" s="4"/>
       <c r="E354" s="6" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F354" s="4"/>
       <c r="G354" s="4"/>
@@ -10174,17 +10174,17 @@
     <row r="355">
       <c r="A355" s="4"/>
       <c r="B355" s="5" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D355" s="4"/>
       <c r="E355" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F355" s="6" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G355" s="4"/>
       <c r="H355" s="4"/>
@@ -10195,10 +10195,10 @@
     <row r="356">
       <c r="A356" s="4"/>
       <c r="B356" s="5" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D356" s="4"/>
       <c r="E356" s="6" t="s">
@@ -10214,10 +10214,10 @@
     <row r="357">
       <c r="A357" s="4"/>
       <c r="B357" s="5" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D357" s="4"/>
       <c r="E357" s="6" t="s">
@@ -10233,10 +10233,10 @@
     <row r="358">
       <c r="A358" s="4"/>
       <c r="B358" s="5" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D358" s="4"/>
       <c r="E358" s="6" t="s">
@@ -10252,10 +10252,10 @@
     <row r="359">
       <c r="A359" s="4"/>
       <c r="B359" s="5" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D359" s="4"/>
       <c r="E359" s="6" t="s">
@@ -10271,10 +10271,10 @@
     <row r="360">
       <c r="A360" s="4"/>
       <c r="B360" s="5" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D360" s="4"/>
       <c r="E360" s="6" t="s">
@@ -10290,10 +10290,10 @@
     <row r="361">
       <c r="A361" s="4"/>
       <c r="B361" s="5" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D361" s="4"/>
       <c r="E361" s="6" t="s">
@@ -10309,10 +10309,10 @@
     <row r="362">
       <c r="A362" s="4"/>
       <c r="B362" s="5" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D362" s="4"/>
       <c r="E362" s="6" t="s">
@@ -10328,10 +10328,10 @@
     <row r="363">
       <c r="A363" s="4"/>
       <c r="B363" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D363" s="4"/>
       <c r="E363" s="6" t="s">
@@ -10347,10 +10347,10 @@
     <row r="364">
       <c r="A364" s="4"/>
       <c r="B364" s="5" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D364" s="4"/>
       <c r="E364" s="6" t="s">
@@ -10366,10 +10366,10 @@
     <row r="365">
       <c r="A365" s="4"/>
       <c r="B365" s="5" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D365" s="4"/>
       <c r="E365" s="6" t="s">
@@ -10385,10 +10385,10 @@
     <row r="366">
       <c r="A366" s="4"/>
       <c r="B366" s="5" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D366" s="4"/>
       <c r="E366" s="6" t="s">
@@ -10404,10 +10404,10 @@
     <row r="367">
       <c r="A367" s="4"/>
       <c r="B367" s="5" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D367" s="4"/>
       <c r="E367" s="6" t="s">
@@ -10423,10 +10423,10 @@
     <row r="368">
       <c r="A368" s="4"/>
       <c r="B368" s="5" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D368" s="4"/>
       <c r="E368" s="6" t="s">
@@ -10442,10 +10442,10 @@
     <row r="369">
       <c r="A369" s="4"/>
       <c r="B369" s="5" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D369" s="4"/>
       <c r="E369" s="6" t="s">
@@ -10461,10 +10461,10 @@
     <row r="370">
       <c r="A370" s="4"/>
       <c r="B370" s="5" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D370" s="4"/>
       <c r="E370" s="6" t="s">
@@ -10480,10 +10480,10 @@
     <row r="371">
       <c r="A371" s="4"/>
       <c r="B371" s="5" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D371" s="4"/>
       <c r="E371" s="6" t="s">
@@ -10499,10 +10499,10 @@
     <row r="372">
       <c r="A372" s="4"/>
       <c r="B372" s="5" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D372" s="4"/>
       <c r="E372" s="6" t="s">
@@ -10518,10 +10518,10 @@
     <row r="373">
       <c r="A373" s="4"/>
       <c r="B373" s="5" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D373" s="4"/>
       <c r="E373" s="6" t="s">
@@ -10537,10 +10537,10 @@
     <row r="374">
       <c r="A374" s="4"/>
       <c r="B374" s="5" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D374" s="4"/>
       <c r="E374" s="6" t="s">
@@ -10556,10 +10556,10 @@
     <row r="375">
       <c r="A375" s="4"/>
       <c r="B375" s="5" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D375" s="4"/>
       <c r="E375" s="6" t="s">
@@ -10575,10 +10575,10 @@
     <row r="376">
       <c r="A376" s="4"/>
       <c r="B376" s="5" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D376" s="4"/>
       <c r="E376" s="6" t="s">
@@ -10594,10 +10594,10 @@
     <row r="377">
       <c r="A377" s="4"/>
       <c r="B377" s="5" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D377" s="4"/>
       <c r="E377" s="6" t="s">
@@ -10613,10 +10613,10 @@
     <row r="378">
       <c r="A378" s="4"/>
       <c r="B378" s="5" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D378" s="4"/>
       <c r="E378" s="6" t="s">
@@ -10632,10 +10632,10 @@
     <row r="379">
       <c r="A379" s="4"/>
       <c r="B379" s="5" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D379" s="8" t="s">
         <v>748</v>
@@ -10653,10 +10653,10 @@
     <row r="380">
       <c r="A380" s="4"/>
       <c r="B380" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C380" s="6" t="s">
         <v>670</v>
-      </c>
-      <c r="C380" s="6" t="s">
-        <v>669</v>
       </c>
       <c r="D380" s="4"/>
       <c r="E380" s="6" t="s">
@@ -10672,10 +10672,10 @@
     <row r="381">
       <c r="A381" s="4"/>
       <c r="B381" s="5" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D381" s="4"/>
       <c r="E381" s="6" t="s">
@@ -10691,10 +10691,10 @@
     <row r="382">
       <c r="A382" s="4"/>
       <c r="B382" s="5" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D382" s="4"/>
       <c r="E382" s="6" t="s">
@@ -10710,10 +10710,10 @@
     <row r="383">
       <c r="A383" s="4"/>
       <c r="B383" s="5" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D383" s="4"/>
       <c r="E383" s="6" t="s">
@@ -10729,10 +10729,10 @@
     <row r="384">
       <c r="A384" s="4"/>
       <c r="B384" s="5" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D384" s="4"/>
       <c r="E384" s="6" t="s">
@@ -10748,10 +10748,10 @@
     <row r="385">
       <c r="A385" s="4"/>
       <c r="B385" s="5" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D385" s="4"/>
       <c r="E385" s="6" t="s">
@@ -10767,10 +10767,10 @@
     <row r="386">
       <c r="A386" s="4"/>
       <c r="B386" s="5" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C386" s="6" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D386" s="4"/>
       <c r="E386" s="6" t="s">
@@ -10786,10 +10786,10 @@
     <row r="387">
       <c r="A387" s="4"/>
       <c r="B387" s="5" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C387" s="6" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D387" s="4"/>
       <c r="E387" s="6" t="s">
@@ -10805,10 +10805,10 @@
     <row r="388">
       <c r="A388" s="4"/>
       <c r="B388" s="5" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D388" s="8" t="s">
         <v>749</v>
@@ -10828,10 +10828,10 @@
     <row r="389">
       <c r="A389" s="4"/>
       <c r="B389" s="5" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D389" s="4"/>
       <c r="E389" s="6" t="s">
@@ -10849,14 +10849,14 @@
         <v>1680.0</v>
       </c>
       <c r="B390" s="9" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C390" s="10" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D390" s="11"/>
       <c r="E390" s="6" t="s">
-        <v>687</v>
+        <v>87</v>
       </c>
       <c r="F390" s="6" t="s">
         <v>688</v>
